--- a/Financial Analysis/PLTR.xlsx
+++ b/Financial Analysis/PLTR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC36DAB4-56E1-4BA1-A851-F1C89E5F147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B7803-E416-489F-B12C-C09C82740B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F38281D2-A2D5-4B11-829A-E3DB86132867}"/>
   </bookViews>
@@ -412,14 +412,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
@@ -436,7 +436,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16954500" y="0"/>
+          <a:off x="17571720" y="0"/>
           <a:ext cx="0" cy="11079480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -813,7 +813,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,17 +841,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>83.6</v>
+        <v>112.86</v>
       </c>
       <c r="E3" s="3">
-        <v>45751</v>
+        <v>45783</v>
       </c>
       <c r="F3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45751</v>
+        <v>45783</v>
       </c>
       <c r="G3" s="3">
-        <v>45789</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -859,8 +859,8 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <f>2249+95.4+1</f>
-        <v>2345.4</v>
+        <f>2348.7</f>
+        <v>2348.6999999999998</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>66</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="D5" s="5">
         <f>D3*D4</f>
-        <v>196075.44</v>
+        <v>265074.28200000001</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
       </c>
       <c r="D9" s="5">
         <f>D5-D8</f>
-        <v>190845.44</v>
+        <v>259844.28200000001</v>
       </c>
     </row>
   </sheetData>
@@ -927,10 +927,10 @@
   <dimension ref="B2:FJ58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ33" sqref="AZ33"/>
+      <selection pane="bottomRight" activeCell="AZ35" sqref="AZ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,12 +1161,11 @@
         <v>827.5</v>
       </c>
       <c r="AA3" s="8">
-        <f>W3*1.4</f>
-        <v>888.01999999999987</v>
+        <v>883.9</v>
       </c>
       <c r="AB3" s="8">
-        <f>X3*1.4</f>
-        <v>949.33999999999992</v>
+        <f>X3*1.38</f>
+        <v>935.77799999999991</v>
       </c>
       <c r="AC3" s="8">
         <f>Y3*1.35</f>
@@ -1204,47 +1203,47 @@
       </c>
       <c r="AM3" s="8">
         <f>SUM(AA3:AD3)</f>
-        <v>3892.5349999999999</v>
+        <v>3874.8530000000001</v>
       </c>
       <c r="AN3" s="8">
         <f>AM3*1.3</f>
-        <v>5060.2955000000002</v>
+        <v>5037.3089</v>
       </c>
       <c r="AO3" s="8">
         <f>AN3*1.27</f>
-        <v>6426.5752849999999</v>
+        <v>6397.3823030000003</v>
       </c>
       <c r="AP3" s="8">
         <f>AO3*1.24</f>
-        <v>7968.9533534000002</v>
+        <v>7932.75405572</v>
       </c>
       <c r="AQ3" s="8">
         <f>AP3*1.18</f>
-        <v>9403.3649570119996</v>
+        <v>9360.6497857495997</v>
       </c>
       <c r="AR3" s="8">
         <f>AQ3*1.14</f>
-        <v>10719.836050993679</v>
+        <v>10671.140755754543</v>
       </c>
       <c r="AS3" s="8">
         <f>AR3*1.1</f>
-        <v>11791.819656093048</v>
+        <v>11738.254831329998</v>
       </c>
       <c r="AT3" s="8">
         <f>AS3*1.08</f>
-        <v>12735.165228580492</v>
+        <v>12677.315217836398</v>
       </c>
       <c r="AU3" s="8">
         <f>AT3*1.06</f>
-        <v>13499.275142295322</v>
+        <v>13437.954130906583</v>
       </c>
       <c r="AV3" s="8">
         <f t="shared" ref="AV3" si="0">AU3*1.05</f>
-        <v>14174.238899410089</v>
+        <v>14109.851837451912</v>
       </c>
       <c r="AW3" s="8">
         <f>AV3*1.04</f>
-        <v>14741.208455386493</v>
+        <v>14674.245910949989</v>
       </c>
     </row>
     <row r="4" spans="2:49" x14ac:dyDescent="0.3">
@@ -1326,12 +1325,11 @@
         <v>174.5</v>
       </c>
       <c r="AA4" s="5">
-        <f>AA3-AA5</f>
-        <v>177.60399999999993</v>
+        <v>173</v>
       </c>
       <c r="AB4" s="5">
         <f t="shared" ref="AB4:AD4" si="1">AB3-AB5</f>
-        <v>189.86799999999994</v>
+        <v>187.15559999999994</v>
       </c>
       <c r="AC4" s="5">
         <f t="shared" si="1"/>
@@ -1369,47 +1367,47 @@
       </c>
       <c r="AM4" s="5">
         <f>SUM(AA4:AD4)</f>
-        <v>789.26449999999977</v>
+        <v>781.94809999999984</v>
       </c>
       <c r="AN4" s="5">
         <f t="shared" ref="AN4:AR4" si="2">AN3-AN5</f>
-        <v>1012.0590999999999</v>
+        <v>1007.4617799999996</v>
       </c>
       <c r="AO4" s="5">
         <f t="shared" si="2"/>
-        <v>1285.3150569999998</v>
+        <v>1279.4764605999999</v>
       </c>
       <c r="AP4" s="5">
         <f t="shared" si="2"/>
-        <v>1593.7906706799995</v>
+        <v>1586.5508111439995</v>
       </c>
       <c r="AQ4" s="5">
         <f t="shared" si="2"/>
-        <v>1880.6729914023999</v>
+        <v>1872.1299571499194</v>
       </c>
       <c r="AR4" s="5">
         <f t="shared" si="2"/>
-        <v>2143.9672101987362</v>
+        <v>2134.2281511509082</v>
       </c>
       <c r="AS4" s="5">
         <f t="shared" ref="AS4:AW4" si="3">AS3-AS5</f>
-        <v>2358.3639312186097</v>
+        <v>2347.6509662659992</v>
       </c>
       <c r="AT4" s="5">
         <f t="shared" si="3"/>
-        <v>2547.0330457160981</v>
+        <v>2535.4630435672789</v>
       </c>
       <c r="AU4" s="5">
         <f t="shared" si="3"/>
-        <v>2699.8550284590638</v>
+        <v>2687.5908261813165</v>
       </c>
       <c r="AV4" s="5">
         <f t="shared" si="3"/>
-        <v>2834.8477798820168</v>
+        <v>2821.9703674903812</v>
       </c>
       <c r="AW4" s="5">
         <f t="shared" si="3"/>
-        <v>2948.2416910772972</v>
+        <v>2934.849182189997</v>
       </c>
     </row>
     <row r="5" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1497,7 +1495,7 @@
         <v>499.79999999999995</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" ref="W5:Z5" si="11">W3-W4</f>
+        <f t="shared" ref="W5:AA5" si="11">W3-W4</f>
         <v>518</v>
       </c>
       <c r="X5" s="8">
@@ -1513,12 +1511,12 @@
         <v>653</v>
       </c>
       <c r="AA5" s="8">
-        <f>AA3*0.8</f>
-        <v>710.41599999999994</v>
+        <f t="shared" si="11"/>
+        <v>710.9</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" ref="AB5:AC5" si="12">AB3*0.8</f>
-        <v>759.47199999999998</v>
+        <v>748.62239999999997</v>
       </c>
       <c r="AC5" s="8">
         <f t="shared" si="12"/>
@@ -1558,47 +1556,47 @@
       </c>
       <c r="AM5" s="8">
         <f t="shared" si="13"/>
-        <v>3103.2705000000001</v>
+        <v>3092.9049000000005</v>
       </c>
       <c r="AN5" s="8">
         <f>AN3*0.8</f>
-        <v>4048.2364000000002</v>
+        <v>4029.8471200000004</v>
       </c>
       <c r="AO5" s="8">
         <f t="shared" ref="AO5:AW5" si="14">AO3*0.8</f>
-        <v>5141.2602280000001</v>
+        <v>5117.9058424000004</v>
       </c>
       <c r="AP5" s="8">
         <f t="shared" si="14"/>
-        <v>6375.1626827200007</v>
+        <v>6346.2032445760005</v>
       </c>
       <c r="AQ5" s="8">
         <f t="shared" si="14"/>
-        <v>7522.6919656095997</v>
+        <v>7488.5198285996803</v>
       </c>
       <c r="AR5" s="8">
         <f t="shared" si="14"/>
-        <v>8575.868840794943</v>
+        <v>8536.9126046036345</v>
       </c>
       <c r="AS5" s="8">
         <f t="shared" si="14"/>
-        <v>9433.4557248744386</v>
+        <v>9390.6038650639985</v>
       </c>
       <c r="AT5" s="8">
         <f t="shared" si="14"/>
-        <v>10188.132182864394</v>
+        <v>10141.852174269119</v>
       </c>
       <c r="AU5" s="8">
         <f t="shared" si="14"/>
-        <v>10799.420113836259</v>
+        <v>10750.363304725266</v>
       </c>
       <c r="AV5" s="8">
         <f t="shared" si="14"/>
-        <v>11339.391119528073</v>
+        <v>11287.88146996153</v>
       </c>
       <c r="AW5" s="8">
         <f t="shared" si="14"/>
-        <v>11792.966764309196</v>
+        <v>11739.396728759992</v>
       </c>
     </row>
     <row r="6" spans="2:49" x14ac:dyDescent="0.3">
@@ -1680,20 +1678,19 @@
         <v>288.3</v>
       </c>
       <c r="AA6" s="5">
-        <f>AA3*0.29</f>
-        <v>257.52579999999995</v>
+        <v>236.3</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" ref="AB6" si="15">AB3*0.29</f>
-        <v>275.30859999999996</v>
+        <f>AB3*0.26</f>
+        <v>243.30228</v>
       </c>
       <c r="AC6" s="5">
-        <f>AC3*0.28</f>
-        <v>274.23900000000003</v>
+        <f>AC3*0.26</f>
+        <v>254.65050000000002</v>
       </c>
       <c r="AD6" s="5">
-        <f>AD3*0.32</f>
-        <v>344.24</v>
+        <f>AD3*0.31</f>
+        <v>333.48250000000002</v>
       </c>
       <c r="AF6" s="5">
         <v>461.8</v>
@@ -1723,47 +1720,47 @@
       </c>
       <c r="AM6" s="5">
         <f>SUM(AA6:AD6)</f>
-        <v>1151.3134</v>
+        <v>1067.7352800000001</v>
       </c>
       <c r="AN6" s="5">
-        <f>AN3*0.27</f>
-        <v>1366.2797850000002</v>
+        <f>AN3*0.25</f>
+        <v>1259.327225</v>
       </c>
       <c r="AO6" s="5">
-        <f>AO3*0.26</f>
-        <v>1670.9095741000001</v>
+        <f>AO3*0.22</f>
+        <v>1407.42410666</v>
       </c>
       <c r="AP6" s="5">
-        <f>AP3*0.25</f>
-        <v>1992.23833835</v>
+        <f>AP3*0.19</f>
+        <v>1507.2232705868</v>
       </c>
       <c r="AQ6" s="5">
-        <f>AQ3*0.24</f>
-        <v>2256.80758968288</v>
+        <f>AQ3*0.17</f>
+        <v>1591.3104635774321</v>
       </c>
       <c r="AR6" s="5">
-        <f>AR3*0.23</f>
-        <v>2465.5622917285464</v>
+        <f>AR3*0.16</f>
+        <v>1707.3825209207268</v>
       </c>
       <c r="AS6" s="5">
-        <f t="shared" ref="AS6:AW6" si="16">AS3*0.23</f>
-        <v>2712.1185209014011</v>
+        <f>AS3*0.15</f>
+        <v>1760.7382246994996</v>
       </c>
       <c r="AT6" s="5">
-        <f t="shared" si="16"/>
-        <v>2929.0880025735132</v>
+        <f>AT3*0.15</f>
+        <v>1901.5972826754596</v>
       </c>
       <c r="AU6" s="5">
-        <f t="shared" si="16"/>
-        <v>3104.8332827279241</v>
+        <f t="shared" ref="AU6:AW6" si="15">AU3*0.15</f>
+        <v>2015.6931196359874</v>
       </c>
       <c r="AV6" s="5">
-        <f t="shared" si="16"/>
-        <v>3260.0749468643207</v>
+        <f t="shared" si="15"/>
+        <v>2116.4777756177868</v>
       </c>
       <c r="AW6" s="5">
-        <f t="shared" si="16"/>
-        <v>3390.4779447388937</v>
+        <f t="shared" si="15"/>
+        <v>2201.1368866424982</v>
       </c>
     </row>
     <row r="7" spans="2:49" x14ac:dyDescent="0.3">
@@ -1845,20 +1842,19 @@
         <v>171.5</v>
       </c>
       <c r="AA7" s="5">
-        <f>W7*1.25</f>
-        <v>137.5</v>
+        <v>134.9</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" ref="AB7:AC7" si="17">X7*1.25</f>
+        <f t="shared" ref="AB7:AC7" si="16">X7*1.25</f>
         <v>136</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>147</v>
       </c>
       <c r="AD7" s="5">
-        <f>Z7*1.2</f>
-        <v>205.79999999999998</v>
+        <f>Z7*1.15</f>
+        <v>197.22499999999999</v>
       </c>
       <c r="AF7" s="5">
         <v>285.5</v>
@@ -1888,47 +1884,47 @@
       </c>
       <c r="AM7" s="5">
         <f>SUM(AA7:AD7)</f>
-        <v>626.29999999999995</v>
+        <v>615.125</v>
       </c>
       <c r="AN7" s="5">
-        <f>AM7*1.07</f>
-        <v>670.14099999999996</v>
+        <f>AM7*1.13</f>
+        <v>695.09124999999995</v>
       </c>
       <c r="AO7" s="5">
-        <f>AN7*1.05</f>
-        <v>703.64805000000001</v>
+        <f>AN7*1.07</f>
+        <v>743.7476375</v>
       </c>
       <c r="AP7" s="5">
-        <f>AO7*1.03</f>
-        <v>724.75749150000001</v>
+        <f>AO7*1.04</f>
+        <v>773.49754300000006</v>
       </c>
       <c r="AQ7" s="5">
-        <f t="shared" ref="AQ7:AR8" si="18">AP7*1.02</f>
-        <v>739.25264133000007</v>
+        <f>AP7*1.03</f>
+        <v>796.70246929000007</v>
       </c>
       <c r="AR7" s="5">
-        <f t="shared" si="18"/>
-        <v>754.03769415660008</v>
+        <f t="shared" ref="AR7:AR8" si="17">AQ7*1.02</f>
+        <v>812.63651867580006</v>
       </c>
       <c r="AS7" s="5">
-        <f t="shared" ref="AS7:AS8" si="19">AR7*1.02</f>
-        <v>769.11844803973213</v>
+        <f t="shared" ref="AS7:AS8" si="18">AR7*1.02</f>
+        <v>828.88924904931605</v>
       </c>
       <c r="AT7" s="5">
-        <f t="shared" ref="AT7:AT8" si="20">AS7*1.02</f>
-        <v>784.50081700052681</v>
+        <f t="shared" ref="AT7:AT8" si="19">AS7*1.02</f>
+        <v>845.46703403030233</v>
       </c>
       <c r="AU7" s="5">
-        <f t="shared" ref="AU7:AU8" si="21">AT7*1.02</f>
-        <v>800.19083334053732</v>
+        <f t="shared" ref="AU7:AU8" si="20">AT7*1.02</f>
+        <v>862.37637471090841</v>
       </c>
       <c r="AV7" s="5">
-        <f t="shared" ref="AV7:AV8" si="22">AU7*1.02</f>
-        <v>816.19465000734806</v>
+        <f t="shared" ref="AV7:AV8" si="21">AU7*1.02</f>
+        <v>879.62390220512657</v>
       </c>
       <c r="AW7" s="5">
-        <f t="shared" ref="AW7:AW8" si="23">AV7*1.02</f>
-        <v>832.51854300749505</v>
+        <f t="shared" ref="AW7:AW8" si="22">AV7*1.02</f>
+        <v>897.21638024922913</v>
       </c>
     </row>
     <row r="8" spans="2:49" x14ac:dyDescent="0.3">
@@ -2010,20 +2006,19 @@
         <v>182.1</v>
       </c>
       <c r="AA8" s="5">
-        <f>W8*1.15</f>
-        <v>154.1</v>
+        <v>163.6</v>
       </c>
       <c r="AB8" s="5">
-        <f t="shared" ref="AB8:AD8" si="24">X8*1.15</f>
+        <f t="shared" ref="AB8:AC8" si="23">X8*1.15</f>
         <v>159.38999999999999</v>
       </c>
       <c r="AC8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>159.50499999999997</v>
       </c>
       <c r="AD8" s="5">
-        <f t="shared" si="24"/>
-        <v>209.41499999999996</v>
+        <f>Z8*1.1</f>
+        <v>200.31</v>
       </c>
       <c r="AF8" s="5">
         <v>306.2</v>
@@ -2053,47 +2048,47 @@
       </c>
       <c r="AM8" s="5">
         <f>SUM(AA8:AD8)</f>
-        <v>682.41</v>
+        <v>682.80500000000006</v>
       </c>
       <c r="AN8" s="5">
-        <f t="shared" ref="AN8" si="25">AM8*1.03</f>
-        <v>702.88229999999999</v>
+        <f>AM8*1.09</f>
+        <v>744.25745000000018</v>
       </c>
       <c r="AO8" s="5">
-        <f>AN8*1.02</f>
-        <v>716.93994599999996</v>
+        <f>AN8*1.05</f>
+        <v>781.47032250000018</v>
       </c>
       <c r="AP8" s="5">
-        <f t="shared" ref="AP8" si="26">AO8*1.02</f>
-        <v>731.27874492000001</v>
+        <f>AO8*1.04</f>
+        <v>812.72913540000025</v>
       </c>
       <c r="AQ8" s="5">
+        <f>AP8*1.03</f>
+        <v>837.11100946200031</v>
+      </c>
+      <c r="AR8" s="5">
+        <f t="shared" si="17"/>
+        <v>853.85322965124033</v>
+      </c>
+      <c r="AS8" s="5">
         <f t="shared" si="18"/>
-        <v>745.90431981840004</v>
-      </c>
-      <c r="AR8" s="5">
-        <f t="shared" si="18"/>
-        <v>760.82240621476808</v>
-      </c>
-      <c r="AS8" s="5">
+        <v>870.93029424426516</v>
+      </c>
+      <c r="AT8" s="5">
         <f t="shared" si="19"/>
-        <v>776.0388543390635</v>
-      </c>
-      <c r="AT8" s="5">
+        <v>888.34890012915048</v>
+      </c>
+      <c r="AU8" s="5">
         <f t="shared" si="20"/>
-        <v>791.55963142584483</v>
-      </c>
-      <c r="AU8" s="5">
+        <v>906.11587813173355</v>
+      </c>
+      <c r="AV8" s="5">
         <f t="shared" si="21"/>
-        <v>807.3908240543617</v>
-      </c>
-      <c r="AV8" s="5">
+        <v>924.23819569436819</v>
+      </c>
+      <c r="AW8" s="5">
         <f t="shared" si="22"/>
-        <v>823.53864053544896</v>
-      </c>
-      <c r="AW8" s="5">
-        <f t="shared" si="23"/>
-        <v>840.009413346158</v>
+        <v>942.72295960825556</v>
       </c>
     </row>
     <row r="9" spans="2:49" x14ac:dyDescent="0.3">
@@ -2117,7 +2112,7 @@
         <v>300.89999999999998</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9" si="27">G6+G7+G8</f>
+        <f t="shared" ref="G9" si="24">G6+G7+G8</f>
         <v>235.3</v>
       </c>
       <c r="H9" s="12">
@@ -2133,84 +2128,84 @@
         <v>408.1</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:M9" si="28">K6+K7+K8</f>
+        <f t="shared" ref="K9:M9" si="25">K6+K7+K8</f>
         <v>381.2</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>430.9</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>397.2</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" ref="N9:O9" si="29">N6+N7+N8</f>
+        <f t="shared" ref="N9:O9" si="26">N6+N7+N8</f>
         <v>404.3</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>391.4</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" ref="P9:Q9" si="30">P6+P7+P8</f>
+        <f t="shared" ref="P9:Q9" si="27">P6+P7+P8</f>
         <v>412.6</v>
       </c>
       <c r="Q9" s="5">
+        <f t="shared" si="27"/>
+        <v>432.5</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" ref="R9" si="28">R6+R7+R8</f>
+        <v>422.1</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" ref="S9" si="29">S6+S7+S8</f>
+        <v>413.4</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" ref="T9:U9" si="30">T6+T7+T8</f>
+        <v>416.29999999999995</v>
+      </c>
+      <c r="U9" s="5">
         <f t="shared" si="30"/>
-        <v>432.5</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" ref="R9" si="31">R6+R7+R8</f>
-        <v>422.1</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" ref="S9" si="32">S6+S7+S8</f>
-        <v>413.4</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" ref="T9:U9" si="33">T6+T7+T8</f>
-        <v>416.29999999999995</v>
-      </c>
-      <c r="U9" s="5">
+        <v>410.3</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" ref="V9" si="31">V6+V7+V8</f>
+        <v>434</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" ref="W9:X9" si="32">W6+W7+W8</f>
+        <v>437.2</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="32"/>
+        <v>444.20000000000005</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" ref="Y9:AD9" si="33">Y6+Y7+Y8</f>
+        <v>465.8</v>
+      </c>
+      <c r="Z9" s="5">
         <f t="shared" si="33"/>
-        <v>410.3</v>
-      </c>
-      <c r="V9" s="5">
-        <f t="shared" ref="V9" si="34">V6+V7+V8</f>
-        <v>434</v>
-      </c>
-      <c r="W9" s="5">
-        <f t="shared" ref="W9:X9" si="35">W6+W7+W8</f>
-        <v>437.2</v>
-      </c>
-      <c r="X9" s="5">
-        <f t="shared" si="35"/>
-        <v>444.20000000000005</v>
-      </c>
-      <c r="Y9" s="5">
-        <f t="shared" ref="Y9:AD9" si="36">Y6+Y7+Y8</f>
-        <v>465.8</v>
-      </c>
-      <c r="Z9" s="5">
-        <f t="shared" si="36"/>
         <v>641.9</v>
       </c>
       <c r="AA9" s="5">
-        <f t="shared" si="36"/>
-        <v>549.12579999999991</v>
+        <f t="shared" si="33"/>
+        <v>534.80000000000007</v>
       </c>
       <c r="AB9" s="5">
-        <f t="shared" si="36"/>
-        <v>570.69859999999994</v>
+        <f t="shared" si="33"/>
+        <v>538.69227999999998</v>
       </c>
       <c r="AC9" s="5">
-        <f t="shared" si="36"/>
-        <v>580.74400000000003</v>
+        <f t="shared" si="33"/>
+        <v>561.15549999999996</v>
       </c>
       <c r="AD9" s="5">
-        <f t="shared" si="36"/>
-        <v>759.45499999999993</v>
+        <f t="shared" si="33"/>
+        <v>731.01749999999993</v>
       </c>
       <c r="AF9" s="5">
         <f>AF6+AF7+AF8</f>
@@ -2225,64 +2220,64 @@
         <v>1913.8</v>
       </c>
       <c r="AI9" s="5">
-        <f t="shared" ref="AI9:AR9" si="37">AI6+AI7+AI8</f>
+        <f t="shared" ref="AI9:AR9" si="34">AI6+AI7+AI8</f>
         <v>1613.6</v>
       </c>
       <c r="AJ9" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>1658.6</v>
       </c>
       <c r="AK9" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>1673.9999999999998</v>
       </c>
       <c r="AL9" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>1989.1</v>
       </c>
       <c r="AM9" s="5">
-        <f t="shared" si="37"/>
-        <v>2460.0234</v>
+        <f t="shared" si="34"/>
+        <v>2365.6652800000002</v>
       </c>
       <c r="AN9" s="5">
-        <f t="shared" si="37"/>
-        <v>2739.3030850000005</v>
+        <f t="shared" si="34"/>
+        <v>2698.675925</v>
       </c>
       <c r="AO9" s="5">
-        <f t="shared" si="37"/>
-        <v>3091.4975700999998</v>
+        <f t="shared" si="34"/>
+        <v>2932.6420666600002</v>
       </c>
       <c r="AP9" s="5">
-        <f t="shared" si="37"/>
-        <v>3448.2745747700001</v>
+        <f t="shared" si="34"/>
+        <v>3093.4499489868003</v>
       </c>
       <c r="AQ9" s="5">
-        <f t="shared" si="37"/>
-        <v>3741.9645508312801</v>
+        <f t="shared" si="34"/>
+        <v>3225.1239423294323</v>
       </c>
       <c r="AR9" s="5">
-        <f t="shared" si="37"/>
-        <v>3980.4223920999148</v>
+        <f t="shared" si="34"/>
+        <v>3373.8722692477672</v>
       </c>
       <c r="AS9" s="5">
-        <f t="shared" ref="AS9:AW9" si="38">AS6+AS7+AS8</f>
-        <v>4257.2758232801971</v>
+        <f t="shared" ref="AS9:AW9" si="35">AS6+AS7+AS8</f>
+        <v>3460.5577679930807</v>
       </c>
       <c r="AT9" s="5">
-        <f t="shared" si="38"/>
-        <v>4505.1484509998845</v>
+        <f t="shared" si="35"/>
+        <v>3635.4132168349124</v>
       </c>
       <c r="AU9" s="5">
-        <f t="shared" si="38"/>
-        <v>4712.4149401228233</v>
+        <f t="shared" si="35"/>
+        <v>3784.1853724786292</v>
       </c>
       <c r="AV9" s="5">
-        <f t="shared" si="38"/>
-        <v>4899.8082374071182</v>
+        <f t="shared" si="35"/>
+        <v>3920.3398735172814</v>
       </c>
       <c r="AW9" s="5">
-        <f t="shared" si="38"/>
-        <v>5063.005901092547</v>
+        <f t="shared" si="35"/>
+        <v>4041.076226499983</v>
       </c>
     </row>
     <row r="10" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2306,7 +2301,7 @@
         <v>-147.39999999999998</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" ref="G10" si="39">G5-G9</f>
+        <f t="shared" ref="G10" si="36">G5-G9</f>
         <v>-70.300000000000011</v>
       </c>
       <c r="H10" s="11">
@@ -2322,84 +2317,84 @@
         <v>-156.5</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" ref="K10:M10" si="40">K5-K9</f>
+        <f t="shared" ref="K10:M10" si="37">K5-K9</f>
         <v>-114.09999999999997</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>-146.19999999999993</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>-91.899999999999977</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" ref="N10:O10" si="41">N5-N9</f>
+        <f t="shared" ref="N10:O10" si="38">N5-N9</f>
         <v>-59.000000000000057</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>-39.399999999999977</v>
       </c>
       <c r="P10" s="8">
-        <f t="shared" ref="P10:Q10" si="42">P5-P9</f>
+        <f t="shared" ref="P10:Q10" si="39">P5-P9</f>
         <v>-41.800000000000011</v>
       </c>
       <c r="Q10" s="8">
+        <f t="shared" si="39"/>
+        <v>-62.200000000000045</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" ref="R10" si="40">R5-R9</f>
+        <v>-17.800000000000011</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" ref="S10" si="41">S5-S9</f>
+        <v>4.2000000000000455</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" ref="T10:U10" si="42">T5-T9</f>
+        <v>10.100000000000023</v>
+      </c>
+      <c r="U10" s="8">
         <f t="shared" si="42"/>
-        <v>-62.200000000000045</v>
-      </c>
-      <c r="R10" s="8">
-        <f t="shared" ref="R10" si="43">R5-R9</f>
-        <v>-17.800000000000011</v>
-      </c>
-      <c r="S10" s="8">
-        <f t="shared" ref="S10" si="44">S5-S9</f>
-        <v>4.2000000000000455</v>
-      </c>
-      <c r="T10" s="8">
-        <f t="shared" ref="T10:U10" si="45">T5-T9</f>
-        <v>10.100000000000023</v>
-      </c>
-      <c r="U10" s="8">
+        <v>40.000000000000057</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" ref="V10" si="43">V5-V9</f>
+        <v>65.799999999999955</v>
+      </c>
+      <c r="W10" s="8">
+        <f t="shared" ref="W10:X10" si="44">W5-W9</f>
+        <v>80.800000000000011</v>
+      </c>
+      <c r="X10" s="8">
+        <f t="shared" si="44"/>
+        <v>105.29999999999995</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" ref="Y10:AD10" si="45">Y5-Y9</f>
+        <v>113.09999999999997</v>
+      </c>
+      <c r="Z10" s="8">
         <f t="shared" si="45"/>
-        <v>40.000000000000057</v>
-      </c>
-      <c r="V10" s="8">
-        <f t="shared" ref="V10" si="46">V5-V9</f>
-        <v>65.799999999999955</v>
-      </c>
-      <c r="W10" s="8">
-        <f t="shared" ref="W10:X10" si="47">W5-W9</f>
-        <v>80.800000000000011</v>
-      </c>
-      <c r="X10" s="8">
-        <f t="shared" si="47"/>
-        <v>105.29999999999995</v>
-      </c>
-      <c r="Y10" s="8">
-        <f t="shared" ref="Y10:AD10" si="48">Y5-Y9</f>
-        <v>113.09999999999997</v>
-      </c>
-      <c r="Z10" s="8">
-        <f t="shared" si="48"/>
         <v>11.100000000000023</v>
       </c>
       <c r="AA10" s="8">
-        <f t="shared" si="48"/>
-        <v>161.29020000000003</v>
+        <f t="shared" si="45"/>
+        <v>176.09999999999991</v>
       </c>
       <c r="AB10" s="8">
-        <f t="shared" si="48"/>
-        <v>188.77340000000004</v>
+        <f t="shared" si="45"/>
+        <v>209.93011999999999</v>
       </c>
       <c r="AC10" s="8">
-        <f t="shared" si="48"/>
-        <v>202.79600000000005</v>
+        <f t="shared" si="45"/>
+        <v>222.38450000000012</v>
       </c>
       <c r="AD10" s="8">
-        <f t="shared" si="48"/>
-        <v>90.387500000000159</v>
+        <f t="shared" si="45"/>
+        <v>118.82500000000016</v>
       </c>
       <c r="AF10" s="8">
         <f>AF5-AF9</f>
@@ -2414,64 +2409,64 @@
         <v>-1173.6000000000001</v>
       </c>
       <c r="AI10" s="8">
-        <f t="shared" ref="AI10:AR10" si="49">AI5-AI9</f>
+        <f t="shared" ref="AI10:AR10" si="46">AI5-AI9</f>
         <v>-411.19999999999982</v>
       </c>
       <c r="AJ10" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>-161.19999999999982</v>
       </c>
       <c r="AK10" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>120.10000000000014</v>
       </c>
       <c r="AL10" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>310.30000000000018</v>
       </c>
       <c r="AM10" s="8">
-        <f t="shared" si="49"/>
-        <v>643.24710000000005</v>
+        <f t="shared" si="46"/>
+        <v>727.23962000000029</v>
       </c>
       <c r="AN10" s="8">
-        <f t="shared" si="49"/>
-        <v>1308.9333149999998</v>
+        <f t="shared" si="46"/>
+        <v>1331.1711950000004</v>
       </c>
       <c r="AO10" s="8">
-        <f t="shared" si="49"/>
-        <v>2049.7626579000002</v>
+        <f t="shared" si="46"/>
+        <v>2185.2637757400003</v>
       </c>
       <c r="AP10" s="8">
-        <f t="shared" si="49"/>
-        <v>2926.8881079500006</v>
+        <f t="shared" si="46"/>
+        <v>3252.7532955892002</v>
       </c>
       <c r="AQ10" s="8">
-        <f t="shared" si="49"/>
-        <v>3780.7274147783196</v>
+        <f t="shared" si="46"/>
+        <v>4263.3958862702475</v>
       </c>
       <c r="AR10" s="8">
-        <f t="shared" si="49"/>
-        <v>4595.4464486950283</v>
+        <f t="shared" si="46"/>
+        <v>5163.0403353558668</v>
       </c>
       <c r="AS10" s="8">
-        <f t="shared" ref="AS10:AW10" si="50">AS5-AS9</f>
-        <v>5176.1799015942415</v>
+        <f t="shared" ref="AS10:AW10" si="47">AS5-AS9</f>
+        <v>5930.0460970709173</v>
       </c>
       <c r="AT10" s="8">
-        <f t="shared" si="50"/>
-        <v>5682.9837318645095</v>
+        <f t="shared" si="47"/>
+        <v>6506.4389574342067</v>
       </c>
       <c r="AU10" s="8">
-        <f t="shared" si="50"/>
-        <v>6087.0051737134354</v>
+        <f t="shared" si="47"/>
+        <v>6966.1779322466373</v>
       </c>
       <c r="AV10" s="8">
-        <f t="shared" si="50"/>
-        <v>6439.5828821209543</v>
+        <f t="shared" si="47"/>
+        <v>7367.5415964442491</v>
       </c>
       <c r="AW10" s="8">
-        <f t="shared" si="50"/>
-        <v>6729.9608632166492</v>
+        <f t="shared" si="47"/>
+        <v>7698.3205022600087</v>
       </c>
     </row>
     <row r="11" spans="2:49" x14ac:dyDescent="0.3">
@@ -2553,19 +2548,18 @@
         <v>-54.7</v>
       </c>
       <c r="AA11" s="5">
-        <f>W11*1.2</f>
-        <v>-52.08</v>
+        <v>-50.4</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" ref="AB11:AD11" si="51">X11*1.2</f>
+        <f t="shared" ref="AB11:AD11" si="48">X11*1.2</f>
         <v>-55.92</v>
       </c>
       <c r="AC11" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>-62.519999999999996</v>
       </c>
       <c r="AD11" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>-65.64</v>
       </c>
       <c r="AF11" s="5">
@@ -2596,47 +2590,47 @@
       </c>
       <c r="AM11" s="5">
         <f>SUM(AA11:AD11)</f>
-        <v>-236.15999999999997</v>
+        <v>-234.47999999999996</v>
       </c>
       <c r="AN11" s="5">
         <f>AM11*1.15</f>
-        <v>-271.58399999999995</v>
+        <v>-269.65199999999993</v>
       </c>
       <c r="AO11" s="5">
-        <f t="shared" ref="AO11:AW11" si="52">AN11*1.15</f>
-        <v>-312.32159999999993</v>
+        <f t="shared" ref="AO11:AW11" si="49">AN11*1.15</f>
+        <v>-310.0997999999999</v>
       </c>
       <c r="AP11" s="5">
-        <f t="shared" si="52"/>
-        <v>-359.16983999999991</v>
+        <f t="shared" si="49"/>
+        <v>-356.61476999999985</v>
       </c>
       <c r="AQ11" s="5">
-        <f t="shared" si="52"/>
-        <v>-413.04531599999984</v>
+        <f t="shared" si="49"/>
+        <v>-410.10698549999978</v>
       </c>
       <c r="AR11" s="5">
-        <f t="shared" si="52"/>
-        <v>-475.00211339999976</v>
+        <f t="shared" si="49"/>
+        <v>-471.62303332499971</v>
       </c>
       <c r="AS11" s="5">
-        <f t="shared" si="52"/>
-        <v>-546.25243040999965</v>
+        <f t="shared" si="49"/>
+        <v>-542.36648832374965</v>
       </c>
       <c r="AT11" s="5">
-        <f t="shared" si="52"/>
-        <v>-628.1902949714995</v>
+        <f t="shared" si="49"/>
+        <v>-623.72146157231202</v>
       </c>
       <c r="AU11" s="5">
-        <f t="shared" si="52"/>
-        <v>-722.41883921722433</v>
+        <f t="shared" si="49"/>
+        <v>-717.27968080815879</v>
       </c>
       <c r="AV11" s="5">
-        <f t="shared" si="52"/>
-        <v>-830.78166509980792</v>
+        <f t="shared" si="49"/>
+        <v>-824.87163292938249</v>
       </c>
       <c r="AW11" s="5">
-        <f t="shared" si="52"/>
-        <v>-955.39891486477904</v>
+        <f t="shared" si="49"/>
+        <v>-948.60237786878974</v>
       </c>
     </row>
     <row r="12" spans="2:49" x14ac:dyDescent="0.3">
@@ -2760,43 +2754,43 @@
         <v>0</v>
       </c>
       <c r="AN12" s="5">
-        <f t="shared" ref="AN12:AS12" si="53">AM12*0.9</f>
+        <f t="shared" ref="AN12:AS12" si="50">AM12*0.9</f>
         <v>0</v>
       </c>
       <c r="AO12" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AP12" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AR12" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AS12" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AT12" s="5">
-        <f t="shared" ref="AT12" si="54">AS12*0.9</f>
+        <f t="shared" ref="AT12" si="51">AS12*0.9</f>
         <v>0</v>
       </c>
       <c r="AU12" s="5">
-        <f t="shared" ref="AU12" si="55">AT12*0.9</f>
+        <f t="shared" ref="AU12" si="52">AT12*0.9</f>
         <v>0</v>
       </c>
       <c r="AV12" s="5">
-        <f t="shared" ref="AV12" si="56">AU12*0.9</f>
+        <f t="shared" ref="AV12" si="53">AU12*0.9</f>
         <v>0</v>
       </c>
       <c r="AW12" s="5">
-        <f t="shared" ref="AW12" si="57">AV12*0.9</f>
+        <f t="shared" ref="AW12" si="54">AV12*0.9</f>
         <v>0</v>
       </c>
     </row>
@@ -2921,43 +2915,43 @@
         <v>0</v>
       </c>
       <c r="AN13" s="5">
-        <f t="shared" ref="AN13:AS13" si="58">AM13*1.5</f>
+        <f t="shared" ref="AN13:AS13" si="55">AM13*1.5</f>
         <v>0</v>
       </c>
       <c r="AO13" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AP13" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AR13" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AS13" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AT13" s="5">
-        <f t="shared" ref="AT13" si="59">AS13*1.5</f>
+        <f t="shared" ref="AT13" si="56">AS13*1.5</f>
         <v>0</v>
       </c>
       <c r="AU13" s="5">
-        <f t="shared" ref="AU13" si="60">AT13*1.5</f>
+        <f t="shared" ref="AU13" si="57">AT13*1.5</f>
         <v>0</v>
       </c>
       <c r="AV13" s="5">
-        <f t="shared" ref="AV13" si="61">AU13*1.5</f>
+        <f t="shared" ref="AV13" si="58">AU13*1.5</f>
         <v>0</v>
       </c>
       <c r="AW13" s="5">
-        <f t="shared" ref="AW13" si="62">AV13*1.5</f>
+        <f t="shared" ref="AW13" si="59">AV13*1.5</f>
         <v>0</v>
       </c>
     </row>
@@ -3040,7 +3034,7 @@
         <v>-14.8</v>
       </c>
       <c r="AA14" s="5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -3079,7 +3073,7 @@
       </c>
       <c r="AM14" s="5">
         <f>SUM(AA14:AD14)</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AN14" s="5">
         <v>0</v>
@@ -3133,7 +3127,7 @@
         <v>-155.39999999999995</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" ref="G15" si="63">G10-G11-G12-G13-G14</f>
+        <f t="shared" ref="G15" si="60">G10-G11-G12-G13-G14</f>
         <v>-51.800000000000004</v>
       </c>
       <c r="H15" s="11">
@@ -3149,84 +3143,84 @@
         <v>-155.80000000000001</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" ref="K15:M15" si="64">K10-K11-K12-K13-K14</f>
+        <f t="shared" ref="K15:M15" si="61">K10-K11-K12-K13-K14</f>
         <v>-120.39999999999996</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>-148.49999999999991</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>-100.59999999999997</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" ref="N15:O15" si="65">N10-N11-N12-N13-N14</f>
+        <f t="shared" ref="N15:O15" si="62">N10-N11-N12-N13-N14</f>
         <v>-123.20000000000005</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>-99.399999999999977</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" ref="P15:Q15" si="66">P10-P11-P12-P13-P14</f>
+        <f t="shared" ref="P15:Q15" si="63">P10-P11-P12-P13-P14</f>
         <v>-176.8</v>
       </c>
       <c r="Q15" s="8">
+        <f t="shared" si="63"/>
+        <v>-122.80000000000004</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" ref="R15" si="64">R10-R11-R12-R13-R14</f>
+        <v>37.899999999999991</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" ref="S15" si="65">S10-S11-S12-S13-S14</f>
+        <v>21.000000000000043</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" ref="T15:U15" si="66">T10-T11-T12-T13-T14</f>
+        <v>30.100000000000019</v>
+      </c>
+      <c r="U15" s="8">
         <f t="shared" si="66"/>
-        <v>-122.80000000000004</v>
-      </c>
-      <c r="R15" s="8">
-        <f t="shared" ref="R15" si="67">R10-R11-R12-R13-R14</f>
-        <v>37.899999999999991</v>
-      </c>
-      <c r="S15" s="8">
-        <f t="shared" ref="S15" si="68">S10-S11-S12-S13-S14</f>
-        <v>21.000000000000043</v>
-      </c>
-      <c r="T15" s="8">
-        <f t="shared" ref="T15:U15" si="69">T10-T11-T12-T13-T14</f>
-        <v>30.100000000000019</v>
-      </c>
-      <c r="U15" s="8">
+        <v>80.100000000000065</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" ref="V15" si="67">V10-V11-V12-V13-V14</f>
+        <v>106.19999999999996</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" ref="W15:AA15" si="68">W10-W11-W12-W13-W14</f>
+        <v>110.70000000000002</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="68"/>
+        <v>140.69999999999996</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="68"/>
+        <v>157.09999999999997</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" si="68"/>
+        <v>80.600000000000023</v>
+      </c>
+      <c r="AA15" s="8">
+        <f t="shared" si="68"/>
+        <v>223.29999999999993</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" ref="AB15:AD15" si="69">AB10-AB11-AB12-AB13-AB14</f>
+        <v>265.85012</v>
+      </c>
+      <c r="AC15" s="8">
         <f t="shared" si="69"/>
-        <v>80.100000000000065</v>
-      </c>
-      <c r="V15" s="8">
-        <f t="shared" ref="V15" si="70">V10-V11-V12-V13-V14</f>
-        <v>106.19999999999996</v>
-      </c>
-      <c r="W15" s="8">
-        <f t="shared" ref="W15:AA15" si="71">W10-W11-W12-W13-W14</f>
-        <v>110.70000000000002</v>
-      </c>
-      <c r="X15" s="8">
-        <f t="shared" si="71"/>
-        <v>140.69999999999996</v>
-      </c>
-      <c r="Y15" s="8">
-        <f t="shared" si="71"/>
-        <v>157.09999999999997</v>
-      </c>
-      <c r="Z15" s="8">
-        <f t="shared" si="71"/>
-        <v>80.600000000000023</v>
-      </c>
-      <c r="AA15" s="8">
-        <f t="shared" si="71"/>
-        <v>213.37020000000001</v>
-      </c>
-      <c r="AB15" s="8">
-        <f t="shared" ref="AB15:AD15" si="72">AB10-AB11-AB12-AB13-AB14</f>
-        <v>244.69340000000005</v>
-      </c>
-      <c r="AC15" s="8">
-        <f t="shared" si="72"/>
-        <v>265.31600000000003</v>
+        <v>284.9045000000001</v>
       </c>
       <c r="AD15" s="8">
-        <f t="shared" si="72"/>
-        <v>156.02750000000015</v>
+        <f t="shared" si="69"/>
+        <v>184.46500000000015</v>
       </c>
       <c r="AF15" s="8">
         <f>AF10-AF11-AF12-AF13-AF14</f>
@@ -3245,60 +3239,60 @@
         <v>-492.69999999999982</v>
       </c>
       <c r="AJ15" s="8">
-        <f t="shared" ref="AJ15:AR15" si="73">AJ10-AJ11-AJ12-AJ13-AJ14</f>
+        <f t="shared" ref="AJ15:AR15" si="70">AJ10-AJ11-AJ12-AJ13-AJ14</f>
         <v>-361.09999999999985</v>
       </c>
       <c r="AK15" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>237.40000000000012</v>
       </c>
       <c r="AL15" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>489.10000000000019</v>
       </c>
       <c r="AM15" s="8">
-        <f t="shared" si="73"/>
-        <v>879.40710000000001</v>
+        <f t="shared" si="70"/>
+        <v>958.51962000000026</v>
       </c>
       <c r="AN15" s="8">
-        <f t="shared" si="73"/>
-        <v>1580.5173149999996</v>
+        <f t="shared" si="70"/>
+        <v>1600.8231950000004</v>
       </c>
       <c r="AO15" s="8">
-        <f t="shared" si="73"/>
-        <v>2362.0842579</v>
+        <f t="shared" si="70"/>
+        <v>2495.3635757400002</v>
       </c>
       <c r="AP15" s="8">
-        <f t="shared" si="73"/>
-        <v>3286.0579479500007</v>
+        <f t="shared" si="70"/>
+        <v>3609.3680655891999</v>
       </c>
       <c r="AQ15" s="8">
-        <f t="shared" si="73"/>
-        <v>4193.7727307783198</v>
+        <f t="shared" si="70"/>
+        <v>4673.5028717702471</v>
       </c>
       <c r="AR15" s="8">
-        <f t="shared" si="73"/>
-        <v>5070.4485620950281</v>
+        <f t="shared" si="70"/>
+        <v>5634.6633686808664</v>
       </c>
       <c r="AS15" s="8">
-        <f t="shared" ref="AS15:AW15" si="74">AS10-AS11-AS12-AS13-AS14</f>
-        <v>5722.4323320042413</v>
+        <f t="shared" ref="AS15:AW15" si="71">AS10-AS11-AS12-AS13-AS14</f>
+        <v>6472.4125853946671</v>
       </c>
       <c r="AT15" s="8">
-        <f t="shared" si="74"/>
-        <v>6311.174026836009</v>
+        <f t="shared" si="71"/>
+        <v>7130.1604190065191</v>
       </c>
       <c r="AU15" s="8">
-        <f t="shared" si="74"/>
-        <v>6809.42401293066</v>
+        <f t="shared" si="71"/>
+        <v>7683.4576130547957</v>
       </c>
       <c r="AV15" s="8">
-        <f t="shared" si="74"/>
-        <v>7270.3645472207627</v>
+        <f t="shared" si="71"/>
+        <v>8192.4132293736311</v>
       </c>
       <c r="AW15" s="8">
-        <f t="shared" si="74"/>
-        <v>7685.359778081428</v>
+        <f t="shared" si="71"/>
+        <v>8646.9228801287991</v>
       </c>
     </row>
     <row r="16" spans="2:49" x14ac:dyDescent="0.3">
@@ -3380,20 +3374,19 @@
         <v>3.6</v>
       </c>
       <c r="AA16" s="5">
-        <f>AA15*0.04</f>
-        <v>8.534808</v>
+        <v>5.6</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" ref="AB16:AD16" si="75">AB15*0.04</f>
-        <v>9.7877360000000024</v>
+        <f t="shared" ref="AB16:AD16" si="72">AB15*0.04</f>
+        <v>10.6340048</v>
       </c>
       <c r="AC16" s="5">
-        <f t="shared" si="75"/>
-        <v>10.612640000000001</v>
+        <f t="shared" si="72"/>
+        <v>11.396180000000005</v>
       </c>
       <c r="AD16" s="5">
-        <f t="shared" si="75"/>
-        <v>6.2411000000000056</v>
+        <f t="shared" si="72"/>
+        <v>7.3786000000000058</v>
       </c>
       <c r="AF16" s="5">
         <v>9.1</v>
@@ -3423,47 +3416,47 @@
       </c>
       <c r="AM16" s="5">
         <f>SUM(AA16:AD16)</f>
-        <v>35.176284000000003</v>
+        <v>35.008784800000015</v>
       </c>
       <c r="AN16" s="5">
-        <f t="shared" ref="AN16:AQ16" si="76">AN15*0.1</f>
-        <v>158.05173149999996</v>
+        <f t="shared" ref="AN16:AQ16" si="73">AN15*0.1</f>
+        <v>160.08231950000004</v>
       </c>
       <c r="AO16" s="5">
-        <f t="shared" si="76"/>
-        <v>236.20842579000001</v>
+        <f t="shared" si="73"/>
+        <v>249.53635757400002</v>
       </c>
       <c r="AP16" s="5">
-        <f t="shared" si="76"/>
-        <v>328.60579479500007</v>
+        <f t="shared" si="73"/>
+        <v>360.93680655892001</v>
       </c>
       <c r="AQ16" s="5">
-        <f t="shared" si="76"/>
-        <v>419.377273077832</v>
+        <f t="shared" si="73"/>
+        <v>467.35028717702471</v>
       </c>
       <c r="AR16" s="5">
         <f>AR15*0.15</f>
-        <v>760.56728431425415</v>
+        <v>845.19950530212998</v>
       </c>
       <c r="AS16" s="5">
-        <f t="shared" ref="AS16:AW16" si="77">AS15*0.15</f>
-        <v>858.36484980063619</v>
+        <f t="shared" ref="AS16:AW16" si="74">AS15*0.15</f>
+        <v>970.86188780919997</v>
       </c>
       <c r="AT16" s="5">
-        <f t="shared" si="77"/>
-        <v>946.67610402540129</v>
+        <f t="shared" si="74"/>
+        <v>1069.5240628509778</v>
       </c>
       <c r="AU16" s="5">
-        <f t="shared" si="77"/>
-        <v>1021.4136019395989</v>
+        <f t="shared" si="74"/>
+        <v>1152.5186419582194</v>
       </c>
       <c r="AV16" s="5">
-        <f t="shared" si="77"/>
-        <v>1090.5546820831144</v>
+        <f t="shared" si="74"/>
+        <v>1228.8619844060447</v>
       </c>
       <c r="AW16" s="5">
-        <f t="shared" si="77"/>
-        <v>1152.8039667122141</v>
+        <f t="shared" si="74"/>
+        <v>1297.0384320193198</v>
       </c>
     </row>
     <row r="17" spans="2:166" x14ac:dyDescent="0.3">
@@ -3499,20 +3492,19 @@
         <v>-2.1</v>
       </c>
       <c r="AA17" s="5">
-        <f>AA15*0.01</f>
-        <v>2.133702</v>
+        <v>3.7</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" ref="AB17:AD17" si="78">AB15*0.01</f>
-        <v>2.4469340000000006</v>
+        <f t="shared" ref="AB17:AD17" si="75">AB15*0.01</f>
+        <v>2.6585011999999999</v>
       </c>
       <c r="AC17" s="5">
-        <f t="shared" si="78"/>
-        <v>2.6531600000000002</v>
+        <f t="shared" si="75"/>
+        <v>2.8490450000000012</v>
       </c>
       <c r="AD17" s="5">
-        <f t="shared" si="78"/>
-        <v>1.5602750000000014</v>
+        <f t="shared" si="75"/>
+        <v>1.8446500000000015</v>
       </c>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
@@ -3526,47 +3518,47 @@
       </c>
       <c r="AM17" s="5">
         <f>SUM(AA17:AD17)</f>
-        <v>8.7940710000000006</v>
+        <v>11.052196200000003</v>
       </c>
       <c r="AN17" s="5">
-        <f t="shared" ref="AN17:AW17" si="79">AN15*0.02</f>
-        <v>31.610346299999993</v>
+        <f t="shared" ref="AN17:AW17" si="76">AN15*0.02</f>
+        <v>32.016463900000005</v>
       </c>
       <c r="AO17" s="5">
-        <f t="shared" si="79"/>
-        <v>47.241685158000003</v>
+        <f t="shared" si="76"/>
+        <v>49.907271514800009</v>
       </c>
       <c r="AP17" s="5">
-        <f t="shared" si="79"/>
-        <v>65.721158959000007</v>
+        <f t="shared" si="76"/>
+        <v>72.187361311784002</v>
       </c>
       <c r="AQ17" s="5">
-        <f t="shared" si="79"/>
-        <v>83.875454615566397</v>
+        <f t="shared" si="76"/>
+        <v>93.470057435404939</v>
       </c>
       <c r="AR17" s="5">
-        <f t="shared" si="79"/>
-        <v>101.40897124190056</v>
+        <f t="shared" si="76"/>
+        <v>112.69326737361733</v>
       </c>
       <c r="AS17" s="5">
-        <f t="shared" si="79"/>
-        <v>114.44864664008483</v>
+        <f t="shared" si="76"/>
+        <v>129.44825170789335</v>
       </c>
       <c r="AT17" s="5">
-        <f t="shared" si="79"/>
-        <v>126.22348053672019</v>
+        <f t="shared" si="76"/>
+        <v>142.60320838013038</v>
       </c>
       <c r="AU17" s="5">
-        <f t="shared" si="79"/>
-        <v>136.1884802586132</v>
+        <f t="shared" si="76"/>
+        <v>153.66915226109592</v>
       </c>
       <c r="AV17" s="5">
-        <f t="shared" si="79"/>
-        <v>145.40729094441525</v>
+        <f t="shared" si="76"/>
+        <v>163.84826458747261</v>
       </c>
       <c r="AW17" s="5">
-        <f t="shared" si="79"/>
-        <v>153.70719556162857</v>
+        <f t="shared" si="76"/>
+        <v>172.93845760257599</v>
       </c>
     </row>
     <row r="18" spans="2:166" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3590,7 +3582,7 @@
         <v>-159.29999999999995</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18" si="80">G15-G16</f>
+        <f t="shared" ref="G18" si="77">G15-G16</f>
         <v>-54.400000000000006</v>
       </c>
       <c r="H18" s="11">
@@ -3606,59 +3598,59 @@
         <v>-148.20000000000002</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" ref="K18:M18" si="81">K15-K16</f>
+        <f t="shared" ref="K18:M18" si="78">K15-K16</f>
         <v>-123.49999999999996</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>-142.79999999999993</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>-101.99999999999997</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" ref="N18:O18" si="82">N15-N16</f>
+        <f t="shared" ref="N18:O18" si="79">N15-N16</f>
         <v>-156.20000000000005</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>-101.39999999999998</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" ref="P18:Q18" si="83">P15-P16</f>
+        <f t="shared" ref="P18:Q18" si="80">P15-P16</f>
         <v>-179.4</v>
       </c>
       <c r="Q18" s="8">
+        <f t="shared" si="80"/>
+        <v>-123.90000000000003</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" ref="R18" si="81">R15-R16</f>
+        <v>33.499999999999993</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" ref="S18" si="82">S15-S16</f>
+        <v>19.300000000000043</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" ref="T18:U18" si="83">T15-T16</f>
+        <v>27.90000000000002</v>
+      </c>
+      <c r="U18" s="8">
         <f t="shared" si="83"/>
-        <v>-123.90000000000003</v>
-      </c>
-      <c r="R18" s="8">
-        <f t="shared" ref="R18" si="84">R15-R16</f>
-        <v>33.499999999999993</v>
-      </c>
-      <c r="S18" s="8">
-        <f t="shared" ref="S18" si="85">S15-S16</f>
-        <v>19.300000000000043</v>
-      </c>
-      <c r="T18" s="8">
-        <f t="shared" ref="T18:U18" si="86">T15-T16</f>
-        <v>27.90000000000002</v>
-      </c>
-      <c r="U18" s="8">
-        <f t="shared" si="86"/>
         <v>73.600000000000065</v>
       </c>
       <c r="V18" s="8">
-        <f t="shared" ref="V18" si="87">V15-V16</f>
+        <f t="shared" ref="V18" si="84">V15-V16</f>
         <v>96.899999999999963</v>
       </c>
       <c r="W18" s="8">
-        <f t="shared" ref="W18:X18" si="88">W15-W16</f>
+        <f t="shared" ref="W18:X18" si="85">W15-W16</f>
         <v>106.00000000000001</v>
       </c>
       <c r="X18" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="85"/>
         <v>135.49999999999997</v>
       </c>
       <c r="Y18" s="8">
@@ -3666,24 +3658,24 @@
         <v>143.49999999999994</v>
       </c>
       <c r="Z18" s="8">
-        <f t="shared" ref="Z18:AD18" si="89">Z15-Z16-Z17</f>
+        <f t="shared" ref="Z18:AD18" si="86">Z15-Z16-Z17</f>
         <v>79.100000000000023</v>
       </c>
       <c r="AA18" s="8">
-        <f t="shared" si="89"/>
-        <v>202.70169000000001</v>
+        <f t="shared" si="86"/>
+        <v>213.99999999999994</v>
       </c>
       <c r="AB18" s="8">
-        <f t="shared" si="89"/>
-        <v>232.45873000000006</v>
+        <f t="shared" si="86"/>
+        <v>252.557614</v>
       </c>
       <c r="AC18" s="8">
-        <f t="shared" si="89"/>
-        <v>252.05020000000002</v>
+        <f t="shared" si="86"/>
+        <v>270.65927500000009</v>
       </c>
       <c r="AD18" s="8">
-        <f t="shared" si="89"/>
-        <v>148.22612500000014</v>
+        <f t="shared" si="86"/>
+        <v>175.24175000000014</v>
       </c>
       <c r="AF18" s="8">
         <f>AF15-AF16</f>
@@ -3698,532 +3690,532 @@
         <v>-1166.3000000000002</v>
       </c>
       <c r="AI18" s="8">
-        <f t="shared" ref="AI18" si="90">AI15-AI16</f>
+        <f t="shared" ref="AI18" si="87">AI15-AI16</f>
         <v>-524.49999999999977</v>
       </c>
       <c r="AJ18" s="8">
-        <f t="shared" ref="AJ18" si="91">AJ15-AJ16</f>
+        <f t="shared" ref="AJ18" si="88">AJ15-AJ16</f>
         <v>-371.19999999999987</v>
       </c>
       <c r="AK18" s="8">
-        <f t="shared" ref="AK18" si="92">AK15-AK16</f>
+        <f t="shared" ref="AK18" si="89">AK15-AK16</f>
         <v>217.7000000000001</v>
       </c>
       <c r="AL18" s="8">
-        <f t="shared" ref="AL18:AW18" si="93">AL15-AL16-AL17</f>
+        <f t="shared" ref="AL18:AW18" si="90">AL15-AL16-AL17</f>
         <v>464.10000000000019</v>
       </c>
       <c r="AM18" s="8">
+        <f t="shared" si="90"/>
+        <v>912.45863900000018</v>
+      </c>
+      <c r="AN18" s="8">
+        <f t="shared" si="90"/>
+        <v>1408.7244116000004</v>
+      </c>
+      <c r="AO18" s="8">
+        <f t="shared" si="90"/>
+        <v>2195.9199466512005</v>
+      </c>
+      <c r="AP18" s="8">
+        <f t="shared" si="90"/>
+        <v>3176.2438977184956</v>
+      </c>
+      <c r="AQ18" s="8">
+        <f t="shared" si="90"/>
+        <v>4112.6825271578182</v>
+      </c>
+      <c r="AR18" s="8">
+        <f t="shared" si="90"/>
+        <v>4676.7705960051189</v>
+      </c>
+      <c r="AS18" s="8">
+        <f t="shared" si="90"/>
+        <v>5372.1024458775737</v>
+      </c>
+      <c r="AT18" s="8">
+        <f t="shared" si="90"/>
+        <v>5918.0331477754107</v>
+      </c>
+      <c r="AU18" s="8">
+        <f t="shared" si="90"/>
+        <v>6377.2698188354798</v>
+      </c>
+      <c r="AV18" s="8">
+        <f t="shared" si="90"/>
+        <v>6799.7029803801133</v>
+      </c>
+      <c r="AW18" s="8">
+        <f t="shared" si="90"/>
+        <v>7176.9459905069034</v>
+      </c>
+      <c r="AX18" s="1">
+        <f t="shared" ref="AX18:CC18" si="91">AW18*(1+$AZ$25)</f>
+        <v>7105.1765306018342</v>
+      </c>
+      <c r="AY18" s="1">
+        <f t="shared" si="91"/>
+        <v>7034.1247652958155</v>
+      </c>
+      <c r="AZ18" s="1">
+        <f t="shared" si="91"/>
+        <v>6963.7835176428571</v>
+      </c>
+      <c r="BA18" s="1">
+        <f t="shared" si="91"/>
+        <v>6894.1456824664283</v>
+      </c>
+      <c r="BB18" s="1">
+        <f t="shared" si="91"/>
+        <v>6825.2042256417635</v>
+      </c>
+      <c r="BC18" s="1">
+        <f t="shared" si="91"/>
+        <v>6756.952183385346</v>
+      </c>
+      <c r="BD18" s="1">
+        <f t="shared" si="91"/>
+        <v>6689.3826615514927</v>
+      </c>
+      <c r="BE18" s="1">
+        <f t="shared" si="91"/>
+        <v>6622.488834935978</v>
+      </c>
+      <c r="BF18" s="1">
+        <f t="shared" si="91"/>
+        <v>6556.2639465866187</v>
+      </c>
+      <c r="BG18" s="1">
+        <f t="shared" si="91"/>
+        <v>6490.7013071207521</v>
+      </c>
+      <c r="BH18" s="1">
+        <f t="shared" si="91"/>
+        <v>6425.7942940495441</v>
+      </c>
+      <c r="BI18" s="1">
+        <f t="shared" si="91"/>
+        <v>6361.5363511090482</v>
+      </c>
+      <c r="BJ18" s="1">
+        <f t="shared" si="91"/>
+        <v>6297.9209875979577</v>
+      </c>
+      <c r="BK18" s="1">
+        <f t="shared" si="91"/>
+        <v>6234.9417777219778</v>
+      </c>
+      <c r="BL18" s="1">
+        <f t="shared" si="91"/>
+        <v>6172.5923599447578</v>
+      </c>
+      <c r="BM18" s="1">
+        <f t="shared" si="91"/>
+        <v>6110.8664363453099</v>
+      </c>
+      <c r="BN18" s="1">
+        <f t="shared" si="91"/>
+        <v>6049.7577719818564</v>
+      </c>
+      <c r="BO18" s="1">
+        <f t="shared" si="91"/>
+        <v>5989.2601942620377</v>
+      </c>
+      <c r="BP18" s="1">
+        <f t="shared" si="91"/>
+        <v>5929.3675923194169</v>
+      </c>
+      <c r="BQ18" s="1">
+        <f t="shared" si="91"/>
+        <v>5870.0739163962226</v>
+      </c>
+      <c r="BR18" s="1">
+        <f t="shared" si="91"/>
+        <v>5811.3731772322599</v>
+      </c>
+      <c r="BS18" s="1">
+        <f t="shared" si="91"/>
+        <v>5753.2594454599375</v>
+      </c>
+      <c r="BT18" s="1">
+        <f t="shared" si="91"/>
+        <v>5695.7268510053382</v>
+      </c>
+      <c r="BU18" s="1">
+        <f t="shared" si="91"/>
+        <v>5638.7695824952843</v>
+      </c>
+      <c r="BV18" s="1">
+        <f t="shared" si="91"/>
+        <v>5582.3818866703314</v>
+      </c>
+      <c r="BW18" s="1">
+        <f t="shared" si="91"/>
+        <v>5526.5580678036276</v>
+      </c>
+      <c r="BX18" s="1">
+        <f t="shared" si="91"/>
+        <v>5471.2924871255909</v>
+      </c>
+      <c r="BY18" s="1">
+        <f t="shared" si="91"/>
+        <v>5416.5795622543346</v>
+      </c>
+      <c r="BZ18" s="1">
+        <f t="shared" si="91"/>
+        <v>5362.4137666317911</v>
+      </c>
+      <c r="CA18" s="1">
+        <f t="shared" si="91"/>
+        <v>5308.7896289654727</v>
+      </c>
+      <c r="CB18" s="1">
+        <f t="shared" si="91"/>
+        <v>5255.7017326758178</v>
+      </c>
+      <c r="CC18" s="1">
+        <f t="shared" si="91"/>
+        <v>5203.1447153490599</v>
+      </c>
+      <c r="CD18" s="1">
+        <f t="shared" ref="CD18:DI18" si="92">CC18*(1+$AZ$25)</f>
+        <v>5151.1132681955696</v>
+      </c>
+      <c r="CE18" s="1">
+        <f t="shared" si="92"/>
+        <v>5099.6021355136136</v>
+      </c>
+      <c r="CF18" s="1">
+        <f t="shared" si="92"/>
+        <v>5048.6061141584778</v>
+      </c>
+      <c r="CG18" s="1">
+        <f t="shared" si="92"/>
+        <v>4998.1200530168926</v>
+      </c>
+      <c r="CH18" s="1">
+        <f t="shared" si="92"/>
+        <v>4948.1388524867234</v>
+      </c>
+      <c r="CI18" s="1">
+        <f t="shared" si="92"/>
+        <v>4898.6574639618557</v>
+      </c>
+      <c r="CJ18" s="1">
+        <f t="shared" si="92"/>
+        <v>4849.6708893222367</v>
+      </c>
+      <c r="CK18" s="1">
+        <f t="shared" si="92"/>
+        <v>4801.1741804290141</v>
+      </c>
+      <c r="CL18" s="1">
+        <f t="shared" si="92"/>
+        <v>4753.162438624724</v>
+      </c>
+      <c r="CM18" s="1">
+        <f t="shared" si="92"/>
+        <v>4705.6308142384769</v>
+      </c>
+      <c r="CN18" s="1">
+        <f t="shared" si="92"/>
+        <v>4658.5745060960917</v>
+      </c>
+      <c r="CO18" s="1">
+        <f t="shared" si="92"/>
+        <v>4611.9887610351307</v>
+      </c>
+      <c r="CP18" s="1">
+        <f t="shared" si="92"/>
+        <v>4565.8688734247789</v>
+      </c>
+      <c r="CQ18" s="1">
+        <f t="shared" si="92"/>
+        <v>4520.2101846905307</v>
+      </c>
+      <c r="CR18" s="1">
+        <f t="shared" si="92"/>
+        <v>4475.0080828436257</v>
+      </c>
+      <c r="CS18" s="1">
+        <f t="shared" si="92"/>
+        <v>4430.258002015189</v>
+      </c>
+      <c r="CT18" s="1">
+        <f t="shared" si="92"/>
+        <v>4385.9554219950369</v>
+      </c>
+      <c r="CU18" s="1">
+        <f t="shared" si="92"/>
+        <v>4342.0958677750868</v>
+      </c>
+      <c r="CV18" s="1">
+        <f t="shared" si="92"/>
+        <v>4298.6749090973362</v>
+      </c>
+      <c r="CW18" s="1">
+        <f t="shared" si="92"/>
+        <v>4255.6881600063625</v>
+      </c>
+      <c r="CX18" s="1">
+        <f t="shared" si="92"/>
+        <v>4213.1312784062984</v>
+      </c>
+      <c r="CY18" s="1">
+        <f t="shared" si="92"/>
+        <v>4170.9999656222353</v>
+      </c>
+      <c r="CZ18" s="1">
+        <f t="shared" si="92"/>
+        <v>4129.2899659660134</v>
+      </c>
+      <c r="DA18" s="1">
+        <f t="shared" si="92"/>
+        <v>4087.9970663063532</v>
+      </c>
+      <c r="DB18" s="1">
+        <f t="shared" si="92"/>
+        <v>4047.1170956432898</v>
+      </c>
+      <c r="DC18" s="1">
+        <f t="shared" si="92"/>
+        <v>4006.6459246868567</v>
+      </c>
+      <c r="DD18" s="1">
+        <f t="shared" si="92"/>
+        <v>3966.5794654399879</v>
+      </c>
+      <c r="DE18" s="1">
+        <f t="shared" si="92"/>
+        <v>3926.9136707855878</v>
+      </c>
+      <c r="DF18" s="1">
+        <f t="shared" si="92"/>
+        <v>3887.6445340777318</v>
+      </c>
+      <c r="DG18" s="1">
+        <f t="shared" si="92"/>
+        <v>3848.7680887369543</v>
+      </c>
+      <c r="DH18" s="1">
+        <f t="shared" si="92"/>
+        <v>3810.2804078495847</v>
+      </c>
+      <c r="DI18" s="1">
+        <f t="shared" si="92"/>
+        <v>3772.1776037710888</v>
+      </c>
+      <c r="DJ18" s="1">
+        <f t="shared" ref="DJ18:EO18" si="93">DI18*(1+$AZ$25)</f>
+        <v>3734.4558277333781</v>
+      </c>
+      <c r="DK18" s="1">
         <f t="shared" si="93"/>
-        <v>835.43674499999997</v>
-      </c>
-      <c r="AN18" s="8">
+        <v>3697.1112694560443</v>
+      </c>
+      <c r="DL18" s="1">
         <f t="shared" si="93"/>
-        <v>1390.8552371999997</v>
-      </c>
-      <c r="AO18" s="8">
+        <v>3660.1401567614839</v>
+      </c>
+      <c r="DM18" s="1">
         <f t="shared" si="93"/>
-        <v>2078.6341469519998</v>
-      </c>
-      <c r="AP18" s="8">
+        <v>3623.5387551938688</v>
+      </c>
+      <c r="DN18" s="1">
         <f t="shared" si="93"/>
-        <v>2891.7309941960007</v>
-      </c>
-      <c r="AQ18" s="8">
+        <v>3587.30336764193</v>
+      </c>
+      <c r="DO18" s="1">
         <f t="shared" si="93"/>
-        <v>3690.5200030849214</v>
-      </c>
-      <c r="AR18" s="8">
+        <v>3551.4303339655107</v>
+      </c>
+      <c r="DP18" s="1">
         <f t="shared" si="93"/>
-        <v>4208.4723065388735</v>
-      </c>
-      <c r="AS18" s="8">
+        <v>3515.9160306258555</v>
+      </c>
+      <c r="DQ18" s="1">
         <f t="shared" si="93"/>
-        <v>4749.6188355635204</v>
-      </c>
-      <c r="AT18" s="8">
+        <v>3480.7568703195971</v>
+      </c>
+      <c r="DR18" s="1">
         <f t="shared" si="93"/>
-        <v>5238.2744422738879</v>
-      </c>
-      <c r="AU18" s="8">
+        <v>3445.949301616401</v>
+      </c>
+      <c r="DS18" s="1">
         <f t="shared" si="93"/>
-        <v>5651.821930732448</v>
-      </c>
-      <c r="AV18" s="8">
+        <v>3411.4898086002372</v>
+      </c>
+      <c r="DT18" s="1">
         <f t="shared" si="93"/>
-        <v>6034.4025741932337</v>
-      </c>
-      <c r="AW18" s="8">
+        <v>3377.3749105142347</v>
+      </c>
+      <c r="DU18" s="1">
         <f t="shared" si="93"/>
-        <v>6378.8486158075857</v>
-      </c>
-      <c r="AX18" s="1">
-        <f t="shared" ref="AX18:CC18" si="94">AW18*(1+$AZ$25)</f>
-        <v>6315.0601296495097</v>
-      </c>
-      <c r="AY18" s="1">
+        <v>3343.6011614090921</v>
+      </c>
+      <c r="DV18" s="1">
+        <f t="shared" si="93"/>
+        <v>3310.1651497950011</v>
+      </c>
+      <c r="DW18" s="1">
+        <f t="shared" si="93"/>
+        <v>3277.063498297051</v>
+      </c>
+      <c r="DX18" s="1">
+        <f t="shared" si="93"/>
+        <v>3244.2928633140805</v>
+      </c>
+      <c r="DY18" s="1">
+        <f t="shared" si="93"/>
+        <v>3211.8499346809394</v>
+      </c>
+      <c r="DZ18" s="1">
+        <f t="shared" si="93"/>
+        <v>3179.7314353341299</v>
+      </c>
+      <c r="EA18" s="1">
+        <f t="shared" si="93"/>
+        <v>3147.9341209807885</v>
+      </c>
+      <c r="EB18" s="1">
+        <f t="shared" si="93"/>
+        <v>3116.4547797709806</v>
+      </c>
+      <c r="EC18" s="1">
+        <f t="shared" si="93"/>
+        <v>3085.2902319732707</v>
+      </c>
+      <c r="ED18" s="1">
+        <f t="shared" si="93"/>
+        <v>3054.4373296535377</v>
+      </c>
+      <c r="EE18" s="1">
+        <f t="shared" si="93"/>
+        <v>3023.8929563570023</v>
+      </c>
+      <c r="EF18" s="1">
+        <f t="shared" si="93"/>
+        <v>2993.6540267934324</v>
+      </c>
+      <c r="EG18" s="1">
+        <f t="shared" si="93"/>
+        <v>2963.7174865254979</v>
+      </c>
+      <c r="EH18" s="1">
+        <f t="shared" si="93"/>
+        <v>2934.0803116602428</v>
+      </c>
+      <c r="EI18" s="1">
+        <f t="shared" si="93"/>
+        <v>2904.7395085436406</v>
+      </c>
+      <c r="EJ18" s="1">
+        <f t="shared" si="93"/>
+        <v>2875.6921134582039</v>
+      </c>
+      <c r="EK18" s="1">
+        <f t="shared" si="93"/>
+        <v>2846.9351923236218</v>
+      </c>
+      <c r="EL18" s="1">
+        <f t="shared" si="93"/>
+        <v>2818.4658404003853</v>
+      </c>
+      <c r="EM18" s="1">
+        <f t="shared" si="93"/>
+        <v>2790.2811819963813</v>
+      </c>
+      <c r="EN18" s="1">
+        <f t="shared" si="93"/>
+        <v>2762.3783701764173</v>
+      </c>
+      <c r="EO18" s="1">
+        <f t="shared" si="93"/>
+        <v>2734.754586474653</v>
+      </c>
+      <c r="EP18" s="1">
+        <f t="shared" ref="EP18:FJ18" si="94">EO18*(1+$AZ$25)</f>
+        <v>2707.4070406099063</v>
+      </c>
+      <c r="EQ18" s="1">
         <f t="shared" si="94"/>
-        <v>6251.9095283530141</v>
-      </c>
-      <c r="AZ18" s="1">
+        <v>2680.3329702038072</v>
+      </c>
+      <c r="ER18" s="1">
         <f t="shared" si="94"/>
-        <v>6189.3904330694841</v>
-      </c>
-      <c r="BA18" s="1">
+        <v>2653.5296405017693</v>
+      </c>
+      <c r="ES18" s="1">
         <f t="shared" si="94"/>
-        <v>6127.4965287387895</v>
-      </c>
-      <c r="BB18" s="1">
+        <v>2626.9943440967518</v>
+      </c>
+      <c r="ET18" s="1">
         <f t="shared" si="94"/>
-        <v>6066.2215634514014</v>
-      </c>
-      <c r="BC18" s="1">
+        <v>2600.7244006557844</v>
+      </c>
+      <c r="EU18" s="1">
         <f t="shared" si="94"/>
-        <v>6005.5593478168876</v>
-      </c>
-      <c r="BD18" s="1">
+        <v>2574.7171566492266</v>
+      </c>
+      <c r="EV18" s="1">
         <f t="shared" si="94"/>
-        <v>5945.5037543387189</v>
-      </c>
-      <c r="BE18" s="1">
+        <v>2548.9699850827342</v>
+      </c>
+      <c r="EW18" s="1">
         <f t="shared" si="94"/>
-        <v>5886.0487167953315</v>
-      </c>
-      <c r="BF18" s="1">
+        <v>2523.4802852319067</v>
+      </c>
+      <c r="EX18" s="1">
         <f t="shared" si="94"/>
-        <v>5827.188229627378</v>
-      </c>
-      <c r="BG18" s="1">
+        <v>2498.2454823795874</v>
+      </c>
+      <c r="EY18" s="1">
         <f t="shared" si="94"/>
-        <v>5768.9163473311037</v>
-      </c>
-      <c r="BH18" s="1">
+        <v>2473.2630275557917</v>
+      </c>
+      <c r="EZ18" s="1">
         <f t="shared" si="94"/>
-        <v>5711.2271838577926</v>
-      </c>
-      <c r="BI18" s="1">
+        <v>2448.530397280234</v>
+      </c>
+      <c r="FA18" s="1">
         <f t="shared" si="94"/>
-        <v>5654.1149120192149</v>
-      </c>
-      <c r="BJ18" s="1">
+        <v>2424.0450933074317</v>
+      </c>
+      <c r="FB18" s="1">
         <f t="shared" si="94"/>
-        <v>5597.5737628990228</v>
-      </c>
-      <c r="BK18" s="1">
+        <v>2399.8046423743572</v>
+      </c>
+      <c r="FC18" s="1">
         <f t="shared" si="94"/>
-        <v>5541.5980252700328</v>
-      </c>
-      <c r="BL18" s="1">
+        <v>2375.8065959506134</v>
+      </c>
+      <c r="FD18" s="1">
         <f t="shared" si="94"/>
-        <v>5486.1820450173327</v>
-      </c>
-      <c r="BM18" s="1">
+        <v>2352.0485299911074</v>
+      </c>
+      <c r="FE18" s="1">
         <f t="shared" si="94"/>
-        <v>5431.3202245671591</v>
-      </c>
-      <c r="BN18" s="1">
+        <v>2328.5280446911966</v>
+      </c>
+      <c r="FF18" s="1">
         <f t="shared" si="94"/>
-        <v>5377.0070223214871</v>
-      </c>
-      <c r="BO18" s="1">
+        <v>2305.2427642442844</v>
+      </c>
+      <c r="FG18" s="1">
         <f t="shared" si="94"/>
-        <v>5323.236952098272</v>
-      </c>
-      <c r="BP18" s="1">
+        <v>2282.1903366018414</v>
+      </c>
+      <c r="FH18" s="1">
         <f t="shared" si="94"/>
-        <v>5270.0045825772895</v>
-      </c>
-      <c r="BQ18" s="1">
+        <v>2259.368433235823</v>
+      </c>
+      <c r="FI18" s="1">
         <f t="shared" si="94"/>
-        <v>5217.3045367515169</v>
-      </c>
-      <c r="BR18" s="1">
+        <v>2236.7747489034646</v>
+      </c>
+      <c r="FJ18" s="1">
         <f t="shared" si="94"/>
-        <v>5165.1314913840015</v>
-      </c>
-      <c r="BS18" s="1">
-        <f t="shared" si="94"/>
-        <v>5113.4801764701615</v>
-      </c>
-      <c r="BT18" s="1">
-        <f t="shared" si="94"/>
-        <v>5062.34537470546</v>
-      </c>
-      <c r="BU18" s="1">
-        <f t="shared" si="94"/>
-        <v>5011.7219209584055</v>
-      </c>
-      <c r="BV18" s="1">
-        <f t="shared" si="94"/>
-        <v>4961.6047017488218</v>
-      </c>
-      <c r="BW18" s="1">
-        <f t="shared" si="94"/>
-        <v>4911.9886547313336</v>
-      </c>
-      <c r="BX18" s="1">
-        <f t="shared" si="94"/>
-        <v>4862.8687681840202</v>
-      </c>
-      <c r="BY18" s="1">
-        <f t="shared" si="94"/>
-        <v>4814.2400805021798</v>
-      </c>
-      <c r="BZ18" s="1">
-        <f t="shared" si="94"/>
-        <v>4766.0976796971581</v>
-      </c>
-      <c r="CA18" s="1">
-        <f t="shared" si="94"/>
-        <v>4718.4367029001869</v>
-      </c>
-      <c r="CB18" s="1">
-        <f t="shared" si="94"/>
-        <v>4671.2523358711851</v>
-      </c>
-      <c r="CC18" s="1">
-        <f t="shared" si="94"/>
-        <v>4624.539812512473</v>
-      </c>
-      <c r="CD18" s="1">
-        <f t="shared" ref="CD18:DI18" si="95">CC18*(1+$AZ$25)</f>
-        <v>4578.2944143873483</v>
-      </c>
-      <c r="CE18" s="1">
-        <f t="shared" si="95"/>
-        <v>4532.5114702434748</v>
-      </c>
-      <c r="CF18" s="1">
-        <f t="shared" si="95"/>
-        <v>4487.18635554104</v>
-      </c>
-      <c r="CG18" s="1">
-        <f t="shared" si="95"/>
-        <v>4442.3144919856295</v>
-      </c>
-      <c r="CH18" s="1">
-        <f t="shared" si="95"/>
-        <v>4397.8913470657735</v>
-      </c>
-      <c r="CI18" s="1">
-        <f t="shared" si="95"/>
-        <v>4353.9124335951155</v>
-      </c>
-      <c r="CJ18" s="1">
-        <f t="shared" si="95"/>
-        <v>4310.3733092591647</v>
-      </c>
-      <c r="CK18" s="1">
-        <f t="shared" si="95"/>
-        <v>4267.2695761665727</v>
-      </c>
-      <c r="CL18" s="1">
-        <f t="shared" si="95"/>
-        <v>4224.5968804049071</v>
-      </c>
-      <c r="CM18" s="1">
-        <f t="shared" si="95"/>
-        <v>4182.3509116008581</v>
-      </c>
-      <c r="CN18" s="1">
-        <f t="shared" si="95"/>
-        <v>4140.5274024848495</v>
-      </c>
-      <c r="CO18" s="1">
-        <f t="shared" si="95"/>
-        <v>4099.1221284600006</v>
-      </c>
-      <c r="CP18" s="1">
-        <f t="shared" si="95"/>
-        <v>4058.1309071754004</v>
-      </c>
-      <c r="CQ18" s="1">
-        <f t="shared" si="95"/>
-        <v>4017.5495981036465</v>
-      </c>
-      <c r="CR18" s="1">
-        <f t="shared" si="95"/>
-        <v>3977.3741021226101</v>
-      </c>
-      <c r="CS18" s="1">
-        <f t="shared" si="95"/>
-        <v>3937.6003611013839</v>
-      </c>
-      <c r="CT18" s="1">
-        <f t="shared" si="95"/>
-        <v>3898.22435749037</v>
-      </c>
-      <c r="CU18" s="1">
-        <f t="shared" si="95"/>
-        <v>3859.2421139154662</v>
-      </c>
-      <c r="CV18" s="1">
-        <f t="shared" si="95"/>
-        <v>3820.6496927763114</v>
-      </c>
-      <c r="CW18" s="1">
-        <f t="shared" si="95"/>
-        <v>3782.4431958485484</v>
-      </c>
-      <c r="CX18" s="1">
-        <f t="shared" si="95"/>
-        <v>3744.6187638900628</v>
-      </c>
-      <c r="CY18" s="1">
-        <f t="shared" si="95"/>
-        <v>3707.1725762511624</v>
-      </c>
-      <c r="CZ18" s="1">
-        <f t="shared" si="95"/>
-        <v>3670.1008504886508</v>
-      </c>
-      <c r="DA18" s="1">
-        <f t="shared" si="95"/>
-        <v>3633.3998419837644</v>
-      </c>
-      <c r="DB18" s="1">
-        <f t="shared" si="95"/>
-        <v>3597.0658435639266</v>
-      </c>
-      <c r="DC18" s="1">
-        <f t="shared" si="95"/>
-        <v>3561.0951851282871</v>
-      </c>
-      <c r="DD18" s="1">
-        <f t="shared" si="95"/>
-        <v>3525.484233277004</v>
-      </c>
-      <c r="DE18" s="1">
-        <f t="shared" si="95"/>
-        <v>3490.2293909442337</v>
-      </c>
-      <c r="DF18" s="1">
-        <f t="shared" si="95"/>
-        <v>3455.3270970347912</v>
-      </c>
-      <c r="DG18" s="1">
-        <f t="shared" si="95"/>
-        <v>3420.7738260644433</v>
-      </c>
-      <c r="DH18" s="1">
-        <f t="shared" si="95"/>
-        <v>3386.5660878037988</v>
-      </c>
-      <c r="DI18" s="1">
-        <f t="shared" si="95"/>
-        <v>3352.7004269257609</v>
-      </c>
-      <c r="DJ18" s="1">
-        <f t="shared" ref="DJ18:EO18" si="96">DI18*(1+$AZ$25)</f>
-        <v>3319.1734226565031</v>
-      </c>
-      <c r="DK18" s="1">
-        <f t="shared" si="96"/>
-        <v>3285.981688429938</v>
-      </c>
-      <c r="DL18" s="1">
-        <f t="shared" si="96"/>
-        <v>3253.1218715456384</v>
-      </c>
-      <c r="DM18" s="1">
-        <f t="shared" si="96"/>
-        <v>3220.5906528301821</v>
-      </c>
-      <c r="DN18" s="1">
-        <f t="shared" si="96"/>
-        <v>3188.3847463018801</v>
-      </c>
-      <c r="DO18" s="1">
-        <f t="shared" si="96"/>
-        <v>3156.5008988388613</v>
-      </c>
-      <c r="DP18" s="1">
-        <f t="shared" si="96"/>
-        <v>3124.9358898504724</v>
-      </c>
-      <c r="DQ18" s="1">
-        <f t="shared" si="96"/>
-        <v>3093.6865309519676</v>
-      </c>
-      <c r="DR18" s="1">
-        <f t="shared" si="96"/>
-        <v>3062.7496656424478</v>
-      </c>
-      <c r="DS18" s="1">
-        <f t="shared" si="96"/>
-        <v>3032.1221689860231</v>
-      </c>
-      <c r="DT18" s="1">
-        <f t="shared" si="96"/>
-        <v>3001.800947296163</v>
-      </c>
-      <c r="DU18" s="1">
-        <f t="shared" si="96"/>
-        <v>2971.7829378232013</v>
-      </c>
-      <c r="DV18" s="1">
-        <f t="shared" si="96"/>
-        <v>2942.0651084449692</v>
-      </c>
-      <c r="DW18" s="1">
-        <f t="shared" si="96"/>
-        <v>2912.6444573605195</v>
-      </c>
-      <c r="DX18" s="1">
-        <f t="shared" si="96"/>
-        <v>2883.5180127869144</v>
-      </c>
-      <c r="DY18" s="1">
-        <f t="shared" si="96"/>
-        <v>2854.6828326590453</v>
-      </c>
-      <c r="DZ18" s="1">
-        <f t="shared" si="96"/>
-        <v>2826.1360043324548</v>
-      </c>
-      <c r="EA18" s="1">
-        <f t="shared" si="96"/>
-        <v>2797.8746442891302</v>
-      </c>
-      <c r="EB18" s="1">
-        <f t="shared" si="96"/>
-        <v>2769.8958978462388</v>
-      </c>
-      <c r="EC18" s="1">
-        <f t="shared" si="96"/>
-        <v>2742.1969388677762</v>
-      </c>
-      <c r="ED18" s="1">
-        <f t="shared" si="96"/>
-        <v>2714.7749694790982</v>
-      </c>
-      <c r="EE18" s="1">
-        <f t="shared" si="96"/>
-        <v>2687.6272197843073</v>
-      </c>
-      <c r="EF18" s="1">
-        <f t="shared" si="96"/>
-        <v>2660.750947586464</v>
-      </c>
-      <c r="EG18" s="1">
-        <f t="shared" si="96"/>
-        <v>2634.1434381105992</v>
-      </c>
-      <c r="EH18" s="1">
-        <f t="shared" si="96"/>
-        <v>2607.8020037294932</v>
-      </c>
-      <c r="EI18" s="1">
-        <f t="shared" si="96"/>
-        <v>2581.7239836921981</v>
-      </c>
-      <c r="EJ18" s="1">
-        <f t="shared" si="96"/>
-        <v>2555.9067438552761</v>
-      </c>
-      <c r="EK18" s="1">
-        <f t="shared" si="96"/>
-        <v>2530.3476764167235</v>
-      </c>
-      <c r="EL18" s="1">
-        <f t="shared" si="96"/>
-        <v>2505.0441996525565</v>
-      </c>
-      <c r="EM18" s="1">
-        <f t="shared" si="96"/>
-        <v>2479.993757656031</v>
-      </c>
-      <c r="EN18" s="1">
-        <f t="shared" si="96"/>
-        <v>2455.1938200794707</v>
-      </c>
-      <c r="EO18" s="1">
-        <f t="shared" si="96"/>
-        <v>2430.641881878676</v>
-      </c>
-      <c r="EP18" s="1">
-        <f t="shared" ref="EP18:FJ18" si="97">EO18*(1+$AZ$25)</f>
-        <v>2406.3354630598892</v>
-      </c>
-      <c r="EQ18" s="1">
-        <f t="shared" si="97"/>
-        <v>2382.2721084292903</v>
-      </c>
-      <c r="ER18" s="1">
-        <f t="shared" si="97"/>
-        <v>2358.4493873449974</v>
-      </c>
-      <c r="ES18" s="1">
-        <f t="shared" si="97"/>
-        <v>2334.8648934715475</v>
-      </c>
-      <c r="ET18" s="1">
-        <f t="shared" si="97"/>
-        <v>2311.5162445368319</v>
-      </c>
-      <c r="EU18" s="1">
-        <f t="shared" si="97"/>
-        <v>2288.4010820914636</v>
-      </c>
-      <c r="EV18" s="1">
-        <f t="shared" si="97"/>
-        <v>2265.517071270549</v>
-      </c>
-      <c r="EW18" s="1">
-        <f t="shared" si="97"/>
-        <v>2242.8619005578435</v>
-      </c>
-      <c r="EX18" s="1">
-        <f t="shared" si="97"/>
-        <v>2220.4332815522648</v>
-      </c>
-      <c r="EY18" s="1">
-        <f t="shared" si="97"/>
-        <v>2198.228948736742</v>
-      </c>
-      <c r="EZ18" s="1">
-        <f t="shared" si="97"/>
-        <v>2176.2466592493747</v>
-      </c>
-      <c r="FA18" s="1">
-        <f t="shared" si="97"/>
-        <v>2154.4841926568811</v>
-      </c>
-      <c r="FB18" s="1">
-        <f t="shared" si="97"/>
-        <v>2132.9393507303121</v>
-      </c>
-      <c r="FC18" s="1">
-        <f t="shared" si="97"/>
-        <v>2111.6099572230091</v>
-      </c>
-      <c r="FD18" s="1">
-        <f t="shared" si="97"/>
-        <v>2090.4938576507789</v>
-      </c>
-      <c r="FE18" s="1">
-        <f t="shared" si="97"/>
-        <v>2069.588919074271</v>
-      </c>
-      <c r="FF18" s="1">
-        <f t="shared" si="97"/>
-        <v>2048.893029883528</v>
-      </c>
-      <c r="FG18" s="1">
-        <f t="shared" si="97"/>
-        <v>2028.4040995846926</v>
-      </c>
-      <c r="FH18" s="1">
-        <f t="shared" si="97"/>
-        <v>2008.1200585888457</v>
-      </c>
-      <c r="FI18" s="1">
-        <f t="shared" si="97"/>
-        <v>1988.0388580029573</v>
-      </c>
-      <c r="FJ18" s="1">
-        <f t="shared" si="97"/>
-        <v>1968.1584694229277</v>
+        <v>2214.4070014144299</v>
       </c>
     </row>
     <row r="19" spans="2:166" x14ac:dyDescent="0.3">
@@ -4306,20 +4298,20 @@
         <v>2345.4</v>
       </c>
       <c r="AA19" s="5">
-        <f t="shared" ref="AA19:AD19" si="98">2249+95.4+1</f>
-        <v>2345.4</v>
+        <f>2348.7</f>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" si="98"/>
-        <v>2345.4</v>
+        <f>2348.7</f>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" si="98"/>
-        <v>2345.4</v>
+        <f>2348.7</f>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AD19" s="5">
-        <f t="shared" si="98"/>
-        <v>2345.4</v>
+        <f>2348.7</f>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AF19" s="5">
         <v>1742</v>
@@ -4340,52 +4332,52 @@
         <v>1821.2</v>
       </c>
       <c r="AL19" s="5">
-        <f t="shared" ref="AL19:AW19" si="99">2249+95.4+1</f>
+        <f t="shared" ref="AL19" si="95">2249+95.4+1</f>
         <v>2345.4</v>
       </c>
       <c r="AM19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" ref="AM19:AW19" si="96">2348.7</f>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AN19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AO19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AP19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AQ19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AR19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AS19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AT19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AU19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AV19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
       <c r="AW19" s="5">
-        <f t="shared" si="99"/>
-        <v>2345.4</v>
+        <f t="shared" si="96"/>
+        <v>2348.6999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:166" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4409,7 +4401,7 @@
         <v>-9.1446613088404113E-2</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20" si="100">G18/G19</f>
+        <f t="shared" ref="G20" si="97">G18/G19</f>
         <v>-2.9870415110915882E-2</v>
       </c>
       <c r="H20" s="13">
@@ -4425,84 +4417,84 @@
         <v>-8.5074626865671646E-2</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" ref="K20:M20" si="101">K18/K19</f>
+        <f t="shared" ref="K20:M20" si="98">K18/K19</f>
         <v>-6.7812431363935846E-2</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>-7.8409839666154141E-2</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>-5.6007028332967258E-2</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" ref="N20:O20" si="102">N18/N19</f>
+        <f t="shared" ref="N20:O20" si="99">N18/N19</f>
         <v>-8.5767625741269518E-2</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>-5.5677575225126279E-2</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" ref="P20:Q20" si="103">P18/P19</f>
+        <f t="shared" ref="P20:Q20" si="100">P18/P19</f>
         <v>-9.8506479244454201E-2</v>
       </c>
       <c r="Q20" s="7">
+        <f t="shared" si="100"/>
+        <v>-6.8032066769163207E-2</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" ref="R20" si="101">R18/R19</f>
+        <v>1.8394465187788266E-2</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" ref="S20" si="102">S18/S19</f>
+        <v>1.0597408302218341E-2</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" ref="T20:U20" si="103">T18/T19</f>
+        <v>1.5319569514605764E-2</v>
+      </c>
+      <c r="U20" s="7">
         <f t="shared" si="103"/>
-        <v>-6.8032066769163207E-2</v>
-      </c>
-      <c r="R20" s="7">
-        <f t="shared" ref="R20" si="104">R18/R19</f>
-        <v>1.8394465187788266E-2</v>
-      </c>
-      <c r="S20" s="7">
-        <f t="shared" ref="S20" si="105">S18/S19</f>
-        <v>1.0597408302218341E-2</v>
-      </c>
-      <c r="T20" s="7">
-        <f t="shared" ref="T20:U20" si="106">T18/T19</f>
-        <v>1.5319569514605764E-2</v>
-      </c>
-      <c r="U20" s="7">
+        <v>4.0412914561827398E-2</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" ref="V20" si="104">V18/V19</f>
+        <v>5.320667691631889E-2</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" ref="W20:X20" si="105">W18/W19</f>
+        <v>5.8203382385240504E-2</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" si="105"/>
+        <v>6.0507278735375529E-2</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" ref="Y20:Z20" si="106">Y18/Y19</f>
+        <v>6.2991089065449257E-2</v>
+      </c>
+      <c r="Z20" s="7">
         <f t="shared" si="106"/>
-        <v>4.0412914561827398E-2</v>
-      </c>
-      <c r="V20" s="7">
-        <f t="shared" ref="V20" si="107">V18/V19</f>
-        <v>5.320667691631889E-2</v>
-      </c>
-      <c r="W20" s="7">
-        <f t="shared" ref="W20:X20" si="108">W18/W19</f>
-        <v>5.8203382385240504E-2</v>
-      </c>
-      <c r="X20" s="7">
-        <f t="shared" si="108"/>
-        <v>6.0507278735375529E-2</v>
-      </c>
-      <c r="Y20" s="7">
-        <f t="shared" ref="Y20:Z20" si="109">Y18/Y19</f>
-        <v>6.2991089065449257E-2</v>
-      </c>
-      <c r="Z20" s="7">
-        <f t="shared" si="109"/>
         <v>3.3725590517608948E-2</v>
       </c>
       <c r="AA20" s="7">
-        <f t="shared" ref="AA20:AD20" si="110">AA18/AA19</f>
-        <v>8.6425211051419801E-2</v>
+        <f t="shared" ref="AA20:AD20" si="107">AA18/AA19</f>
+        <v>9.1114233405713785E-2</v>
       </c>
       <c r="AB20" s="7">
-        <f t="shared" si="110"/>
-        <v>9.9112616184872535E-2</v>
+        <f t="shared" si="107"/>
+        <v>0.1075308102354494</v>
       </c>
       <c r="AC20" s="7">
-        <f t="shared" si="110"/>
-        <v>0.10746576276967681</v>
+        <f t="shared" si="107"/>
+        <v>0.11523790820453873</v>
       </c>
       <c r="AD20" s="7">
-        <f t="shared" si="110"/>
-        <v>6.3198654813677896E-2</v>
+        <f t="shared" si="107"/>
+        <v>7.4612232298718509E-2</v>
       </c>
       <c r="AF20" s="7">
         <f>AF18/AF19</f>
@@ -4517,64 +4509,64 @@
         <v>-0.66951779563719871</v>
       </c>
       <c r="AI20" s="7">
-        <f t="shared" ref="AI20" si="111">AI18/AI19</f>
+        <f t="shared" ref="AI20" si="108">AI18/AI19</f>
         <v>-0.28799692510432667</v>
       </c>
       <c r="AJ20" s="7">
-        <f t="shared" ref="AJ20" si="112">AJ18/AJ19</f>
+        <f t="shared" ref="AJ20" si="109">AJ18/AJ19</f>
         <v>-0.20382165605095534</v>
       </c>
       <c r="AK20" s="7">
-        <f t="shared" ref="AK20" si="113">AK18/AK19</f>
+        <f t="shared" ref="AK20" si="110">AK18/AK19</f>
         <v>0.1195365692949704</v>
       </c>
       <c r="AL20" s="7">
-        <f t="shared" ref="AL20" si="114">AL18/AL19</f>
+        <f t="shared" ref="AL20" si="111">AL18/AL19</f>
         <v>0.19787669480685605</v>
       </c>
       <c r="AM20" s="7">
-        <f t="shared" ref="AM20" si="115">AM18/AM19</f>
-        <v>0.35620224481964696</v>
+        <f t="shared" ref="AM20" si="112">AM18/AM19</f>
+        <v>0.38849518414442041</v>
       </c>
       <c r="AN20" s="7">
-        <f t="shared" ref="AN20" si="116">AN18/AN19</f>
-        <v>0.59301408595548721</v>
+        <f t="shared" ref="AN20" si="113">AN18/AN19</f>
+        <v>0.5997889945927537</v>
       </c>
       <c r="AO20" s="7">
-        <f t="shared" ref="AO20" si="117">AO18/AO19</f>
-        <v>0.8862599756766435</v>
+        <f t="shared" ref="AO20" si="114">AO18/AO19</f>
+        <v>0.93495122691327148</v>
       </c>
       <c r="AP20" s="7">
-        <f t="shared" ref="AP20" si="118">AP18/AP19</f>
-        <v>1.232937236375885</v>
+        <f t="shared" ref="AP20" si="115">AP18/AP19</f>
+        <v>1.3523412516364355</v>
       </c>
       <c r="AQ20" s="7">
-        <f t="shared" ref="AQ20" si="119">AQ18/AQ19</f>
-        <v>1.5735141140466109</v>
+        <f t="shared" ref="AQ20" si="116">AQ18/AQ19</f>
+        <v>1.7510463350610204</v>
       </c>
       <c r="AR20" s="7">
-        <f t="shared" ref="AR20:AS20" si="120">AR18/AR19</f>
-        <v>1.7943516272443392</v>
+        <f t="shared" ref="AR20:AS20" si="117">AR18/AR19</f>
+        <v>1.9912166713522883</v>
       </c>
       <c r="AS20" s="7">
-        <f t="shared" si="120"/>
-        <v>2.0250783813266482</v>
+        <f t="shared" si="117"/>
+        <v>2.2872663370705388</v>
       </c>
       <c r="AT20" s="7">
-        <f t="shared" ref="AT20:AW20" si="121">AT18/AT19</f>
-        <v>2.2334247643360996</v>
+        <f t="shared" ref="AT20:AW20" si="118">AT18/AT19</f>
+        <v>2.5197058576128968</v>
       </c>
       <c r="AU20" s="7">
-        <f t="shared" si="121"/>
-        <v>2.4097475614958848</v>
+        <f t="shared" si="118"/>
+        <v>2.7152338820775239</v>
       </c>
       <c r="AV20" s="7">
-        <f t="shared" si="121"/>
-        <v>2.5728671331940109</v>
+        <f t="shared" si="118"/>
+        <v>2.8950921702985113</v>
       </c>
       <c r="AW20" s="7">
-        <f t="shared" si="121"/>
-        <v>2.7197273879967536</v>
+        <f t="shared" si="118"/>
+        <v>3.0557099631740554</v>
       </c>
     </row>
     <row r="21" spans="2:166" x14ac:dyDescent="0.3">
@@ -4599,87 +4591,87 @@
         <v>0.51916010498687659</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" ref="J22" si="122">J3/F3-1</f>
+        <f t="shared" ref="J22" si="119">J3/F3-1</f>
         <v>0.40409764603313003</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" ref="K22" si="123">K3/G3-1</f>
+        <f t="shared" ref="K22" si="120">K3/G3-1</f>
         <v>0.48800697775839508</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" ref="L22" si="124">L3/H3-1</f>
+        <f t="shared" ref="L22" si="121">L3/H3-1</f>
         <v>0.49106788408098478</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" ref="M22" si="125">M3/I3-1</f>
+        <f t="shared" ref="M22" si="122">M3/I3-1</f>
         <v>0.35487214927436095</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" ref="N22" si="126">N3/J3-1</f>
+        <f t="shared" ref="N22" si="123">N3/J3-1</f>
         <v>0.34399254889785769</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" ref="O22" si="127">O3/K3-1</f>
+        <f t="shared" ref="O22" si="124">O3/K3-1</f>
         <v>0.30832356389214532</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" ref="P22" si="128">P3/L3-1</f>
+        <f t="shared" ref="P22" si="125">P3/L3-1</f>
         <v>0.2593184238551649</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" ref="Q22" si="129">Q3/M3-1</f>
+        <f t="shared" ref="Q22" si="126">Q3/M3-1</f>
         <v>0.21882172915072662</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" ref="R22" si="130">R3/N3-1</f>
+        <f t="shared" ref="R22" si="127">R3/N3-1</f>
         <v>0.17486717486717507</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" ref="S22" si="131">S3/O3-1</f>
+        <f t="shared" ref="S22" si="128">S3/O3-1</f>
         <v>0.17652329749103957</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" ref="T22" si="132">T3/P3-1</f>
+        <f t="shared" ref="T22" si="129">T3/P3-1</f>
         <v>0.12748414376321349</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" ref="U22" si="133">U3/Q3-1</f>
+        <f t="shared" ref="U22" si="130">U3/Q3-1</f>
         <v>0.16802678384599301</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" ref="V22" si="134">V3/R3-1</f>
+        <f t="shared" ref="V22" si="131">V3/R3-1</f>
         <v>0.19622493118364126</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" ref="W22" si="135">W3/S3-1</f>
+        <f t="shared" ref="W22" si="132">W3/S3-1</f>
         <v>0.20773038842345759</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" ref="X22" si="136">X3/T3-1</f>
+        <f t="shared" ref="X22" si="133">X3/T3-1</f>
         <v>0.27151696981061324</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" ref="Y22" si="137">Y3/U3-1</f>
+        <f t="shared" ref="Y22" si="134">Y3/U3-1</f>
         <v>0.29971336438552476</v>
       </c>
       <c r="Z22" s="9">
-        <f t="shared" ref="Z22" si="138">Z3/V3-1</f>
+        <f t="shared" ref="Z22" si="135">Z3/V3-1</f>
         <v>0.36012491781722566</v>
       </c>
       <c r="AA22" s="9">
-        <f t="shared" ref="AA22" si="139">AA3/W3-1</f>
-        <v>0.39999999999999991</v>
+        <f t="shared" ref="AA22" si="136">AA3/W3-1</f>
+        <v>0.39350465079615327</v>
       </c>
       <c r="AB22" s="9">
-        <f t="shared" ref="AB22" si="140">AB3/X3-1</f>
-        <v>0.39999999999999991</v>
+        <f t="shared" ref="AB22" si="137">AB3/X3-1</f>
+        <v>0.37999999999999989</v>
       </c>
       <c r="AC22" s="9">
-        <f t="shared" ref="AC22" si="141">AC3/Y3-1</f>
+        <f t="shared" ref="AC22" si="138">AC3/Y3-1</f>
         <v>0.35000000000000009</v>
       </c>
       <c r="AD22" s="9">
-        <f t="shared" ref="AD22" si="142">AD3/Z3-1</f>
+        <f t="shared" ref="AD22" si="139">AD3/Z3-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AG22" s="9">
@@ -4691,63 +4683,63 @@
         <v>0.47145165634257991</v>
       </c>
       <c r="AI22" s="9">
-        <f t="shared" ref="AI22:AR22" si="143">AI3/AH3-1</f>
+        <f t="shared" ref="AI22:AR22" si="140">AI3/AH3-1</f>
         <v>0.41100027454928201</v>
       </c>
       <c r="AJ22" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="140"/>
         <v>0.23615254896873772</v>
       </c>
       <c r="AK22" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="140"/>
         <v>0.1674799307413819</v>
       </c>
       <c r="AL22" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="140"/>
         <v>0.28776234775965137</v>
       </c>
       <c r="AM22" s="9">
-        <f t="shared" si="143"/>
-        <v>0.35846129685209727</v>
+        <f t="shared" si="140"/>
+        <v>0.35229043065540577</v>
       </c>
       <c r="AN22" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="140"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AO22" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="140"/>
         <v>0.27</v>
       </c>
       <c r="AP22" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="140"/>
         <v>0.24</v>
       </c>
       <c r="AQ22" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="140"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="AR22" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="140"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="AS22" s="9">
-        <f t="shared" ref="AS22" si="144">AS3/AR3-1</f>
+        <f t="shared" ref="AS22" si="141">AS3/AR3-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AT22" s="9">
-        <f t="shared" ref="AT22" si="145">AT3/AS3-1</f>
+        <f t="shared" ref="AT22" si="142">AT3/AS3-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="AU22" s="9">
-        <f t="shared" ref="AU22" si="146">AU3/AT3-1</f>
+        <f t="shared" ref="AU22" si="143">AU3/AT3-1</f>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="AV22" s="9">
-        <f t="shared" ref="AV22" si="147">AV3/AU3-1</f>
+        <f t="shared" ref="AV22" si="144">AV3/AU3-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AW22" s="9">
-        <f t="shared" ref="AW22" si="148">AW3/AV3-1</f>
+        <f t="shared" ref="AW22" si="145">AW3/AV3-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
@@ -4756,183 +4748,183 @@
         <v>35</v>
       </c>
       <c r="D23" s="15">
-        <f t="shared" ref="D23:I23" si="149">D5/D3</f>
+        <f t="shared" ref="D23:I23" si="146">D5/D3</f>
         <v>0.6734221192819918</v>
       </c>
       <c r="E23" s="9">
+        <f t="shared" si="146"/>
+        <v>0.65826771653543314</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="146"/>
+        <v>0.66913687881429817</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="146"/>
+        <v>0.71958133449629302</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="146"/>
+        <v>0.72846367606192941</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="146"/>
+        <v>0.48410504492052514</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" ref="J23:N23" si="147">J5/J3</f>
+        <v>0.78112387457311394</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="147"/>
+        <v>0.78282532239155933</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="147"/>
+        <v>0.75798722044728439</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="147"/>
+        <v>0.7786279010456516</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="147"/>
+        <v>0.79764379764379756</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" ref="O23:Z23" si="148">O5/O3</f>
+        <v>0.78853046594982079</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.78393234672304446</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.77484829462230587</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.79492725127801811</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.79512566641279514</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.79954997187324206</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.80670010748835552</v>
+      </c>
+      <c r="V23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.82149901380670609</v>
+      </c>
+      <c r="W23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.81664827368752957</v>
+      </c>
+      <c r="X23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.8103524553900604</v>
+      </c>
+      <c r="Y23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.79793246037215715</v>
+      </c>
+      <c r="Z23" s="9">
+        <f t="shared" si="148"/>
+        <v>0.78912386706948645</v>
+      </c>
+      <c r="AA23" s="9">
+        <f t="shared" ref="AA23:AD23" si="149">AA5/AA3</f>
+        <v>0.80427650186672694</v>
+      </c>
+      <c r="AB23" s="9">
         <f t="shared" si="149"/>
-        <v>0.65826771653543314</v>
-      </c>
-      <c r="F23" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AC23" s="9">
         <f t="shared" si="149"/>
-        <v>0.66913687881429817</v>
-      </c>
-      <c r="G23" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="AD23" s="9">
         <f t="shared" si="149"/>
-        <v>0.71958133449629302</v>
-      </c>
-      <c r="H23" s="15">
-        <f t="shared" si="149"/>
-        <v>0.72846367606192941</v>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" si="149"/>
-        <v>0.48410504492052514</v>
-      </c>
-      <c r="J23" s="9">
-        <f t="shared" ref="J23:N23" si="150">J5/J3</f>
-        <v>0.78112387457311394</v>
-      </c>
-      <c r="K23" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="AF23" s="9">
+        <f t="shared" ref="AF23:AH23" si="150">AF5/AF3</f>
+        <v>0.72220356063150826</v>
+      </c>
+      <c r="AG23" s="9">
         <f t="shared" si="150"/>
-        <v>0.78282532239155933</v>
-      </c>
-      <c r="L23" s="9">
+        <v>0.67357931591704823</v>
+      </c>
+      <c r="AH23" s="9">
         <f t="shared" si="150"/>
-        <v>0.75798722044728439</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="shared" si="150"/>
-        <v>0.7786279010456516</v>
-      </c>
-      <c r="N23" s="9">
-        <f t="shared" si="150"/>
-        <v>0.79764379764379756</v>
-      </c>
-      <c r="O23" s="9">
-        <f t="shared" ref="O23:Z23" si="151">O5/O3</f>
-        <v>0.78853046594982079</v>
-      </c>
-      <c r="P23" s="9">
+        <v>0.67740459412464527</v>
+      </c>
+      <c r="AI23" s="9">
+        <f t="shared" ref="AI23:AR23" si="151">AI5/AI3</f>
+        <v>0.77986768711895182</v>
+      </c>
+      <c r="AJ23" s="9">
         <f t="shared" si="151"/>
-        <v>0.78393234672304446</v>
-      </c>
-      <c r="Q23" s="9">
+        <v>0.78566556482501704</v>
+      </c>
+      <c r="AK23" s="9">
         <f t="shared" si="151"/>
-        <v>0.77484829462230587</v>
-      </c>
-      <c r="R23" s="9">
+        <v>0.80630084041166683</v>
+      </c>
+      <c r="AL23" s="9">
         <f t="shared" si="151"/>
-        <v>0.79492725127801811</v>
-      </c>
-      <c r="S23" s="9">
+        <v>0.80247085921686323</v>
+      </c>
+      <c r="AM23" s="9">
         <f t="shared" si="151"/>
-        <v>0.79512566641279514</v>
-      </c>
-      <c r="T23" s="9">
+        <v>0.79819928652777294</v>
+      </c>
+      <c r="AN23" s="9">
         <f t="shared" si="151"/>
-        <v>0.79954997187324206</v>
-      </c>
-      <c r="U23" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AO23" s="9">
         <f t="shared" si="151"/>
-        <v>0.80670010748835552</v>
-      </c>
-      <c r="V23" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AP23" s="9">
         <f t="shared" si="151"/>
-        <v>0.82149901380670609</v>
-      </c>
-      <c r="W23" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AQ23" s="9">
         <f t="shared" si="151"/>
-        <v>0.81664827368752957</v>
-      </c>
-      <c r="X23" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AR23" s="9">
         <f t="shared" si="151"/>
-        <v>0.8103524553900604</v>
-      </c>
-      <c r="Y23" s="9">
-        <f t="shared" si="151"/>
-        <v>0.79793246037215715</v>
-      </c>
-      <c r="Z23" s="9">
-        <f t="shared" si="151"/>
-        <v>0.78912386706948645</v>
-      </c>
-      <c r="AA23" s="9">
-        <f t="shared" ref="AA23:AD23" si="152">AA5/AA3</f>
         <v>0.8</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AS23" s="9">
+        <f t="shared" ref="AS23:AW23" si="152">AS5/AS3</f>
+        <v>0.8</v>
+      </c>
+      <c r="AT23" s="9">
         <f t="shared" si="152"/>
         <v>0.8</v>
       </c>
-      <c r="AC23" s="9">
+      <c r="AU23" s="9">
         <f t="shared" si="152"/>
         <v>0.8</v>
       </c>
-      <c r="AD23" s="9">
+      <c r="AV23" s="9">
         <f t="shared" si="152"/>
-        <v>0.79</v>
-      </c>
-      <c r="AF23" s="9">
-        <f t="shared" ref="AF23:AH23" si="153">AF5/AF3</f>
-        <v>0.72220356063150826</v>
-      </c>
-      <c r="AG23" s="9">
-        <f t="shared" si="153"/>
-        <v>0.67357931591704823</v>
-      </c>
-      <c r="AH23" s="9">
-        <f t="shared" si="153"/>
-        <v>0.67740459412464527</v>
-      </c>
-      <c r="AI23" s="9">
-        <f t="shared" ref="AI23:AR23" si="154">AI5/AI3</f>
-        <v>0.77986768711895182</v>
-      </c>
-      <c r="AJ23" s="9">
-        <f t="shared" si="154"/>
-        <v>0.78566556482501704</v>
-      </c>
-      <c r="AK23" s="9">
-        <f t="shared" si="154"/>
-        <v>0.80630084041166683</v>
-      </c>
-      <c r="AL23" s="9">
-        <f t="shared" si="154"/>
-        <v>0.80247085921686323</v>
-      </c>
-      <c r="AM23" s="9">
-        <f t="shared" si="154"/>
-        <v>0.79723637680842951</v>
-      </c>
-      <c r="AN23" s="9">
-        <f t="shared" si="154"/>
         <v>0.8</v>
       </c>
-      <c r="AO23" s="9">
-        <f t="shared" si="154"/>
-        <v>0.8</v>
-      </c>
-      <c r="AP23" s="9">
-        <f t="shared" si="154"/>
-        <v>0.8</v>
-      </c>
-      <c r="AQ23" s="9">
-        <f t="shared" si="154"/>
-        <v>0.8</v>
-      </c>
-      <c r="AR23" s="9">
-        <f t="shared" si="154"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="AS23" s="9">
-        <f t="shared" ref="AS23:AW23" si="155">AS5/AS3</f>
-        <v>0.8</v>
-      </c>
-      <c r="AT23" s="9">
-        <f t="shared" si="155"/>
-        <v>0.8</v>
-      </c>
-      <c r="AU23" s="9">
-        <f t="shared" si="155"/>
-        <v>0.8</v>
-      </c>
-      <c r="AV23" s="9">
-        <f t="shared" si="155"/>
-        <v>0.8</v>
-      </c>
       <c r="AW23" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="152"/>
         <v>0.8</v>
       </c>
     </row>
@@ -4945,180 +4937,180 @@
         <v>-0.87319050376375251</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" ref="E24:G24" si="156">E10/E3</f>
+        <f t="shared" ref="E24:G24" si="153">E10/E3</f>
         <v>-0.75748031496063017</v>
       </c>
       <c r="F24" s="9">
+        <f t="shared" si="153"/>
+        <v>-0.6425457715780295</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="153"/>
+        <v>-0.30658525948539034</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" ref="H24:J24" si="154">H10/H3</f>
+        <v>-0.39341008336641514</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="154"/>
+        <v>-2.9291637871458192</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="154"/>
+        <v>-0.48587395218876123</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" ref="K24:N24" si="155">K10/K3</f>
+        <v>-0.33440797186400928</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="155"/>
+        <v>-0.38924387646432357</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="155"/>
+        <v>-0.23437898495281809</v>
+      </c>
+      <c r="N24" s="9">
+        <f t="shared" si="155"/>
+        <v>-0.13629013629013642</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" ref="O24:Z24" si="156">O10/O3</f>
+        <v>-8.8261648745519672E-2</v>
+      </c>
+      <c r="P24" s="9">
         <f t="shared" si="156"/>
-        <v>-0.6425457715780295</v>
-      </c>
-      <c r="G24" s="15">
+        <v>-8.837209302325584E-2</v>
+      </c>
+      <c r="Q24" s="9">
         <f t="shared" si="156"/>
-        <v>-0.30658525948539034</v>
-      </c>
-      <c r="H24" s="15">
-        <f t="shared" ref="H24:J24" si="157">H10/H3</f>
-        <v>-0.39341008336641514</v>
-      </c>
-      <c r="I24" s="9">
+        <v>-0.13015275162167828</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="156"/>
+        <v>-3.4998033818324836E-2</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="156"/>
+        <v>7.9969535415080825E-3</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" si="156"/>
+        <v>1.8938683667729276E-2</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="156"/>
+        <v>7.1658903618774722E-2</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" si="156"/>
+        <v>0.10815253122945423</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" si="156"/>
+        <v>0.12738451836670348</v>
+      </c>
+      <c r="X24" s="9">
+        <f t="shared" si="156"/>
+        <v>0.15528683085090689</v>
+      </c>
+      <c r="Y24" s="9">
+        <f t="shared" si="156"/>
+        <v>0.15589248793935212</v>
+      </c>
+      <c r="Z24" s="9">
+        <f t="shared" si="156"/>
+        <v>1.3413897280966794E-2</v>
+      </c>
+      <c r="AA24" s="9">
+        <f t="shared" ref="AA24:AD24" si="157">AA10/AA3</f>
+        <v>0.19923068220386911</v>
+      </c>
+      <c r="AB24" s="9">
         <f t="shared" si="157"/>
-        <v>-2.9291637871458192</v>
-      </c>
-      <c r="J24" s="9">
+        <v>0.22433752449833189</v>
+      </c>
+      <c r="AC24" s="9">
         <f t="shared" si="157"/>
-        <v>-0.48587395218876123</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" ref="K24:N24" si="158">K10/K3</f>
-        <v>-0.33440797186400928</v>
-      </c>
-      <c r="L24" s="9">
+        <v>0.22705618092248012</v>
+      </c>
+      <c r="AD24" s="9">
+        <f t="shared" si="157"/>
+        <v>0.11045782012549399</v>
+      </c>
+      <c r="AF24" s="9">
+        <f t="shared" ref="AF24:AR24" si="158">AF10/AF3</f>
+        <v>-1.047195162915687</v>
+      </c>
+      <c r="AG24" s="9">
         <f t="shared" si="158"/>
-        <v>-0.38924387646432357</v>
-      </c>
-      <c r="M24" s="9">
+        <v>-0.77619175868569867</v>
+      </c>
+      <c r="AH24" s="9">
         <f t="shared" si="158"/>
-        <v>-0.23437898495281809</v>
-      </c>
-      <c r="N24" s="9">
+        <v>-1.0740367896037342</v>
+      </c>
+      <c r="AI24" s="9">
         <f t="shared" si="158"/>
-        <v>-0.13629013629013642</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" ref="O24:Z24" si="159">O10/O3</f>
-        <v>-8.8261648745519672E-2</v>
-      </c>
-      <c r="P24" s="9">
+        <v>-0.26670125826955493</v>
+      </c>
+      <c r="AJ24" s="9">
+        <f t="shared" si="158"/>
+        <v>-8.4579463770397087E-2</v>
+      </c>
+      <c r="AK24" s="9">
+        <f t="shared" si="158"/>
+        <v>5.3975102242595899E-2</v>
+      </c>
+      <c r="AL24" s="9">
+        <f t="shared" si="158"/>
+        <v>0.10829203601591407</v>
+      </c>
+      <c r="AM24" s="9">
+        <f t="shared" si="158"/>
+        <v>0.18768186044735125</v>
+      </c>
+      <c r="AN24" s="9">
+        <f t="shared" si="158"/>
+        <v>0.26426237132291019</v>
+      </c>
+      <c r="AO24" s="9">
+        <f t="shared" si="158"/>
+        <v>0.34158717929288651</v>
+      </c>
+      <c r="AP24" s="9">
+        <f t="shared" si="158"/>
+        <v>0.41004086005209839</v>
+      </c>
+      <c r="AQ24" s="9">
+        <f t="shared" si="158"/>
+        <v>0.45545939479123831</v>
+      </c>
+      <c r="AR24" s="9">
+        <f t="shared" si="158"/>
+        <v>0.48383209007637112</v>
+      </c>
+      <c r="AS24" s="9">
+        <f t="shared" ref="AS24:AW24" si="159">AS10/AS3</f>
+        <v>0.50518975625263507</v>
+      </c>
+      <c r="AT24" s="9">
         <f t="shared" si="159"/>
-        <v>-8.837209302325584E-2</v>
-      </c>
-      <c r="Q24" s="9">
+        <v>0.51323476979415539</v>
+      </c>
+      <c r="AU24" s="9">
         <f t="shared" si="159"/>
-        <v>-0.13015275162167828</v>
-      </c>
-      <c r="R24" s="9">
+        <v>0.5183957218773948</v>
+      </c>
+      <c r="AV24" s="9">
         <f t="shared" si="159"/>
-        <v>-3.4998033818324836E-2</v>
-      </c>
-      <c r="S24" s="9">
+        <v>0.52215584410946925</v>
+      </c>
+      <c r="AW24" s="9">
         <f t="shared" si="159"/>
-        <v>7.9969535415080825E-3</v>
-      </c>
-      <c r="T24" s="9">
-        <f t="shared" si="159"/>
-        <v>1.8938683667729276E-2</v>
-      </c>
-      <c r="U24" s="9">
-        <f t="shared" si="159"/>
-        <v>7.1658903618774722E-2</v>
-      </c>
-      <c r="V24" s="9">
-        <f t="shared" si="159"/>
-        <v>0.10815253122945423</v>
-      </c>
-      <c r="W24" s="9">
-        <f t="shared" si="159"/>
-        <v>0.12738451836670348</v>
-      </c>
-      <c r="X24" s="9">
-        <f t="shared" si="159"/>
-        <v>0.15528683085090689</v>
-      </c>
-      <c r="Y24" s="9">
-        <f t="shared" si="159"/>
-        <v>0.15589248793935212</v>
-      </c>
-      <c r="Z24" s="9">
-        <f t="shared" si="159"/>
-        <v>1.3413897280966794E-2</v>
-      </c>
-      <c r="AA24" s="9">
-        <f t="shared" ref="AA24:AD24" si="160">AA10/AA3</f>
-        <v>0.18162901736447384</v>
-      </c>
-      <c r="AB24" s="9">
-        <f t="shared" si="160"/>
-        <v>0.19884698843407003</v>
-      </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="160"/>
-        <v>0.20705618092248007</v>
-      </c>
-      <c r="AD24" s="9">
-        <f t="shared" si="160"/>
-        <v>8.4022774808273443E-2</v>
-      </c>
-      <c r="AF24" s="9">
-        <f t="shared" ref="AF24:AR24" si="161">AF10/AF3</f>
-        <v>-1.047195162915687</v>
-      </c>
-      <c r="AG24" s="9">
-        <f t="shared" si="161"/>
-        <v>-0.77619175868569867</v>
-      </c>
-      <c r="AH24" s="9">
-        <f t="shared" si="161"/>
-        <v>-1.0740367896037342</v>
-      </c>
-      <c r="AI24" s="9">
-        <f t="shared" si="161"/>
-        <v>-0.26670125826955493</v>
-      </c>
-      <c r="AJ24" s="9">
-        <f t="shared" si="161"/>
-        <v>-8.4579463770397087E-2</v>
-      </c>
-      <c r="AK24" s="9">
-        <f t="shared" si="161"/>
-        <v>5.3975102242595899E-2</v>
-      </c>
-      <c r="AL24" s="9">
-        <f t="shared" si="161"/>
-        <v>0.10829203601591407</v>
-      </c>
-      <c r="AM24" s="9">
-        <f t="shared" si="161"/>
-        <v>0.16525146209346867</v>
-      </c>
-      <c r="AN24" s="9">
-        <f t="shared" si="161"/>
-        <v>0.25866736735038492</v>
-      </c>
-      <c r="AO24" s="9">
-        <f t="shared" si="161"/>
-        <v>0.31895100687364003</v>
-      </c>
-      <c r="AP24" s="9">
-        <f t="shared" si="161"/>
-        <v>0.3672863898370326</v>
-      </c>
-      <c r="AQ24" s="9">
-        <f t="shared" si="161"/>
-        <v>0.40206111663879079</v>
-      </c>
-      <c r="AR24" s="9">
-        <f t="shared" si="161"/>
-        <v>0.42868626225576012</v>
-      </c>
-      <c r="AS24" s="9">
-        <f t="shared" ref="AS24:AW24" si="162">AS10/AS3</f>
-        <v>0.43896362500079578</v>
-      </c>
-      <c r="AT24" s="9">
-        <f t="shared" si="162"/>
-        <v>0.44624342361186276</v>
-      </c>
-      <c r="AU24" s="9">
-        <f t="shared" si="162"/>
-        <v>0.45091348309820756</v>
-      </c>
-      <c r="AV24" s="9">
-        <f t="shared" si="162"/>
-        <v>0.45431595500968736</v>
-      </c>
-      <c r="AW24" s="9">
-        <f t="shared" si="162"/>
-        <v>0.456540648182578</v>
+        <v>0.5246143855689025</v>
       </c>
     </row>
     <row r="25" spans="2:166" x14ac:dyDescent="0.3">
@@ -5130,180 +5122,180 @@
         <v>0.68094962362478284</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" ref="E25:G25" si="163">E6/E3</f>
+        <f t="shared" ref="E25:G25" si="160">E6/E3</f>
         <v>0.62834645669291345</v>
       </c>
       <c r="F25" s="9">
+        <f t="shared" si="160"/>
+        <v>0.49215344376634701</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="160"/>
+        <v>0.43044047099869165</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" ref="H25:J25" si="161">H6/H3</f>
+        <v>0.40690750297737194</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="161"/>
+        <v>1.1572218382861093</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="161"/>
+        <v>0.45824278174479971</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" ref="K25:N25" si="162">K6/K3</f>
+        <v>0.39888628370457208</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="162"/>
+        <v>0.4323748668796592</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="162"/>
+        <v>0.39122672787554197</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="162"/>
+        <v>0.37560637560637561</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" ref="O25:Z25" si="163">O6/O3</f>
+        <v>0.35954301075268819</v>
+      </c>
+      <c r="P25" s="9">
         <f t="shared" si="163"/>
-        <v>0.49215344376634701</v>
-      </c>
-      <c r="G25" s="15">
+        <v>0.35708245243128967</v>
+      </c>
+      <c r="Q25" s="9">
         <f t="shared" si="163"/>
-        <v>0.43044047099869165</v>
-      </c>
-      <c r="H25" s="15">
-        <f t="shared" ref="H25:J25" si="164">H6/H3</f>
-        <v>0.40690750297737194</v>
-      </c>
-      <c r="I25" s="9">
+        <v>0.38271604938271608</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="163"/>
+        <v>0.37396775462052689</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="163"/>
+        <v>0.35624523990860618</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" si="163"/>
+        <v>0.34539658728670541</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="163"/>
+        <v>0.31601576495879613</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="163"/>
+        <v>0.32445759368836297</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="163"/>
+        <v>0.30458773451048399</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" si="163"/>
+        <v>0.29022268102049847</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" si="163"/>
+        <v>0.28876636802205374</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" si="163"/>
+        <v>0.34839879154078551</v>
+      </c>
+      <c r="AA25" s="9">
+        <f t="shared" ref="AA25:AD25" si="164">AA6/AA3</f>
+        <v>0.26733793415544749</v>
+      </c>
+      <c r="AB25" s="9">
         <f t="shared" si="164"/>
-        <v>1.1572218382861093</v>
-      </c>
-      <c r="J25" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="AC25" s="9">
         <f t="shared" si="164"/>
-        <v>0.45824278174479971</v>
-      </c>
-      <c r="K25" s="9">
-        <f t="shared" ref="K25:N25" si="165">K6/K3</f>
-        <v>0.39888628370457208</v>
-      </c>
-      <c r="L25" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="AD25" s="9">
+        <f t="shared" si="164"/>
+        <v>0.31</v>
+      </c>
+      <c r="AF25" s="9">
+        <f t="shared" ref="AF25:AH25" si="165">AF6/AF3</f>
+        <v>0.77561303325495468</v>
+      </c>
+      <c r="AG25" s="9">
         <f t="shared" si="165"/>
-        <v>0.4323748668796592</v>
-      </c>
-      <c r="M25" s="9">
+        <v>0.60611365472663614</v>
+      </c>
+      <c r="AH25" s="9">
         <f t="shared" si="165"/>
-        <v>0.39122672787554197</v>
-      </c>
-      <c r="N25" s="9">
-        <f t="shared" si="165"/>
-        <v>0.37560637560637561</v>
-      </c>
-      <c r="O25" s="9">
-        <f t="shared" ref="O25:Z25" si="166">O6/O3</f>
-        <v>0.35954301075268819</v>
-      </c>
-      <c r="P25" s="9">
+        <v>0.62569781275739</v>
+      </c>
+      <c r="AI25" s="9">
+        <f t="shared" ref="AI25:AR25" si="166">AI6/AI3</f>
+        <v>0.39856012452977035</v>
+      </c>
+      <c r="AJ25" s="9">
         <f t="shared" si="166"/>
-        <v>0.35708245243128967</v>
-      </c>
-      <c r="Q25" s="9">
+        <v>0.36859226612099266</v>
+      </c>
+      <c r="AK25" s="9">
         <f t="shared" si="166"/>
-        <v>0.38271604938271608</v>
-      </c>
-      <c r="R25" s="9">
+        <v>0.33486135454586308</v>
+      </c>
+      <c r="AL25" s="9">
         <f t="shared" si="166"/>
-        <v>0.37396775462052689</v>
-      </c>
-      <c r="S25" s="9">
+        <v>0.30983457806937947</v>
+      </c>
+      <c r="AM25" s="9">
         <f t="shared" si="166"/>
-        <v>0.35624523990860618</v>
-      </c>
-      <c r="T25" s="9">
+        <v>0.27555504170093681</v>
+      </c>
+      <c r="AN25" s="9">
         <f t="shared" si="166"/>
-        <v>0.34539658728670541</v>
-      </c>
-      <c r="U25" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AO25" s="9">
         <f t="shared" si="166"/>
-        <v>0.31601576495879613</v>
-      </c>
-      <c r="V25" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="AP25" s="9">
         <f t="shared" si="166"/>
-        <v>0.32445759368836297</v>
-      </c>
-      <c r="W25" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="AQ25" s="9">
         <f t="shared" si="166"/>
-        <v>0.30458773451048399</v>
-      </c>
-      <c r="X25" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="AR25" s="9">
         <f t="shared" si="166"/>
-        <v>0.29022268102049847</v>
-      </c>
-      <c r="Y25" s="9">
-        <f t="shared" si="166"/>
-        <v>0.28876636802205374</v>
-      </c>
-      <c r="Z25" s="9">
-        <f t="shared" si="166"/>
-        <v>0.34839879154078551</v>
-      </c>
-      <c r="AA25" s="9">
-        <f t="shared" ref="AA25:AD25" si="167">AA6/AA3</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AB25" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="AS25" s="9">
+        <f t="shared" ref="AS25:AW25" si="167">AS6/AS3</f>
+        <v>0.15</v>
+      </c>
+      <c r="AT25" s="9">
         <f t="shared" si="167"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AC25" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AU25" s="9">
         <f t="shared" si="167"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD25" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AV25" s="9">
         <f t="shared" si="167"/>
-        <v>0.32</v>
-      </c>
-      <c r="AF25" s="9">
-        <f t="shared" ref="AF25:AH25" si="168">AF6/AF3</f>
-        <v>0.77561303325495468</v>
-      </c>
-      <c r="AG25" s="9">
-        <f t="shared" si="168"/>
-        <v>0.60611365472663614</v>
-      </c>
-      <c r="AH25" s="9">
-        <f t="shared" si="168"/>
-        <v>0.62569781275739</v>
-      </c>
-      <c r="AI25" s="9">
-        <f t="shared" ref="AI25:AR25" si="169">AI6/AI3</f>
-        <v>0.39856012452977035</v>
-      </c>
-      <c r="AJ25" s="9">
-        <f t="shared" si="169"/>
-        <v>0.36859226612099266</v>
-      </c>
-      <c r="AK25" s="9">
-        <f t="shared" si="169"/>
-        <v>0.33486135454586308</v>
-      </c>
-      <c r="AL25" s="9">
-        <f t="shared" si="169"/>
-        <v>0.30983457806937947</v>
-      </c>
-      <c r="AM25" s="9">
-        <f t="shared" si="169"/>
-        <v>0.29577470722806604</v>
-      </c>
-      <c r="AN25" s="9">
-        <f t="shared" si="169"/>
-        <v>0.27</v>
-      </c>
-      <c r="AO25" s="9">
-        <f t="shared" si="169"/>
-        <v>0.26</v>
-      </c>
-      <c r="AP25" s="9">
-        <f t="shared" si="169"/>
-        <v>0.25</v>
-      </c>
-      <c r="AQ25" s="9">
-        <f t="shared" si="169"/>
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="AR25" s="9">
-        <f t="shared" si="169"/>
-        <v>0.23</v>
-      </c>
-      <c r="AS25" s="9">
-        <f t="shared" ref="AS25:AW25" si="170">AS6/AS3</f>
-        <v>0.23</v>
-      </c>
-      <c r="AT25" s="9">
-        <f t="shared" si="170"/>
-        <v>0.23</v>
-      </c>
-      <c r="AU25" s="9">
-        <f t="shared" si="170"/>
-        <v>0.23</v>
-      </c>
-      <c r="AV25" s="9">
-        <f t="shared" si="170"/>
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="AW25" s="9">
-        <f t="shared" si="170"/>
-        <v>0.23</v>
+        <f t="shared" si="167"/>
+        <v>0.15</v>
       </c>
       <c r="AY25" t="s">
         <v>37</v>
@@ -5320,168 +5312,168 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="15">
-        <f t="shared" ref="G26:J26" si="171">G7/C7-1</f>
+        <f t="shared" ref="G26:J26" si="168">G7/C7-1</f>
         <v>-0.13421052631578956</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="168"/>
         <v>0.11568123393316165</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="171"/>
+        <f t="shared" si="168"/>
         <v>3.1357048748353087</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="171"/>
+        <f t="shared" si="168"/>
         <v>0.24142480211081785</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" ref="K26:Z27" si="172">K7/G7-1</f>
+        <f t="shared" ref="K26:Z27" si="169">K7/G7-1</f>
         <v>0.49696048632218859</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>0.27304147465437789</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>-0.69958585536795148</v>
       </c>
       <c r="N26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>-0.10520722635494151</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>-0.10050761421319798</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>-0.20180995475113117</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>6.9989395546129485E-2</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>-2.6128266033254244E-2</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>1.6930022573363512E-2</v>
       </c>
       <c r="T26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>0.1281179138321995</v>
       </c>
       <c r="U26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>4.7571853320118818E-2</v>
       </c>
       <c r="V26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>0.33292682926829276</v>
       </c>
       <c r="W26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>0.22086570477247514</v>
       </c>
       <c r="X26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>9.3467336683417113E-2</v>
       </c>
       <c r="Y26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>0.11258278145695355</v>
       </c>
       <c r="Z26" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>0.56907593778591048</v>
       </c>
       <c r="AA26" s="9">
-        <f t="shared" ref="AA26:AA27" si="173">AA7/W7-1</f>
+        <f t="shared" ref="AA26:AA27" si="170">AA7/W7-1</f>
+        <v>0.22636363636363632</v>
+      </c>
+      <c r="AB26" s="9">
+        <f t="shared" ref="AB26:AB27" si="171">AB7/X7-1</f>
         <v>0.25</v>
       </c>
-      <c r="AB26" s="9">
-        <f t="shared" ref="AB26:AB27" si="174">AB7/X7-1</f>
+      <c r="AC26" s="9">
+        <f t="shared" ref="AC26:AC27" si="172">AC7/Y7-1</f>
         <v>0.25</v>
       </c>
-      <c r="AC26" s="9">
-        <f t="shared" ref="AC26:AC27" si="175">AC7/Y7-1</f>
-        <v>0.25</v>
-      </c>
       <c r="AD26" s="9">
-        <f t="shared" ref="AD26:AD27" si="176">AD7/Z7-1</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="AD26:AD27" si="173">AD7/Z7-1</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9">
-        <f t="shared" ref="AG26:AR26" si="177">AG7/AF7-1</f>
+        <f t="shared" ref="AG26:AR26" si="174">AG7/AF7-1</f>
         <v>7.0402802101576345E-2</v>
       </c>
       <c r="AH26" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="174"/>
         <v>0.83442408376963351</v>
       </c>
       <c r="AI26" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="174"/>
         <v>-0.30877631109525516</v>
       </c>
       <c r="AJ26" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="174"/>
         <v>-7.1741935483870867E-2</v>
       </c>
       <c r="AK26" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="174"/>
         <v>0.12482624409229914</v>
       </c>
       <c r="AL26" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="174"/>
         <v>0.25531389026198692</v>
       </c>
       <c r="AM26" s="9">
-        <f t="shared" si="177"/>
-        <v>0.23311675526678477</v>
+        <f t="shared" si="174"/>
+        <v>0.21111439259696807</v>
       </c>
       <c r="AN26" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="174"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="AO26" s="9">
+        <f t="shared" si="174"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AO26" s="9">
-        <f t="shared" si="177"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="AP26" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="174"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AQ26" s="9">
+        <f t="shared" si="174"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AQ26" s="9">
-        <f t="shared" si="177"/>
+      <c r="AR26" s="9">
+        <f t="shared" si="174"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AR26" s="9">
-        <f t="shared" si="177"/>
+      <c r="AS26" s="9">
+        <f t="shared" ref="AS26:AW27" si="175">AS7/AR7-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AS26" s="9">
-        <f t="shared" ref="AS26:AW27" si="178">AS7/AR7-1</f>
+      <c r="AT26" s="9">
+        <f t="shared" si="175"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AT26" s="9">
-        <f t="shared" si="178"/>
+      <c r="AU26" s="9">
+        <f t="shared" si="175"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AU26" s="9">
-        <f t="shared" si="178"/>
+      <c r="AV26" s="9">
+        <f t="shared" si="175"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AV26" s="9">
-        <f t="shared" si="178"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
       <c r="AW26" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="175"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AY26" t="s">
@@ -5499,168 +5491,168 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="15">
-        <f t="shared" ref="G27:J27" si="179">G8/C8-1</f>
+        <f t="shared" ref="G27:J27" si="176">G8/C8-1</f>
         <v>0.12380952380952381</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="179"/>
+        <f t="shared" si="176"/>
         <v>0.30125523012552313</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="176"/>
         <v>3.574898785425102</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="176"/>
         <v>0.48306595365418903</v>
       </c>
       <c r="K27" s="9">
+        <f t="shared" si="169"/>
+        <v>1.0706214689265536</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="169"/>
+        <v>0.69346195069667749</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="169"/>
+        <v>-0.55899705014749257</v>
+      </c>
+      <c r="N27" s="9">
+        <f t="shared" si="169"/>
+        <v>-5.3485576923076983E-2</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" si="169"/>
+        <v>-2.9331514324692942E-2</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="169"/>
+        <v>-1.5822784810126556E-2</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="169"/>
+        <v>-5.351170568561936E-3</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" si="169"/>
+        <v>-4.8253968253968216E-2</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" si="169"/>
+        <v>-4.2867182009838523E-2</v>
+      </c>
+      <c r="T27" s="9">
+        <f t="shared" si="169"/>
+        <v>-0.14726688102893892</v>
+      </c>
+      <c r="U27" s="9">
+        <f t="shared" si="169"/>
+        <v>-0.13786146603900473</v>
+      </c>
+      <c r="V27" s="9">
+        <f t="shared" si="169"/>
+        <v>-0.15076717811874585</v>
+      </c>
+      <c r="W27" s="9">
+        <f t="shared" si="169"/>
+        <v>-1.6152716593245131E-2</v>
+      </c>
+      <c r="X27" s="9">
+        <f t="shared" si="169"/>
+        <v>4.5248868778280604E-2</v>
+      </c>
+      <c r="Y27" s="9">
+        <f t="shared" si="169"/>
+        <v>8.19032761310452E-2</v>
+      </c>
+      <c r="Z27" s="9">
+        <f t="shared" si="169"/>
+        <v>0.43047918303220745</v>
+      </c>
+      <c r="AA27" s="9">
+        <f t="shared" si="170"/>
+        <v>0.22089552238805976</v>
+      </c>
+      <c r="AB27" s="9">
+        <f t="shared" si="171"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AC27" s="9">
         <f t="shared" si="172"/>
-        <v>1.0706214689265536</v>
-      </c>
-      <c r="L27" s="9">
-        <f t="shared" si="172"/>
-        <v>0.69346195069667749</v>
-      </c>
-      <c r="M27" s="9">
-        <f t="shared" si="172"/>
-        <v>-0.55899705014749257</v>
-      </c>
-      <c r="N27" s="9">
-        <f t="shared" si="172"/>
-        <v>-5.3485576923076983E-2</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="172"/>
-        <v>-2.9331514324692942E-2</v>
-      </c>
-      <c r="P27" s="9">
-        <f t="shared" si="172"/>
-        <v>-1.5822784810126556E-2</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="shared" si="172"/>
-        <v>-5.351170568561936E-3</v>
-      </c>
-      <c r="R27" s="9">
-        <f t="shared" si="172"/>
-        <v>-4.8253968253968216E-2</v>
-      </c>
-      <c r="S27" s="9">
-        <f t="shared" si="172"/>
-        <v>-4.2867182009838523E-2</v>
-      </c>
-      <c r="T27" s="9">
-        <f t="shared" si="172"/>
-        <v>-0.14726688102893892</v>
-      </c>
-      <c r="U27" s="9">
-        <f t="shared" si="172"/>
-        <v>-0.13786146603900473</v>
-      </c>
-      <c r="V27" s="9">
-        <f t="shared" si="172"/>
-        <v>-0.15076717811874585</v>
-      </c>
-      <c r="W27" s="9">
-        <f t="shared" si="172"/>
-        <v>-1.6152716593245131E-2</v>
-      </c>
-      <c r="X27" s="9">
-        <f t="shared" si="172"/>
-        <v>4.5248868778280604E-2</v>
-      </c>
-      <c r="Y27" s="9">
-        <f t="shared" si="172"/>
-        <v>8.19032761310452E-2</v>
-      </c>
-      <c r="Z27" s="9">
-        <f t="shared" si="172"/>
-        <v>0.43047918303220745</v>
-      </c>
-      <c r="AA27" s="9">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AD27" s="9">
         <f t="shared" si="173"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AB27" s="9">
-        <f t="shared" si="174"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AC27" s="9">
-        <f t="shared" si="175"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AD27" s="9">
-        <f t="shared" si="176"/>
-        <v>0.14999999999999991</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9">
-        <f t="shared" ref="AG27:AR27" si="180">AG8/AF8-1</f>
+        <f t="shared" ref="AG27:AR27" si="177">AG8/AF8-1</f>
         <v>4.8007838014369586E-2</v>
       </c>
       <c r="AH27" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="177"/>
         <v>1.0863197257712685</v>
       </c>
       <c r="AI27" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="177"/>
         <v>-8.6482449589245669E-2</v>
       </c>
       <c r="AJ27" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="177"/>
         <v>-2.4852844996730017E-2</v>
       </c>
       <c r="AK27" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="177"/>
         <v>-0.12089201877934275</v>
       </c>
       <c r="AL27" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="177"/>
         <v>0.13179477398436013</v>
       </c>
       <c r="AM27" s="9">
-        <f t="shared" si="180"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="177"/>
+        <v>0.1506656555443211</v>
       </c>
       <c r="AN27" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="177"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="AO27" s="9">
+        <f t="shared" si="177"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AP27" s="9">
+        <f t="shared" si="177"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AQ27" s="9">
+        <f t="shared" si="177"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AO27" s="9">
-        <f t="shared" si="180"/>
+      <c r="AR27" s="9">
+        <f t="shared" si="177"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AP27" s="9">
-        <f t="shared" si="180"/>
+      <c r="AS27" s="9">
+        <f t="shared" si="175"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AQ27" s="9">
-        <f t="shared" si="180"/>
+      <c r="AT27" s="9">
+        <f t="shared" si="175"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AR27" s="9">
-        <f t="shared" si="180"/>
+      <c r="AU27" s="9">
+        <f t="shared" si="175"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AS27" s="9">
-        <f t="shared" si="178"/>
+      <c r="AV27" s="9">
+        <f t="shared" si="175"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AT27" s="9">
-        <f t="shared" si="178"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AU27" s="9">
-        <f t="shared" si="178"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AV27" s="9">
-        <f t="shared" si="178"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
       <c r="AW27" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="175"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AY27" t="s">
@@ -5668,7 +5660,7 @@
       </c>
       <c r="AZ27" s="5">
         <f>NPV(AZ26,AM18:FJ18)</f>
-        <v>75815.036683497878</v>
+        <v>84934.711500715945</v>
       </c>
     </row>
     <row r="28" spans="2:166" x14ac:dyDescent="0.3">
@@ -5676,183 +5668,183 @@
         <v>30</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" ref="D28:J28" si="181">D16/D15</f>
+        <f t="shared" ref="D28:J28" si="178">D16/D15</f>
         <v>-2.4005486968449924E-2</v>
       </c>
       <c r="E28" s="9">
+        <f t="shared" si="178"/>
+        <v>-1.4492753623188406E-2</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="178"/>
+        <v>-2.5096525096525105E-2</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="178"/>
+        <v>-5.019305019305019E-2</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="178"/>
+        <v>-8.2191780821917835E-3</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="178"/>
+        <v>9.8630772801113938E-3</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="178"/>
+        <v>4.8780487804878044E-2</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" ref="K28:N28" si="179">K16/K15</f>
+        <v>-2.574750830564785E-2</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="179"/>
+        <v>3.8383838383838409E-2</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="179"/>
+        <v>-1.3916500994035789E-2</v>
+      </c>
+      <c r="N28" s="9">
+        <f t="shared" si="179"/>
+        <v>-0.26785714285714274</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" ref="O28:Z28" si="180">O16/O15</f>
+        <v>-2.0120724346076462E-2</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="180"/>
+        <v>-1.4705882352941176E-2</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="180"/>
+        <v>-8.9576547231270329E-3</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="180"/>
+        <v>0.1160949868073879</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="180"/>
+        <v>8.095238095238079E-2</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" si="180"/>
+        <v>7.3089700996677706E-2</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="180"/>
+        <v>8.1148564294631645E-2</v>
+      </c>
+      <c r="V28" s="9">
+        <f t="shared" si="180"/>
+        <v>8.7570621468926593E-2</v>
+      </c>
+      <c r="W28" s="9">
+        <f t="shared" si="180"/>
+        <v>4.2457091237579035E-2</v>
+      </c>
+      <c r="X28" s="9">
+        <f t="shared" si="180"/>
+        <v>3.6958066808813091E-2</v>
+      </c>
+      <c r="Y28" s="9">
+        <f t="shared" si="180"/>
+        <v>4.9649904519414395E-2</v>
+      </c>
+      <c r="Z28" s="9">
+        <f t="shared" si="180"/>
+        <v>4.4665012406947882E-2</v>
+      </c>
+      <c r="AA28" s="9">
+        <f t="shared" ref="AA28:AD28" si="181">AA16/AA15</f>
+        <v>2.5078369905956119E-2</v>
+      </c>
+      <c r="AB28" s="9">
         <f t="shared" si="181"/>
-        <v>-1.4492753623188406E-2</v>
-      </c>
-      <c r="F28" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="AC28" s="9">
         <f t="shared" si="181"/>
-        <v>-2.5096525096525105E-2</v>
-      </c>
-      <c r="G28" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="AD28" s="9">
         <f t="shared" si="181"/>
-        <v>-5.019305019305019E-2</v>
-      </c>
-      <c r="H28" s="15">
-        <f t="shared" si="181"/>
-        <v>-8.2191780821917835E-3</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="181"/>
-        <v>9.8630772801113938E-3</v>
-      </c>
-      <c r="J28" s="9">
-        <f t="shared" si="181"/>
-        <v>4.8780487804878044E-2</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" ref="K28:N28" si="182">K16/K15</f>
-        <v>-2.574750830564785E-2</v>
-      </c>
-      <c r="L28" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="AF28" s="9">
+        <f t="shared" ref="AF28:AH28" si="182">AF16/AF15</f>
+        <v>-1.5939744263443686E-2</v>
+      </c>
+      <c r="AG28" s="9">
         <f t="shared" si="182"/>
-        <v>3.8383838383838409E-2</v>
-      </c>
-      <c r="M28" s="9">
+        <v>-2.1857923497267766E-2</v>
+      </c>
+      <c r="AH28" s="9">
         <f t="shared" si="182"/>
-        <v>-1.3916500994035789E-2</v>
-      </c>
-      <c r="N28" s="9">
-        <f t="shared" si="182"/>
-        <v>-0.26785714285714274</v>
-      </c>
-      <c r="O28" s="9">
-        <f t="shared" ref="O28:Z28" si="183">O16/O15</f>
-        <v>-2.0120724346076462E-2</v>
-      </c>
-      <c r="P28" s="9">
+        <v>1.0687929425735855E-2</v>
+      </c>
+      <c r="AI28" s="9">
+        <f t="shared" ref="AI28:AR28" si="183">AI16/AI15</f>
+        <v>-6.4542317840470903E-2</v>
+      </c>
+      <c r="AJ28" s="9">
         <f t="shared" si="183"/>
-        <v>-1.4705882352941176E-2</v>
-      </c>
-      <c r="Q28" s="9">
+        <v>-2.7970091387427315E-2</v>
+      </c>
+      <c r="AK28" s="9">
         <f t="shared" si="183"/>
-        <v>-8.9576547231270329E-3</v>
-      </c>
-      <c r="R28" s="9">
+        <v>8.2982308340353805E-2</v>
+      </c>
+      <c r="AL28" s="9">
         <f t="shared" si="183"/>
-        <v>0.1160949868073879</v>
-      </c>
-      <c r="S28" s="9">
+        <v>4.3549376405642999E-2</v>
+      </c>
+      <c r="AM28" s="9">
         <f t="shared" si="183"/>
-        <v>8.095238095238079E-2</v>
-      </c>
-      <c r="T28" s="9">
+        <v>3.6523806158500968E-2</v>
+      </c>
+      <c r="AN28" s="9">
         <f t="shared" si="183"/>
-        <v>7.3089700996677706E-2</v>
-      </c>
-      <c r="U28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AO28" s="9">
         <f t="shared" si="183"/>
-        <v>8.1148564294631645E-2</v>
-      </c>
-      <c r="V28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AP28" s="9">
         <f t="shared" si="183"/>
-        <v>8.7570621468926593E-2</v>
-      </c>
-      <c r="W28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AQ28" s="9">
         <f t="shared" si="183"/>
-        <v>4.2457091237579035E-2</v>
-      </c>
-      <c r="X28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AR28" s="9">
         <f t="shared" si="183"/>
-        <v>3.6958066808813091E-2</v>
-      </c>
-      <c r="Y28" s="9">
-        <f t="shared" si="183"/>
-        <v>4.9649904519414395E-2</v>
-      </c>
-      <c r="Z28" s="9">
-        <f t="shared" si="183"/>
-        <v>4.4665012406947882E-2</v>
-      </c>
-      <c r="AA28" s="9">
-        <f t="shared" ref="AA28:AD28" si="184">AA16/AA15</f>
-        <v>0.04</v>
-      </c>
-      <c r="AB28" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AS28" s="9">
+        <f t="shared" ref="AS28:AW28" si="184">AS16/AS15</f>
+        <v>0.15</v>
+      </c>
+      <c r="AT28" s="9">
         <f t="shared" si="184"/>
-        <v>0.04</v>
-      </c>
-      <c r="AC28" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AU28" s="9">
         <f t="shared" si="184"/>
-        <v>0.04</v>
-      </c>
-      <c r="AD28" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AV28" s="9">
         <f t="shared" si="184"/>
-        <v>0.04</v>
-      </c>
-      <c r="AF28" s="9">
-        <f t="shared" ref="AF28:AH28" si="185">AF16/AF15</f>
-        <v>-1.5939744263443686E-2</v>
-      </c>
-      <c r="AG28" s="9">
-        <f t="shared" si="185"/>
-        <v>-2.1857923497267766E-2</v>
-      </c>
-      <c r="AH28" s="9">
-        <f t="shared" si="185"/>
-        <v>1.0687929425735855E-2</v>
-      </c>
-      <c r="AI28" s="9">
-        <f t="shared" ref="AI28:AR28" si="186">AI16/AI15</f>
-        <v>-6.4542317840470903E-2</v>
-      </c>
-      <c r="AJ28" s="9">
-        <f t="shared" si="186"/>
-        <v>-2.7970091387427315E-2</v>
-      </c>
-      <c r="AK28" s="9">
-        <f t="shared" si="186"/>
-        <v>8.2982308340353805E-2</v>
-      </c>
-      <c r="AL28" s="9">
-        <f t="shared" si="186"/>
-        <v>4.3549376405642999E-2</v>
-      </c>
-      <c r="AM28" s="9">
-        <f t="shared" si="186"/>
-        <v>0.04</v>
-      </c>
-      <c r="AN28" s="9">
-        <f t="shared" si="186"/>
-        <v>0.1</v>
-      </c>
-      <c r="AO28" s="9">
-        <f t="shared" si="186"/>
-        <v>0.1</v>
-      </c>
-      <c r="AP28" s="9">
-        <f t="shared" si="186"/>
-        <v>0.1</v>
-      </c>
-      <c r="AQ28" s="9">
-        <f t="shared" si="186"/>
-        <v>0.1</v>
-      </c>
-      <c r="AR28" s="9">
-        <f t="shared" si="186"/>
         <v>0.15</v>
       </c>
-      <c r="AS28" s="9">
-        <f t="shared" ref="AS28:AW28" si="187">AS16/AS15</f>
-        <v>0.15</v>
-      </c>
-      <c r="AT28" s="9">
-        <f t="shared" si="187"/>
-        <v>0.15</v>
-      </c>
-      <c r="AU28" s="9">
-        <f t="shared" si="187"/>
-        <v>0.15</v>
-      </c>
-      <c r="AV28" s="9">
-        <f t="shared" si="187"/>
-        <v>0.15</v>
-      </c>
       <c r="AW28" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="184"/>
         <v>0.15</v>
       </c>
       <c r="AY28" t="s">
@@ -5897,19 +5889,19 @@
         <v>-2.6054590570719596E-2</v>
       </c>
       <c r="AA29" s="9">
-        <f t="shared" ref="AA29:AD29" si="188">AA17/AA15</f>
+        <f t="shared" ref="AA29:AD29" si="185">AA17/AA15</f>
+        <v>1.6569637259292436E-2</v>
+      </c>
+      <c r="AB29" s="9">
+        <f t="shared" si="185"/>
         <v>0.01</v>
       </c>
-      <c r="AB29" s="9">
-        <f t="shared" si="188"/>
+      <c r="AC29" s="9">
+        <f t="shared" si="185"/>
         <v>0.01</v>
       </c>
-      <c r="AC29" s="9">
-        <f t="shared" si="188"/>
-        <v>0.01</v>
-      </c>
       <c r="AD29" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="185"/>
         <v>0.01</v>
       </c>
       <c r="AF29" s="9"/>
@@ -5919,51 +5911,51 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
       <c r="AL29" s="9">
-        <f t="shared" ref="AL29:AW29" si="189">AL17/AL15</f>
+        <f t="shared" ref="AL29:AW29" si="186">AL17/AL15</f>
         <v>7.564915150276014E-3</v>
       </c>
       <c r="AM29" s="9">
-        <f t="shared" si="189"/>
-        <v>0.01</v>
+        <f t="shared" si="186"/>
+        <v>1.1530485103685201E-2</v>
       </c>
       <c r="AN29" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="AO29" s="9">
+        <f t="shared" si="186"/>
         <v>0.02</v>
       </c>
-      <c r="AO29" s="9">
-        <f t="shared" si="189"/>
+      <c r="AP29" s="9">
+        <f t="shared" si="186"/>
         <v>0.02</v>
       </c>
-      <c r="AP29" s="9">
-        <f t="shared" si="189"/>
-        <v>1.9999999999999997E-2</v>
-      </c>
       <c r="AQ29" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>0.02</v>
       </c>
       <c r="AR29" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>0.02</v>
       </c>
       <c r="AS29" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>0.02</v>
       </c>
       <c r="AT29" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>0.02</v>
       </c>
       <c r="AU29" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>0.02</v>
       </c>
       <c r="AV29" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>0.02</v>
       </c>
       <c r="AW29" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>0.02</v>
       </c>
       <c r="AY29" t="s">
@@ -5971,7 +5963,7 @@
       </c>
       <c r="AZ29" s="5">
         <f>AZ27+AZ28</f>
-        <v>81045.036683497878</v>
+        <v>90164.711500715945</v>
       </c>
     </row>
     <row r="30" spans="2:166" x14ac:dyDescent="0.3">
@@ -5980,191 +5972,191 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9">
-        <f t="shared" ref="D30:N30" si="190">D18/D3</f>
+        <f t="shared" ref="D30:N30" si="187">D18/D3</f>
         <v>-0.86450492182976291</v>
       </c>
       <c r="E30" s="9">
+        <f t="shared" si="187"/>
+        <v>-0.73490813648293962</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="187"/>
+        <v>-0.69442022667829095</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" ref="G30" si="188">G18/G3</f>
+        <v>-0.23724378543392935</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="187"/>
+        <v>-0.43826915442635955</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="187"/>
+        <v>-2.9485141672425712</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="187"/>
+        <v>-0.46010555728034774</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="187"/>
+        <v>-0.36195779601406786</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="187"/>
+        <v>-0.3801916932907346</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="187"/>
+        <v>-0.2601377199693955</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="187"/>
+        <v>-0.36082236082236097</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" ref="O30:Z30" si="189">O18/O3</f>
+        <v>-0.22715053763440857</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="189"/>
+        <v>-0.37928118393234672</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="189"/>
+        <v>-0.25925925925925936</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="189"/>
+        <v>6.5867086118757356E-2</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="189"/>
+        <v>3.6747905559786825E-2</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="189"/>
+        <v>5.2315769735608517E-2</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="189"/>
+        <v>0.13185238265854543</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" si="189"/>
+        <v>0.15927021696252461</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" si="189"/>
+        <v>0.16711335330285357</v>
+      </c>
+      <c r="X30" s="9">
+        <f t="shared" si="189"/>
+        <v>0.19982303495059719</v>
+      </c>
+      <c r="Y30" s="9">
+        <f t="shared" si="189"/>
+        <v>0.19779462439696752</v>
+      </c>
+      <c r="Z30" s="9">
+        <f t="shared" si="189"/>
+        <v>9.5589123867069511E-2</v>
+      </c>
+      <c r="AA30" s="9">
+        <f t="shared" ref="AA30:AD30" si="190">AA18/AA3</f>
+        <v>0.24210883584115844</v>
+      </c>
+      <c r="AB30" s="9">
         <f t="shared" si="190"/>
-        <v>-0.73490813648293962</v>
-      </c>
-      <c r="F30" s="9">
+        <v>0.26989052317964307</v>
+      </c>
+      <c r="AC30" s="9">
         <f t="shared" si="190"/>
-        <v>-0.69442022667829095</v>
-      </c>
-      <c r="G30" s="9">
-        <f t="shared" ref="G30" si="191">G18/G3</f>
-        <v>-0.23724378543392935</v>
-      </c>
-      <c r="H30" s="9">
+        <v>0.27634507491640509</v>
+      </c>
+      <c r="AD30" s="9">
         <f t="shared" si="190"/>
-        <v>-0.43826915442635955</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="190"/>
-        <v>-2.9485141672425712</v>
-      </c>
-      <c r="J30" s="9">
-        <f t="shared" si="190"/>
-        <v>-0.46010555728034774</v>
-      </c>
-      <c r="K30" s="9">
-        <f t="shared" si="190"/>
-        <v>-0.36195779601406786</v>
-      </c>
-      <c r="L30" s="9">
-        <f t="shared" si="190"/>
-        <v>-0.3801916932907346</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" si="190"/>
-        <v>-0.2601377199693955</v>
-      </c>
-      <c r="N30" s="9">
-        <f t="shared" si="190"/>
-        <v>-0.36082236082236097</v>
-      </c>
-      <c r="O30" s="9">
-        <f t="shared" ref="O30:Z30" si="192">O18/O3</f>
-        <v>-0.22715053763440857</v>
-      </c>
-      <c r="P30" s="9">
+        <v>0.16290192888682328</v>
+      </c>
+      <c r="AF30" s="9">
+        <f t="shared" ref="AF30:AS30" si="191">AF18/AF3</f>
+        <v>-0.97413503527040646</v>
+      </c>
+      <c r="AG30" s="9">
+        <f t="shared" si="191"/>
+        <v>-0.78063560463237247</v>
+      </c>
+      <c r="AH30" s="9">
+        <f t="shared" si="191"/>
+        <v>-1.0673560904182304</v>
+      </c>
+      <c r="AI30" s="9">
+        <f t="shared" si="191"/>
+        <v>-0.34018679465559715</v>
+      </c>
+      <c r="AJ30" s="9">
+        <f t="shared" si="191"/>
+        <v>-0.19476362873183264</v>
+      </c>
+      <c r="AK30" s="9">
+        <f t="shared" si="191"/>
+        <v>9.7838299402274106E-2</v>
+      </c>
+      <c r="AL30" s="9">
+        <f t="shared" si="191"/>
+        <v>0.16196691561387597</v>
+      </c>
+      <c r="AM30" s="9">
+        <f t="shared" si="191"/>
+        <v>0.23548213028984588</v>
+      </c>
+      <c r="AN30" s="9">
+        <f t="shared" si="191"/>
+        <v>0.27965813484259433</v>
+      </c>
+      <c r="AO30" s="9">
+        <f t="shared" si="191"/>
+        <v>0.34325288729758135</v>
+      </c>
+      <c r="AP30" s="9">
+        <f t="shared" si="191"/>
+        <v>0.40039611406182823</v>
+      </c>
+      <c r="AQ30" s="9">
+        <f t="shared" si="191"/>
+        <v>0.43935865792339063</v>
+      </c>
+      <c r="AR30" s="9">
+        <f t="shared" si="191"/>
+        <v>0.43826341560372667</v>
+      </c>
+      <c r="AS30" s="9">
+        <f t="shared" si="191"/>
+        <v>0.45765767765913207</v>
+      </c>
+      <c r="AT30" s="9">
+        <f t="shared" ref="AT30:AW30" si="192">AT18/AT3</f>
+        <v>0.46682069871142834</v>
+      </c>
+      <c r="AU30" s="9">
         <f t="shared" si="192"/>
-        <v>-0.37928118393234672</v>
-      </c>
-      <c r="Q30" s="9">
+        <v>0.4745714828842954</v>
+      </c>
+      <c r="AV30" s="9">
         <f t="shared" si="192"/>
-        <v>-0.25925925925925936</v>
-      </c>
-      <c r="R30" s="9">
+        <v>0.48191172088225603</v>
+      </c>
+      <c r="AW30" s="9">
         <f t="shared" si="192"/>
-        <v>6.5867086118757356E-2</v>
-      </c>
-      <c r="S30" s="9">
-        <f t="shared" si="192"/>
-        <v>3.6747905559786825E-2</v>
-      </c>
-      <c r="T30" s="9">
-        <f t="shared" si="192"/>
-        <v>5.2315769735608517E-2</v>
-      </c>
-      <c r="U30" s="9">
-        <f t="shared" si="192"/>
-        <v>0.13185238265854543</v>
-      </c>
-      <c r="V30" s="9">
-        <f t="shared" si="192"/>
-        <v>0.15927021696252461</v>
-      </c>
-      <c r="W30" s="9">
-        <f t="shared" si="192"/>
-        <v>0.16711335330285357</v>
-      </c>
-      <c r="X30" s="9">
-        <f t="shared" si="192"/>
-        <v>0.19982303495059719</v>
-      </c>
-      <c r="Y30" s="9">
-        <f t="shared" si="192"/>
-        <v>0.19779462439696752</v>
-      </c>
-      <c r="Z30" s="9">
-        <f t="shared" si="192"/>
-        <v>9.5589123867069511E-2</v>
-      </c>
-      <c r="AA30" s="9">
-        <f t="shared" ref="AA30:AD30" si="193">AA18/AA3</f>
-        <v>0.22826252787099394</v>
-      </c>
-      <c r="AB30" s="9">
-        <f t="shared" si="193"/>
-        <v>0.24486351570564821</v>
-      </c>
-      <c r="AC30" s="9">
-        <f t="shared" si="193"/>
-        <v>0.25734507491640501</v>
-      </c>
-      <c r="AD30" s="9">
-        <f t="shared" si="193"/>
-        <v>0.13778863583546375</v>
-      </c>
-      <c r="AF30" s="9">
-        <f t="shared" ref="AF30:AS30" si="194">AF18/AF3</f>
-        <v>-0.97413503527040646</v>
-      </c>
-      <c r="AG30" s="9">
-        <f t="shared" si="194"/>
-        <v>-0.78063560463237247</v>
-      </c>
-      <c r="AH30" s="9">
-        <f t="shared" si="194"/>
-        <v>-1.0673560904182304</v>
-      </c>
-      <c r="AI30" s="9">
-        <f t="shared" si="194"/>
-        <v>-0.34018679465559715</v>
-      </c>
-      <c r="AJ30" s="9">
-        <f t="shared" si="194"/>
-        <v>-0.19476362873183264</v>
-      </c>
-      <c r="AK30" s="9">
-        <f t="shared" si="194"/>
-        <v>9.7838299402274106E-2</v>
-      </c>
-      <c r="AL30" s="9">
-        <f t="shared" si="194"/>
-        <v>0.16196691561387597</v>
-      </c>
-      <c r="AM30" s="9">
-        <f t="shared" si="194"/>
-        <v>0.21462536496139406</v>
-      </c>
-      <c r="AN30" s="9">
-        <f t="shared" si="194"/>
-        <v>0.27485652511795006</v>
-      </c>
-      <c r="AO30" s="9">
-        <f t="shared" si="194"/>
-        <v>0.32344352236931739</v>
-      </c>
-      <c r="AP30" s="9">
-        <f t="shared" si="194"/>
-        <v>0.36287462932158171</v>
-      </c>
-      <c r="AQ30" s="9">
-        <f t="shared" si="194"/>
-        <v>0.39246801756140881</v>
-      </c>
-      <c r="AR30" s="9">
-        <f t="shared" si="194"/>
-        <v>0.39258737601203963</v>
-      </c>
-      <c r="AS30" s="9">
-        <f t="shared" si="194"/>
-        <v>0.40278930428768095</v>
-      </c>
-      <c r="AT30" s="9">
-        <f t="shared" ref="AT30:AW30" si="195">AT18/AT3</f>
-        <v>0.41132363406782158</v>
-      </c>
-      <c r="AU30" s="9">
-        <f t="shared" si="195"/>
-        <v>0.41867595638705174</v>
-      </c>
-      <c r="AV30" s="9">
-        <f t="shared" si="195"/>
-        <v>0.42573027144648851</v>
-      </c>
-      <c r="AW30" s="9">
-        <f t="shared" si="195"/>
-        <v>0.43272223136338123</v>
+        <v>0.48908448407229116</v>
       </c>
       <c r="AY30" t="s">
         <v>42</v>
       </c>
       <c r="AZ30" s="4">
         <f>AZ29/AR19</f>
-        <v>34.554889009762888</v>
+        <v>38.389198918855513</v>
       </c>
     </row>
     <row r="31" spans="2:166" x14ac:dyDescent="0.3">
@@ -6173,7 +6165,7 @@
       </c>
       <c r="AZ31" s="4">
         <f>Main!D3</f>
-        <v>83.6</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="32" spans="2:166" x14ac:dyDescent="0.3">
@@ -6182,19 +6174,39 @@
       </c>
       <c r="AZ32" s="10">
         <f>AZ30/AZ31-1</f>
-        <v>-0.58666400706025246</v>
+        <v>-0.65985115258855642</v>
       </c>
     </row>
     <row r="33" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="W33" s="8">
+        <f t="shared" ref="W33" si="193">W18</f>
+        <v>106.00000000000001</v>
+      </c>
+      <c r="AA33" s="8">
+        <f t="shared" ref="AA33:AD33" si="194">AA18</f>
+        <v>213.99999999999994</v>
+      </c>
+      <c r="AB33" s="8">
+        <f t="shared" si="194"/>
+        <v>252.557614</v>
+      </c>
+      <c r="AC33" s="8">
+        <f t="shared" si="194"/>
+        <v>270.65927500000009</v>
+      </c>
+      <c r="AD33" s="8">
+        <f t="shared" si="194"/>
+        <v>175.24175000000014</v>
+      </c>
       <c r="AJ33" s="8">
-        <f t="shared" ref="AJ33:AK33" si="196">AJ18</f>
+        <f t="shared" ref="AJ33:AK33" si="195">AJ18</f>
         <v>-371.19999999999987</v>
       </c>
       <c r="AK33" s="8">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>217.7000000000001</v>
       </c>
       <c r="AL33" s="8">
@@ -6202,48 +6214,48 @@
         <v>464.10000000000019</v>
       </c>
       <c r="AM33" s="8">
-        <f t="shared" ref="AM33:AW33" si="197">AM18</f>
-        <v>835.43674499999997</v>
+        <f t="shared" ref="AM33:AW33" si="196">AM18</f>
+        <v>912.45863900000018</v>
       </c>
       <c r="AN33" s="8">
-        <f t="shared" si="197"/>
-        <v>1390.8552371999997</v>
+        <f t="shared" si="196"/>
+        <v>1408.7244116000004</v>
       </c>
       <c r="AO33" s="8">
-        <f t="shared" si="197"/>
-        <v>2078.6341469519998</v>
+        <f t="shared" si="196"/>
+        <v>2195.9199466512005</v>
       </c>
       <c r="AP33" s="8">
-        <f t="shared" si="197"/>
-        <v>2891.7309941960007</v>
+        <f t="shared" si="196"/>
+        <v>3176.2438977184956</v>
       </c>
       <c r="AQ33" s="8">
-        <f t="shared" si="197"/>
-        <v>3690.5200030849214</v>
+        <f t="shared" si="196"/>
+        <v>4112.6825271578182</v>
       </c>
       <c r="AR33" s="8">
-        <f t="shared" si="197"/>
-        <v>4208.4723065388735</v>
+        <f t="shared" si="196"/>
+        <v>4676.7705960051189</v>
       </c>
       <c r="AS33" s="8">
-        <f t="shared" si="197"/>
-        <v>4749.6188355635204</v>
+        <f t="shared" si="196"/>
+        <v>5372.1024458775737</v>
       </c>
       <c r="AT33" s="8">
-        <f t="shared" si="197"/>
-        <v>5238.2744422738879</v>
+        <f t="shared" si="196"/>
+        <v>5918.0331477754107</v>
       </c>
       <c r="AU33" s="8">
-        <f t="shared" si="197"/>
-        <v>5651.821930732448</v>
+        <f t="shared" si="196"/>
+        <v>6377.2698188354798</v>
       </c>
       <c r="AV33" s="8">
-        <f t="shared" si="197"/>
-        <v>6034.4025741932337</v>
+        <f t="shared" si="196"/>
+        <v>6799.7029803801133</v>
       </c>
       <c r="AW33" s="8">
-        <f t="shared" si="197"/>
-        <v>6378.8486158075857</v>
+        <f t="shared" si="196"/>
+        <v>7176.9459905069034</v>
       </c>
       <c r="AY33" t="s">
         <v>45</v>
@@ -6256,6 +6268,24 @@
       <c r="B34" t="s">
         <v>74</v>
       </c>
+      <c r="W34" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="AB34" s="5">
+        <f>AA34*1.05</f>
+        <v>6.93</v>
+      </c>
+      <c r="AC34" s="5">
+        <f t="shared" ref="AC34:AD34" si="197">AB34*1.05</f>
+        <v>7.2765000000000004</v>
+      </c>
+      <c r="AD34" s="5">
+        <f t="shared" si="197"/>
+        <v>7.6403250000000007</v>
+      </c>
       <c r="AJ34" s="5">
         <v>22.5</v>
       </c>
@@ -6266,54 +6296,72 @@
         <v>31.6</v>
       </c>
       <c r="AM34" s="5">
-        <f>AL34*1.05</f>
-        <v>33.18</v>
+        <f>SUM(AA34:AD34)</f>
+        <v>28.446825</v>
       </c>
       <c r="AN34" s="5">
         <f t="shared" ref="AN34:AW34" si="198">AM34*1.05</f>
-        <v>34.838999999999999</v>
+        <v>29.869166250000003</v>
       </c>
       <c r="AO34" s="5">
         <f t="shared" si="198"/>
-        <v>36.580950000000001</v>
+        <v>31.362624562500006</v>
       </c>
       <c r="AP34" s="5">
         <f t="shared" si="198"/>
-        <v>38.409997500000003</v>
+        <v>32.930755790625007</v>
       </c>
       <c r="AQ34" s="5">
         <f t="shared" si="198"/>
-        <v>40.330497375000007</v>
+        <v>34.577293580156258</v>
       </c>
       <c r="AR34" s="5">
         <f t="shared" si="198"/>
-        <v>42.347022243750011</v>
+        <v>36.306158259164071</v>
       </c>
       <c r="AS34" s="5">
         <f t="shared" si="198"/>
-        <v>44.464373355937511</v>
+        <v>38.121466172122275</v>
       </c>
       <c r="AT34" s="5">
         <f t="shared" si="198"/>
-        <v>46.687592023734389</v>
+        <v>40.027539480728393</v>
       </c>
       <c r="AU34" s="5">
         <f t="shared" si="198"/>
-        <v>49.021971624921107</v>
+        <v>42.028916454764811</v>
       </c>
       <c r="AV34" s="5">
         <f t="shared" si="198"/>
-        <v>51.473070206167165</v>
+        <v>44.130362277503053</v>
       </c>
       <c r="AW34" s="5">
         <f t="shared" si="198"/>
-        <v>54.046723716475526</v>
+        <v>46.336880391378209</v>
       </c>
     </row>
     <row r="35" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>75</v>
       </c>
+      <c r="W35" s="5">
+        <v>125.7</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="AB35" s="5">
+        <f>AA35*1.1</f>
+        <v>170.83</v>
+      </c>
+      <c r="AC35" s="5">
+        <f t="shared" ref="AC35:AD35" si="199">AB35*1.1</f>
+        <v>187.91300000000004</v>
+      </c>
+      <c r="AD35" s="5">
+        <f t="shared" si="199"/>
+        <v>206.70430000000005</v>
+      </c>
       <c r="AJ35" s="5">
         <v>564.79999999999995</v>
       </c>
@@ -6324,54 +6372,69 @@
         <v>691.6</v>
       </c>
       <c r="AM35" s="5">
-        <f>AL35*1.1</f>
-        <v>760.7600000000001</v>
+        <f t="shared" ref="AM35:AM50" si="200">SUM(AA35:AD35)</f>
+        <v>720.7473</v>
       </c>
       <c r="AN35" s="5">
-        <f t="shared" ref="AN35:AQ35" si="199">AM35*1.1</f>
-        <v>836.83600000000013</v>
+        <f>AM35*1.07</f>
+        <v>771.199611</v>
       </c>
       <c r="AO35" s="5">
-        <f t="shared" si="199"/>
-        <v>920.5196000000002</v>
+        <f>AN35*1.05</f>
+        <v>809.7595915500001</v>
       </c>
       <c r="AP35" s="5">
-        <f t="shared" si="199"/>
-        <v>1012.5715600000003</v>
+        <f>AO35*1.03</f>
+        <v>834.05237929650013</v>
       </c>
       <c r="AQ35" s="5">
-        <f t="shared" si="199"/>
-        <v>1113.8287160000004</v>
+        <f>AP35*1.02</f>
+        <v>850.73342688243019</v>
       </c>
       <c r="AR35" s="5">
-        <f t="shared" ref="AR35:AW35" si="200">AQ35*1.05</f>
-        <v>1169.5201518000006</v>
+        <f t="shared" ref="AR35:AW35" si="201">AQ35*1.02</f>
+        <v>867.74809542007881</v>
       </c>
       <c r="AS35" s="5">
-        <f t="shared" si="200"/>
-        <v>1227.9961593900007</v>
+        <f t="shared" si="201"/>
+        <v>885.10305732848042</v>
       </c>
       <c r="AT35" s="5">
-        <f t="shared" si="200"/>
-        <v>1289.3959673595007</v>
+        <f t="shared" si="201"/>
+        <v>902.80511847504999</v>
       </c>
       <c r="AU35" s="5">
-        <f t="shared" si="200"/>
-        <v>1353.8657657274757</v>
+        <f t="shared" si="201"/>
+        <v>920.86122084455099</v>
       </c>
       <c r="AV35" s="5">
-        <f t="shared" si="200"/>
-        <v>1421.5590540138496</v>
+        <f t="shared" si="201"/>
+        <v>939.27844526144202</v>
       </c>
       <c r="AW35" s="5">
-        <f t="shared" si="200"/>
-        <v>1492.6370067145422</v>
+        <f t="shared" si="201"/>
+        <v>958.06401416667086</v>
       </c>
     </row>
     <row r="36" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>76</v>
       </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ36" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -6382,54 +6445,69 @@
         <v>41.2</v>
       </c>
       <c r="AM36" s="5">
-        <f>AL36*1.05</f>
-        <v>43.260000000000005</v>
+        <f t="shared" si="200"/>
+        <v>0</v>
       </c>
       <c r="AN36" s="5">
-        <f t="shared" ref="AN36:AW36" si="201">AM36*1.05</f>
-        <v>45.423000000000009</v>
+        <f t="shared" ref="AN36:AW36" si="202">AM36*1.05</f>
+        <v>0</v>
       </c>
       <c r="AO36" s="5">
-        <f t="shared" si="201"/>
-        <v>47.694150000000015</v>
+        <f t="shared" si="202"/>
+        <v>0</v>
       </c>
       <c r="AP36" s="5">
-        <f t="shared" si="201"/>
-        <v>50.078857500000019</v>
+        <f t="shared" si="202"/>
+        <v>0</v>
       </c>
       <c r="AQ36" s="5">
-        <f t="shared" si="201"/>
-        <v>52.582800375000019</v>
+        <f t="shared" si="202"/>
+        <v>0</v>
       </c>
       <c r="AR36" s="5">
-        <f t="shared" si="201"/>
-        <v>55.211940393750019</v>
+        <f t="shared" si="202"/>
+        <v>0</v>
       </c>
       <c r="AS36" s="5">
-        <f t="shared" si="201"/>
-        <v>57.972537413437522</v>
+        <f t="shared" si="202"/>
+        <v>0</v>
       </c>
       <c r="AT36" s="5">
-        <f t="shared" si="201"/>
-        <v>60.871164284109398</v>
+        <f t="shared" si="202"/>
+        <v>0</v>
       </c>
       <c r="AU36" s="5">
-        <f t="shared" si="201"/>
-        <v>63.914722498314873</v>
+        <f t="shared" si="202"/>
+        <v>0</v>
       </c>
       <c r="AV36" s="5">
-        <f t="shared" si="201"/>
-        <v>67.110458623230613</v>
+        <f t="shared" si="202"/>
+        <v>0</v>
       </c>
       <c r="AW36" s="5">
-        <f t="shared" si="201"/>
-        <v>70.465981554392144</v>
+        <f t="shared" si="202"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>77</v>
       </c>
+      <c r="W37" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>11</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>11</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>11</v>
+      </c>
       <c r="AJ37" s="5">
         <v>272.10000000000002</v>
       </c>
@@ -6440,7 +6518,8 @@
         <v>19.3</v>
       </c>
       <c r="AM37" s="5">
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>43.7</v>
       </c>
       <c r="AN37" s="5">
         <v>0</v>
@@ -6477,6 +6556,24 @@
       <c r="B38" t="s">
         <v>78</v>
       </c>
+      <c r="W38" s="5">
+        <v>-11.9</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>-15.5</v>
+      </c>
+      <c r="AB38" s="5">
+        <f>AA38*1.03</f>
+        <v>-15.965</v>
+      </c>
+      <c r="AC38" s="5">
+        <f t="shared" ref="AC38:AD38" si="203">AB38*1.03</f>
+        <v>-16.443950000000001</v>
+      </c>
+      <c r="AD38" s="5">
+        <f t="shared" si="203"/>
+        <v>-16.937268500000002</v>
+      </c>
       <c r="AJ38" s="5">
         <v>-15.5</v>
       </c>
@@ -6487,54 +6584,69 @@
         <v>-52.5</v>
       </c>
       <c r="AM38" s="5">
-        <f>AL38*1.05</f>
-        <v>-55.125</v>
+        <f t="shared" si="200"/>
+        <v>-64.846218500000006</v>
       </c>
       <c r="AN38" s="5">
-        <f t="shared" ref="AN38:AW38" si="202">AM38*1.05</f>
-        <v>-57.881250000000001</v>
+        <f t="shared" ref="AN38:AW38" si="204">AM38*1.05</f>
+        <v>-68.088529425000004</v>
       </c>
       <c r="AO38" s="5">
-        <f t="shared" si="202"/>
-        <v>-60.775312500000005</v>
+        <f t="shared" si="204"/>
+        <v>-71.49295589625001</v>
       </c>
       <c r="AP38" s="5">
-        <f t="shared" si="202"/>
-        <v>-63.814078125000009</v>
+        <f t="shared" si="204"/>
+        <v>-75.067603691062516</v>
       </c>
       <c r="AQ38" s="5">
-        <f t="shared" si="202"/>
-        <v>-67.004782031250016</v>
+        <f t="shared" si="204"/>
+        <v>-78.820983875615639</v>
       </c>
       <c r="AR38" s="5">
-        <f t="shared" si="202"/>
-        <v>-70.355021132812524</v>
+        <f t="shared" si="204"/>
+        <v>-82.762033069396423</v>
       </c>
       <c r="AS38" s="5">
-        <f t="shared" si="202"/>
-        <v>-73.872772189453158</v>
+        <f t="shared" si="204"/>
+        <v>-86.900134722866255</v>
       </c>
       <c r="AT38" s="5">
-        <f t="shared" si="202"/>
-        <v>-77.566410798925816</v>
+        <f t="shared" si="204"/>
+        <v>-91.245141459009574</v>
       </c>
       <c r="AU38" s="5">
-        <f t="shared" si="202"/>
-        <v>-81.444731338872103</v>
+        <f t="shared" si="204"/>
+        <v>-95.807398531960061</v>
       </c>
       <c r="AV38" s="5">
-        <f t="shared" si="202"/>
-        <v>-85.516967905815719</v>
+        <f t="shared" si="204"/>
+        <v>-100.59776845855806</v>
       </c>
       <c r="AW38" s="5">
-        <f t="shared" si="202"/>
-        <v>-89.792816301106512</v>
+        <f t="shared" si="204"/>
+        <v>-105.62765688148598</v>
       </c>
     </row>
     <row r="39" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>79</v>
       </c>
+      <c r="W39" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ39" s="5">
         <v>-28.2</v>
       </c>
@@ -6545,7 +6657,8 @@
         <v>24.8</v>
       </c>
       <c r="AM39" s="5">
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>3.5</v>
       </c>
       <c r="AN39" s="5">
         <v>0</v>
@@ -6582,6 +6695,21 @@
       <c r="B40" t="s">
         <v>80</v>
       </c>
+      <c r="W40" s="5">
+        <v>-121.9</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>-135</v>
+      </c>
+      <c r="AB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ40" s="5">
         <v>-72.8</v>
       </c>
@@ -6592,7 +6720,8 @@
         <v>-211.2</v>
       </c>
       <c r="AM40" s="5">
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>-135</v>
       </c>
       <c r="AN40" s="5">
         <v>0</v>
@@ -6629,6 +6758,17 @@
       <c r="B41" t="s">
         <v>81</v>
       </c>
+      <c r="W41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ41" s="5">
         <v>-24.8</v>
       </c>
@@ -6639,6 +6779,7 @@
         <v>7.2</v>
       </c>
       <c r="AM41" s="5">
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AN41" s="5">
@@ -6676,6 +6817,21 @@
       <c r="B42" t="s">
         <v>82</v>
       </c>
+      <c r="W42" s="5">
+        <v>22.9</v>
+      </c>
+      <c r="AA42" s="5">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AB42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ42" s="5">
         <v>6</v>
       </c>
@@ -6686,7 +6842,8 @@
         <v>4.7</v>
       </c>
       <c r="AM42" s="5">
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>40.700000000000003</v>
       </c>
       <c r="AN42" s="5">
         <v>0</v>
@@ -6723,6 +6880,21 @@
       <c r="B43" t="s">
         <v>83</v>
       </c>
+      <c r="W43" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ43" s="5">
         <v>-29.9</v>
       </c>
@@ -6733,7 +6905,8 @@
         <v>-18.8</v>
       </c>
       <c r="AM43" s="5">
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>22.4</v>
       </c>
       <c r="AN43" s="5">
         <v>0</v>
@@ -6770,6 +6943,17 @@
       <c r="B44" t="s">
         <v>84</v>
       </c>
+      <c r="W44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ44" s="5">
         <v>5.5</v>
       </c>
@@ -6780,6 +6964,7 @@
         <v>115.6</v>
       </c>
       <c r="AM44" s="5">
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AN44" s="5">
@@ -6817,6 +7002,21 @@
       <c r="B45" t="s">
         <v>85</v>
       </c>
+      <c r="W45" s="5">
+        <v>-6.8</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ45" s="5">
         <v>-61.2</v>
       </c>
@@ -6827,7 +7027,8 @@
         <v>22.4</v>
       </c>
       <c r="AM45" s="5">
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>18.8</v>
       </c>
       <c r="AN45" s="5">
         <v>0</v>
@@ -6864,6 +7065,17 @@
       <c r="B46" t="s">
         <v>86</v>
       </c>
+      <c r="W46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ46" s="5">
         <v>-49.5</v>
       </c>
@@ -6874,6 +7086,7 @@
         <v>54.4</v>
       </c>
       <c r="AM46" s="5">
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AN46" s="5">
@@ -6911,6 +7124,17 @@
       <c r="B47" t="s">
         <v>76</v>
       </c>
+      <c r="W47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ47" s="5">
         <v>-34.6</v>
       </c>
@@ -6921,6 +7145,7 @@
         <v>-49</v>
       </c>
       <c r="AM47" s="5">
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AN47" s="5">
@@ -6958,6 +7183,21 @@
       <c r="B48" t="s">
         <v>87</v>
       </c>
+      <c r="W48" s="5">
+        <v>-15.5</v>
+      </c>
+      <c r="AA48" s="5">
+        <v>-13.2</v>
+      </c>
+      <c r="AB48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ48" s="5">
         <v>-0.1</v>
       </c>
@@ -6968,7 +7208,8 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AM48" s="5">
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>-13.2</v>
       </c>
       <c r="AN48" s="5">
         <v>0</v>
@@ -7005,6 +7246,26 @@
       <c r="B49" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="W49" s="8">
+        <f>W33+SUM(W34:W48)</f>
+        <v>129.6</v>
+      </c>
+      <c r="AA49" s="8">
+        <f>AA33+SUM(AA34:AA48)</f>
+        <v>308.29999999999995</v>
+      </c>
+      <c r="AB49" s="8">
+        <f>AB33+SUM(AB34:AB48)</f>
+        <v>425.35261400000002</v>
+      </c>
+      <c r="AC49" s="8">
+        <f t="shared" ref="AC49:AD49" si="205">AC33+SUM(AC34:AC48)</f>
+        <v>460.40482500000013</v>
+      </c>
+      <c r="AD49" s="8">
+        <f t="shared" si="205"/>
+        <v>383.64910650000019</v>
+      </c>
       <c r="AJ49" s="8">
         <f>AJ33+SUM(AJ34:AJ48)</f>
         <v>223.40000000000003</v>
@@ -7018,54 +7279,72 @@
         <v>1150.0000000000002</v>
       </c>
       <c r="AM49" s="8">
-        <f t="shared" ref="AM49:AW49" si="203">AM33+SUM(AM34:AM48)</f>
-        <v>1617.511745</v>
+        <f t="shared" ref="AM49:AW49" si="206">AM33+SUM(AM34:AM48)</f>
+        <v>1577.7065455000002</v>
       </c>
       <c r="AN49" s="8">
-        <f t="shared" si="203"/>
-        <v>2250.0719872</v>
+        <f t="shared" si="206"/>
+        <v>2141.7046594250005</v>
       </c>
       <c r="AO49" s="8">
-        <f t="shared" si="203"/>
-        <v>3022.6535344519998</v>
+        <f t="shared" si="206"/>
+        <v>2965.5492068674507</v>
       </c>
       <c r="AP49" s="8">
-        <f t="shared" si="203"/>
-        <v>3928.9773310710007</v>
+        <f t="shared" si="206"/>
+        <v>3968.1594291145584</v>
       </c>
       <c r="AQ49" s="8">
-        <f t="shared" si="203"/>
-        <v>4830.257234803672</v>
+        <f t="shared" si="206"/>
+        <v>4919.1722637447892</v>
       </c>
       <c r="AR49" s="8">
-        <f t="shared" si="203"/>
-        <v>5405.1963998435613</v>
+        <f t="shared" si="206"/>
+        <v>5498.0628166149654</v>
       </c>
       <c r="AS49" s="8">
-        <f t="shared" si="203"/>
-        <v>6006.1791335334428</v>
+        <f t="shared" si="206"/>
+        <v>6208.4268346553099</v>
       </c>
       <c r="AT49" s="8">
-        <f t="shared" si="203"/>
-        <v>6557.6627551423062</v>
+        <f t="shared" si="206"/>
+        <v>6769.6206642721791</v>
       </c>
       <c r="AU49" s="8">
-        <f t="shared" si="203"/>
-        <v>7037.1796592442879</v>
+        <f t="shared" si="206"/>
+        <v>7244.3525576028351</v>
       </c>
       <c r="AV49" s="8">
-        <f t="shared" si="203"/>
-        <v>7489.0281891306659</v>
+        <f t="shared" si="206"/>
+        <v>7682.5140194605001</v>
       </c>
       <c r="AW49" s="8">
-        <f t="shared" si="203"/>
-        <v>7906.2055114918894</v>
+        <f t="shared" si="206"/>
+        <v>8075.7192281834668</v>
       </c>
     </row>
     <row r="50" spans="2:141" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>89</v>
       </c>
+      <c r="W50" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="AB50" s="5">
+        <f>AA50*1.05</f>
+        <v>6.5100000000000007</v>
+      </c>
+      <c r="AC50" s="5">
+        <f t="shared" ref="AC50:AD50" si="207">AB50*1.05</f>
+        <v>6.8355000000000006</v>
+      </c>
+      <c r="AD50" s="5">
+        <f t="shared" si="207"/>
+        <v>7.1772750000000007</v>
+      </c>
       <c r="AJ50" s="5">
         <v>40</v>
       </c>
@@ -7077,54 +7356,74 @@
         <v>12.6</v>
       </c>
       <c r="AM50" s="5">
-        <f t="shared" ref="AM50:AW50" si="204">12.6</f>
-        <v>12.6</v>
+        <f t="shared" si="200"/>
+        <v>26.722775000000002</v>
       </c>
       <c r="AN50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f>AM50*1.15</f>
+        <v>30.731191249999998</v>
       </c>
       <c r="AO50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f t="shared" ref="AO50:AW50" si="208">AN50*1.15</f>
+        <v>35.340869937499996</v>
       </c>
       <c r="AP50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f t="shared" si="208"/>
+        <v>40.642000428124994</v>
       </c>
       <c r="AQ50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f t="shared" si="208"/>
+        <v>46.73830049234374</v>
       </c>
       <c r="AR50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f t="shared" si="208"/>
+        <v>53.749045566195299</v>
       </c>
       <c r="AS50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f t="shared" si="208"/>
+        <v>61.811402401124589</v>
       </c>
       <c r="AT50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f t="shared" si="208"/>
+        <v>71.083112761293265</v>
       </c>
       <c r="AU50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f t="shared" si="208"/>
+        <v>81.745579675487249</v>
       </c>
       <c r="AV50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f t="shared" si="208"/>
+        <v>94.007416626810326</v>
       </c>
       <c r="AW50" s="5">
-        <f t="shared" si="204"/>
-        <v>12.6</v>
+        <f t="shared" si="208"/>
+        <v>108.10852912083186</v>
       </c>
     </row>
     <row r="51" spans="2:141" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="W51" s="8">
+        <f>W49-W50</f>
+        <v>126.89999999999999</v>
+      </c>
+      <c r="AA51" s="8">
+        <f>AA49-AA50</f>
+        <v>302.09999999999997</v>
+      </c>
+      <c r="AB51" s="8">
+        <f>AB49-AB50</f>
+        <v>418.84261400000003</v>
+      </c>
+      <c r="AC51" s="8">
+        <f t="shared" ref="AC51:AD51" si="209">AC49-AC50</f>
+        <v>453.56932500000011</v>
+      </c>
+      <c r="AD51" s="8">
+        <f t="shared" si="209"/>
+        <v>376.47183150000018</v>
+      </c>
       <c r="AJ51" s="8">
         <f>AJ49-AJ50</f>
         <v>183.40000000000003</v>
@@ -7138,422 +7437,422 @@
         <v>1137.4000000000003</v>
       </c>
       <c r="AM51" s="8">
-        <f t="shared" ref="AM51:AW51" si="205">AM49-AM50</f>
-        <v>1604.9117450000001</v>
+        <f t="shared" ref="AM51:AW51" si="210">AM49-AM50</f>
+        <v>1550.9837705000002</v>
       </c>
       <c r="AN51" s="8">
-        <f t="shared" si="205"/>
-        <v>2237.4719872000001</v>
+        <f t="shared" si="210"/>
+        <v>2110.9734681750006</v>
       </c>
       <c r="AO51" s="8">
-        <f t="shared" si="205"/>
-        <v>3010.0535344519999</v>
+        <f t="shared" si="210"/>
+        <v>2930.2083369299507</v>
       </c>
       <c r="AP51" s="8">
-        <f t="shared" si="205"/>
-        <v>3916.3773310710008</v>
+        <f t="shared" si="210"/>
+        <v>3927.5174286864335</v>
       </c>
       <c r="AQ51" s="8">
-        <f t="shared" si="205"/>
-        <v>4817.6572348036716</v>
+        <f t="shared" si="210"/>
+        <v>4872.4339632524452</v>
       </c>
       <c r="AR51" s="8">
-        <f t="shared" si="205"/>
-        <v>5392.5963998435609</v>
+        <f t="shared" si="210"/>
+        <v>5444.3137710487699</v>
       </c>
       <c r="AS51" s="8">
-        <f t="shared" si="205"/>
-        <v>5993.5791335334425</v>
+        <f t="shared" si="210"/>
+        <v>6146.6154322541852</v>
       </c>
       <c r="AT51" s="8">
-        <f t="shared" si="205"/>
-        <v>6545.0627551423058</v>
+        <f t="shared" si="210"/>
+        <v>6698.5375515108854</v>
       </c>
       <c r="AU51" s="8">
-        <f t="shared" si="205"/>
-        <v>7024.5796592442875</v>
+        <f t="shared" si="210"/>
+        <v>7162.6069779273475</v>
       </c>
       <c r="AV51" s="8">
-        <f t="shared" si="205"/>
-        <v>7476.4281891306655</v>
+        <f t="shared" si="210"/>
+        <v>7588.5066028336896</v>
       </c>
       <c r="AW51" s="8">
-        <f t="shared" si="205"/>
-        <v>7893.605511491889</v>
+        <f t="shared" si="210"/>
+        <v>7967.6106990626349</v>
       </c>
       <c r="AX51" s="1">
         <f>AW51*(1+$AZ$25)</f>
-        <v>7814.6694563769697</v>
+        <v>7887.9345920720089</v>
       </c>
       <c r="AY51" s="1">
-        <f t="shared" ref="AY51:DJ51" si="206">AX51*(1+$AZ$25)</f>
-        <v>7736.5227618132003</v>
+        <f t="shared" ref="AY51:DJ51" si="211">AX51*(1+$AZ$25)</f>
+        <v>7809.0552461512889</v>
       </c>
       <c r="AZ51" s="1">
-        <f t="shared" si="206"/>
-        <v>7659.1575341950684</v>
+        <f t="shared" si="211"/>
+        <v>7730.9646936897761</v>
       </c>
       <c r="BA51" s="1">
-        <f t="shared" si="206"/>
-        <v>7582.565958853118</v>
+        <f t="shared" si="211"/>
+        <v>7653.6550467528787</v>
       </c>
       <c r="BB51" s="1">
-        <f t="shared" si="206"/>
-        <v>7506.7402992645866</v>
+        <f t="shared" si="211"/>
+        <v>7577.1184962853495</v>
       </c>
       <c r="BC51" s="1">
-        <f t="shared" si="206"/>
-        <v>7431.6728962719408</v>
+        <f t="shared" si="211"/>
+        <v>7501.3473113224964</v>
       </c>
       <c r="BD51" s="1">
-        <f t="shared" si="206"/>
-        <v>7357.3561673092217</v>
+        <f t="shared" si="211"/>
+        <v>7426.3338382092716</v>
       </c>
       <c r="BE51" s="1">
-        <f t="shared" si="206"/>
-        <v>7283.7826056361291</v>
+        <f t="shared" si="211"/>
+        <v>7352.0704998271785</v>
       </c>
       <c r="BF51" s="1">
-        <f t="shared" si="206"/>
-        <v>7210.9447795797678</v>
+        <f t="shared" si="211"/>
+        <v>7278.5497948289067</v>
       </c>
       <c r="BG51" s="1">
-        <f t="shared" si="206"/>
-        <v>7138.8353317839701</v>
+        <f t="shared" si="211"/>
+        <v>7205.7642968806176</v>
       </c>
       <c r="BH51" s="1">
-        <f t="shared" si="206"/>
-        <v>7067.4469784661305</v>
+        <f t="shared" si="211"/>
+        <v>7133.7066539118114</v>
       </c>
       <c r="BI51" s="1">
-        <f t="shared" si="206"/>
-        <v>6996.7725086814689</v>
+        <f t="shared" si="211"/>
+        <v>7062.3695873726929</v>
       </c>
       <c r="BJ51" s="1">
-        <f t="shared" si="206"/>
-        <v>6926.8047835946545</v>
+        <f t="shared" si="211"/>
+        <v>6991.7458914989656</v>
       </c>
       <c r="BK51" s="1">
-        <f t="shared" si="206"/>
-        <v>6857.5367357587083</v>
+        <f t="shared" si="211"/>
+        <v>6921.8284325839759</v>
       </c>
       <c r="BL51" s="1">
-        <f t="shared" si="206"/>
-        <v>6788.961368401121</v>
+        <f t="shared" si="211"/>
+        <v>6852.6101482581362</v>
       </c>
       <c r="BM51" s="1">
-        <f t="shared" si="206"/>
-        <v>6721.0717547171098</v>
+        <f t="shared" si="211"/>
+        <v>6784.0840467755552</v>
       </c>
       <c r="BN51" s="1">
-        <f t="shared" si="206"/>
-        <v>6653.8610371699388</v>
+        <f t="shared" si="211"/>
+        <v>6716.2432063077995</v>
       </c>
       <c r="BO51" s="1">
-        <f t="shared" si="206"/>
-        <v>6587.3224267982396</v>
+        <f t="shared" si="211"/>
+        <v>6649.0807742447214</v>
       </c>
       <c r="BP51" s="1">
-        <f t="shared" si="206"/>
-        <v>6521.449202530257</v>
+        <f t="shared" si="211"/>
+        <v>6582.5899665022744</v>
       </c>
       <c r="BQ51" s="1">
-        <f t="shared" si="206"/>
-        <v>6456.2347105049548</v>
+        <f t="shared" si="211"/>
+        <v>6516.7640668372514</v>
       </c>
       <c r="BR51" s="1">
-        <f t="shared" si="206"/>
-        <v>6391.6723633999054</v>
+        <f t="shared" si="211"/>
+        <v>6451.5964261688787</v>
       </c>
       <c r="BS51" s="1">
-        <f t="shared" si="206"/>
-        <v>6327.7556397659064</v>
+        <f t="shared" si="211"/>
+        <v>6387.0804619071896</v>
       </c>
       <c r="BT51" s="1">
-        <f t="shared" si="206"/>
-        <v>6264.4780833682471</v>
+        <f t="shared" si="211"/>
+        <v>6323.2096572881173</v>
       </c>
       <c r="BU51" s="1">
-        <f t="shared" si="206"/>
-        <v>6201.8333025345646</v>
+        <f t="shared" si="211"/>
+        <v>6259.977560715236</v>
       </c>
       <c r="BV51" s="1">
-        <f t="shared" si="206"/>
-        <v>6139.8149695092188</v>
+        <f t="shared" si="211"/>
+        <v>6197.377785108084</v>
       </c>
       <c r="BW51" s="1">
-        <f t="shared" si="206"/>
-        <v>6078.4168198141269</v>
+        <f t="shared" si="211"/>
+        <v>6135.4040072570033</v>
       </c>
       <c r="BX51" s="1">
-        <f t="shared" si="206"/>
-        <v>6017.6326516159852</v>
+        <f t="shared" si="211"/>
+        <v>6074.0499671844336</v>
       </c>
       <c r="BY51" s="1">
-        <f t="shared" si="206"/>
-        <v>5957.4563250998253</v>
+        <f t="shared" si="211"/>
+        <v>6013.3094675125894</v>
       </c>
       <c r="BZ51" s="1">
-        <f t="shared" si="206"/>
-        <v>5897.8817618488274</v>
+        <f t="shared" si="211"/>
+        <v>5953.1763728374635</v>
       </c>
       <c r="CA51" s="1">
-        <f t="shared" si="206"/>
-        <v>5838.902944230339</v>
+        <f t="shared" si="211"/>
+        <v>5893.6446091090893</v>
       </c>
       <c r="CB51" s="1">
-        <f t="shared" si="206"/>
-        <v>5780.5139147880354</v>
+        <f t="shared" si="211"/>
+        <v>5834.7081630179982</v>
       </c>
       <c r="CC51" s="1">
-        <f t="shared" si="206"/>
-        <v>5722.7087756401552</v>
+        <f t="shared" si="211"/>
+        <v>5776.3610813878186</v>
       </c>
       <c r="CD51" s="1">
-        <f t="shared" si="206"/>
-        <v>5665.4816878837537</v>
+        <f t="shared" si="211"/>
+        <v>5718.59747057394</v>
       </c>
       <c r="CE51" s="1">
-        <f t="shared" si="206"/>
-        <v>5608.826871004916</v>
+        <f t="shared" si="211"/>
+        <v>5661.4114958682003</v>
       </c>
       <c r="CF51" s="1">
-        <f t="shared" si="206"/>
-        <v>5552.7386022948667</v>
+        <f t="shared" si="211"/>
+        <v>5604.7973809095183</v>
       </c>
       <c r="CG51" s="1">
-        <f t="shared" si="206"/>
-        <v>5497.2112162719177</v>
+        <f t="shared" si="211"/>
+        <v>5548.749407100423</v>
       </c>
       <c r="CH51" s="1">
-        <f t="shared" si="206"/>
-        <v>5442.2391041091987</v>
+        <f t="shared" si="211"/>
+        <v>5493.2619130294188</v>
       </c>
       <c r="CI51" s="1">
-        <f t="shared" si="206"/>
-        <v>5387.8167130681068</v>
+        <f t="shared" si="211"/>
+        <v>5438.3292938991244</v>
       </c>
       <c r="CJ51" s="1">
-        <f t="shared" si="206"/>
-        <v>5333.9385459374253</v>
+        <f t="shared" si="211"/>
+        <v>5383.9460009601335</v>
       </c>
       <c r="CK51" s="1">
-        <f t="shared" si="206"/>
-        <v>5280.5991604780511</v>
+        <f t="shared" si="211"/>
+        <v>5330.1065409505318</v>
       </c>
       <c r="CL51" s="1">
-        <f t="shared" si="206"/>
-        <v>5227.7931688732706</v>
+        <f t="shared" si="211"/>
+        <v>5276.8054755410267</v>
       </c>
       <c r="CM51" s="1">
-        <f t="shared" si="206"/>
-        <v>5175.5152371845379</v>
+        <f t="shared" si="211"/>
+        <v>5224.0374207856166</v>
       </c>
       <c r="CN51" s="1">
-        <f t="shared" si="206"/>
-        <v>5123.7600848126922</v>
+        <f t="shared" si="211"/>
+        <v>5171.7970465777607</v>
       </c>
       <c r="CO51" s="1">
-        <f t="shared" si="206"/>
-        <v>5072.5224839645653</v>
+        <f t="shared" si="211"/>
+        <v>5120.0790761119833</v>
       </c>
       <c r="CP51" s="1">
-        <f t="shared" si="206"/>
-        <v>5021.7972591249199</v>
+        <f t="shared" si="211"/>
+        <v>5068.8782853508637</v>
       </c>
       <c r="CQ51" s="1">
-        <f t="shared" si="206"/>
-        <v>4971.5792865336707</v>
+        <f t="shared" si="211"/>
+        <v>5018.1895024973546</v>
       </c>
       <c r="CR51" s="1">
-        <f t="shared" si="206"/>
-        <v>4921.8634936683338</v>
+        <f t="shared" si="211"/>
+        <v>4968.0076074723811</v>
       </c>
       <c r="CS51" s="1">
-        <f t="shared" si="206"/>
-        <v>4872.6448587316509</v>
+        <f t="shared" si="211"/>
+        <v>4918.3275313976574</v>
       </c>
       <c r="CT51" s="1">
-        <f t="shared" si="206"/>
-        <v>4823.9184101443343</v>
+        <f t="shared" si="211"/>
+        <v>4869.1442560836804</v>
       </c>
       <c r="CU51" s="1">
-        <f t="shared" si="206"/>
-        <v>4775.6792260428911</v>
+        <f t="shared" si="211"/>
+        <v>4820.4528135228438</v>
       </c>
       <c r="CV51" s="1">
-        <f t="shared" si="206"/>
-        <v>4727.9224337824617</v>
+        <f t="shared" si="211"/>
+        <v>4772.2482853876154</v>
       </c>
       <c r="CW51" s="1">
-        <f t="shared" si="206"/>
-        <v>4680.6432094446373</v>
+        <f t="shared" si="211"/>
+        <v>4724.5258025337389</v>
       </c>
       <c r="CX51" s="1">
-        <f t="shared" si="206"/>
-        <v>4633.8367773501905</v>
+        <f t="shared" si="211"/>
+        <v>4677.2805445084014</v>
       </c>
       <c r="CY51" s="1">
-        <f t="shared" si="206"/>
-        <v>4587.4984095766886</v>
+        <f t="shared" si="211"/>
+        <v>4630.5077390633169</v>
       </c>
       <c r="CZ51" s="1">
-        <f t="shared" si="206"/>
-        <v>4541.6234254809215</v>
+        <f t="shared" si="211"/>
+        <v>4584.2026616726835</v>
       </c>
       <c r="DA51" s="1">
-        <f t="shared" si="206"/>
-        <v>4496.2071912261126</v>
+        <f t="shared" si="211"/>
+        <v>4538.3606350559567</v>
       </c>
       <c r="DB51" s="1">
-        <f t="shared" si="206"/>
-        <v>4451.2451193138513</v>
+        <f t="shared" si="211"/>
+        <v>4492.9770287053971</v>
       </c>
       <c r="DC51" s="1">
-        <f t="shared" si="206"/>
-        <v>4406.7326681207123</v>
+        <f t="shared" si="211"/>
+        <v>4448.0472584183426</v>
       </c>
       <c r="DD51" s="1">
-        <f t="shared" si="206"/>
-        <v>4362.665341439505</v>
+        <f t="shared" si="211"/>
+        <v>4403.5667858341594</v>
       </c>
       <c r="DE51" s="1">
-        <f t="shared" si="206"/>
-        <v>4319.0386880251099</v>
+        <f t="shared" si="211"/>
+        <v>4359.5311179758182</v>
       </c>
       <c r="DF51" s="1">
-        <f t="shared" si="206"/>
-        <v>4275.8483011448589</v>
+        <f t="shared" si="211"/>
+        <v>4315.9358067960602</v>
       </c>
       <c r="DG51" s="1">
-        <f t="shared" si="206"/>
-        <v>4233.0898181334105</v>
+        <f t="shared" si="211"/>
+        <v>4272.7764487280992</v>
       </c>
       <c r="DH51" s="1">
-        <f t="shared" si="206"/>
-        <v>4190.7589199520762</v>
+        <f t="shared" si="211"/>
+        <v>4230.0486842408181</v>
       </c>
       <c r="DI51" s="1">
-        <f t="shared" si="206"/>
-        <v>4148.8513307525554</v>
+        <f t="shared" si="211"/>
+        <v>4187.7481973984095</v>
       </c>
       <c r="DJ51" s="1">
-        <f t="shared" si="206"/>
-        <v>4107.3628174450296</v>
+        <f t="shared" si="211"/>
+        <v>4145.8707154244257</v>
       </c>
       <c r="DK51" s="1">
-        <f t="shared" ref="DK51:EK51" si="207">DJ51*(1+$AZ$25)</f>
-        <v>4066.2891892705793</v>
+        <f t="shared" ref="DK51:EK51" si="212">DJ51*(1+$AZ$25)</f>
+        <v>4104.4120082701811</v>
       </c>
       <c r="DL51" s="1">
-        <f t="shared" si="207"/>
-        <v>4025.6262973778735</v>
+        <f t="shared" si="212"/>
+        <v>4063.3678881874794</v>
       </c>
       <c r="DM51" s="1">
-        <f t="shared" si="207"/>
-        <v>3985.3700344040949</v>
+        <f t="shared" si="212"/>
+        <v>4022.7342093056045</v>
       </c>
       <c r="DN51" s="1">
-        <f t="shared" si="207"/>
-        <v>3945.5163340600539</v>
+        <f t="shared" si="212"/>
+        <v>3982.5068672125485</v>
       </c>
       <c r="DO51" s="1">
-        <f t="shared" si="207"/>
-        <v>3906.0611707194535</v>
+        <f t="shared" si="212"/>
+        <v>3942.6817985404232</v>
       </c>
       <c r="DP51" s="1">
-        <f t="shared" si="207"/>
-        <v>3867.0005590122587</v>
+        <f t="shared" si="212"/>
+        <v>3903.2549805550188</v>
       </c>
       <c r="DQ51" s="1">
-        <f t="shared" si="207"/>
-        <v>3828.3305534221363</v>
+        <f t="shared" si="212"/>
+        <v>3864.2224307494685</v>
       </c>
       <c r="DR51" s="1">
-        <f t="shared" si="207"/>
-        <v>3790.0472478879151</v>
+        <f t="shared" si="212"/>
+        <v>3825.5802064419736</v>
       </c>
       <c r="DS51" s="1">
-        <f t="shared" si="207"/>
-        <v>3752.1467754090359</v>
+        <f t="shared" si="212"/>
+        <v>3787.3244043775539</v>
       </c>
       <c r="DT51" s="1">
-        <f t="shared" si="207"/>
-        <v>3714.6253076549456</v>
+        <f t="shared" si="212"/>
+        <v>3749.4511603337783</v>
       </c>
       <c r="DU51" s="1">
-        <f t="shared" si="207"/>
-        <v>3677.4790545783962</v>
+        <f t="shared" si="212"/>
+        <v>3711.9566487304405</v>
       </c>
       <c r="DV51" s="1">
-        <f t="shared" si="207"/>
-        <v>3640.7042640326122</v>
+        <f t="shared" si="212"/>
+        <v>3674.8370822431361</v>
       </c>
       <c r="DW51" s="1">
-        <f t="shared" si="207"/>
-        <v>3604.2972213922858</v>
+        <f t="shared" si="212"/>
+        <v>3638.0887114207048</v>
       </c>
       <c r="DX51" s="1">
-        <f t="shared" si="207"/>
-        <v>3568.2542491783629</v>
+        <f t="shared" si="212"/>
+        <v>3601.707824306498</v>
       </c>
       <c r="DY51" s="1">
-        <f t="shared" si="207"/>
-        <v>3532.5717066865791</v>
+        <f t="shared" si="212"/>
+        <v>3565.6907460634329</v>
       </c>
       <c r="DZ51" s="1">
-        <f t="shared" si="207"/>
-        <v>3497.2459896197133</v>
+        <f t="shared" si="212"/>
+        <v>3530.0338386027984</v>
       </c>
       <c r="EA51" s="1">
-        <f t="shared" si="207"/>
-        <v>3462.2735297235163</v>
+        <f t="shared" si="212"/>
+        <v>3494.7335002167702</v>
       </c>
       <c r="EB51" s="1">
-        <f t="shared" si="207"/>
-        <v>3427.6507944262812</v>
+        <f t="shared" si="212"/>
+        <v>3459.7861652146025</v>
       </c>
       <c r="EC51" s="1">
-        <f t="shared" si="207"/>
-        <v>3393.3742864820183</v>
+        <f t="shared" si="212"/>
+        <v>3425.1883035624564</v>
       </c>
       <c r="ED51" s="1">
-        <f t="shared" si="207"/>
-        <v>3359.4405436171983</v>
+        <f t="shared" si="212"/>
+        <v>3390.9364205268316</v>
       </c>
       <c r="EE51" s="1">
-        <f t="shared" si="207"/>
-        <v>3325.8461381810262</v>
+        <f t="shared" si="212"/>
+        <v>3357.0270563215631</v>
       </c>
       <c r="EF51" s="1">
-        <f t="shared" si="207"/>
-        <v>3292.5876767992158</v>
+        <f t="shared" si="212"/>
+        <v>3323.4567857583475</v>
       </c>
       <c r="EG51" s="1">
-        <f t="shared" si="207"/>
-        <v>3259.6618000312237</v>
+        <f t="shared" si="212"/>
+        <v>3290.222217900764</v>
       </c>
       <c r="EH51" s="1">
-        <f t="shared" si="207"/>
-        <v>3227.0651820309113</v>
+        <f t="shared" si="212"/>
+        <v>3257.3199957217562</v>
       </c>
       <c r="EI51" s="1">
-        <f t="shared" si="207"/>
-        <v>3194.7945302106023</v>
+        <f t="shared" si="212"/>
+        <v>3224.7467957645385</v>
       </c>
       <c r="EJ51" s="1">
-        <f t="shared" si="207"/>
-        <v>3162.8465849084964</v>
+        <f t="shared" si="212"/>
+        <v>3192.4993278068932</v>
       </c>
       <c r="EK51" s="1">
-        <f t="shared" si="207"/>
-        <v>3131.2181190594115</v>
+        <f t="shared" si="212"/>
+        <v>3160.5743345288242</v>
       </c>
     </row>
     <row r="53" spans="2:141" x14ac:dyDescent="0.3">
       <c r="AZ53" s="5">
         <f>NPV(AZ26,AM51:EK51)</f>
-        <v>95819.856038730592</v>
+        <v>96607.241927176132</v>
       </c>
     </row>
     <row r="54" spans="2:141" x14ac:dyDescent="0.3">
@@ -7565,25 +7864,25 @@
     <row r="55" spans="2:141" x14ac:dyDescent="0.3">
       <c r="AZ55" s="5">
         <f>AZ53+AZ54</f>
-        <v>101049.85603873059</v>
+        <v>101837.24192717613</v>
       </c>
     </row>
     <row r="56" spans="2:141" x14ac:dyDescent="0.3">
       <c r="AZ56" s="4">
         <f>AZ55/AW19</f>
-        <v>43.084273914356011</v>
+        <v>43.358982384798459</v>
       </c>
     </row>
     <row r="57" spans="2:141" x14ac:dyDescent="0.3">
       <c r="AZ57" s="4">
         <f>Main!D3</f>
-        <v>83.6</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="58" spans="2:141" x14ac:dyDescent="0.3">
       <c r="AZ58" s="10">
         <f>AZ56/AZ57-1</f>
-        <v>-0.48463787183784668</v>
+        <v>-0.61581621136985243</v>
       </c>
     </row>
   </sheetData>
